--- a/AssessmentSchedule_2526.xlsx
+++ b/AssessmentSchedule_2526.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="269" documentId="8_{3BD1AB7E-894C-4574-9FA4-C65B4507F605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21DF0347-072C-4772-84E4-606A0BDBB82E}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="8_{3BD1AB7E-894C-4574-9FA4-C65B4507F605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87209A31-6165-49FC-8533-0E7BDDE38269}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="279">
   <si>
     <t>Module Code</t>
   </si>
@@ -877,6 +877,9 @@
   <si>
     <t>LabVIEW Exercise 3</t>
   </si>
+  <si>
+    <t>Laser Physics and Non-Linear Optics</t>
+  </si>
 </sst>
 </file>
 
@@ -970,7 +973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1078,21 +1081,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1105,29 +1113,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="101">
+  <dxfs count="107">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1184,6 +1174,98 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3250,41 +3332,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8685,7 +8732,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9134,56 +9181,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}" name="Table1" displayName="Table1" ref="A1:AJ139" totalsRowShown="0" headerRowDxfId="100" dataDxfId="98" headerRowBorderDxfId="99" tableBorderDxfId="97" totalsRowBorderDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}" name="Table1" displayName="Table1" ref="A1:AJ139" totalsRowShown="0" headerRowDxfId="12" dataDxfId="105" headerRowBorderDxfId="106" tableBorderDxfId="104" totalsRowBorderDxfId="103">
   <autoFilter ref="A1:AJ139" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH125">
     <sortCondition ref="A1:A125"/>
   </sortState>
   <tableColumns count="36">
-    <tableColumn id="1" xr3:uid="{7078548A-F011-4851-AB36-1F04238FA2FE}" name="Module Code" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{D2290F36-B8B3-427A-AEFE-45FD22901411}" name="Module Title" dataDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{31165455-2AA3-4532-A0A0-C942837C0F79}" name="CA type" dataDxfId="93"/>
-    <tableColumn id="33" xr3:uid="{B83E0E3E-2B28-42F1-BC64-5D7177EC4229}" name="CA Weight" dataDxfId="92">
+    <tableColumn id="1" xr3:uid="{7078548A-F011-4851-AB36-1F04238FA2FE}" name="Module Code" dataDxfId="102"/>
+    <tableColumn id="2" xr3:uid="{D2290F36-B8B3-427A-AEFE-45FD22901411}" name="Module Title" dataDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{31165455-2AA3-4532-A0A0-C942837C0F79}" name="CA type" dataDxfId="100"/>
+    <tableColumn id="33" xr3:uid="{B83E0E3E-2B28-42F1-BC64-5D7177EC4229}" name="CA Weight" dataDxfId="99">
       <calculatedColumnFormula>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{AEA2048C-138D-450A-BE52-3FCBDE03C67D}" name="Credits" dataDxfId="91">
+    <tableColumn id="34" xr3:uid="{AEA2048C-138D-450A-BE52-3FCBDE03C67D}" name="Credits" dataDxfId="98">
       <calculatedColumnFormula>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{82DD5B5B-C808-4E6E-849C-7A03DC6D0B69}" name="Description" dataDxfId="90"/>
-    <tableColumn id="36" xr3:uid="{A7BF30F6-C808-4B8F-B3FF-9FAF20E2145A}" name="Summative" dataDxfId="89"/>
-    <tableColumn id="16" xr3:uid="{E6637FEB-7F23-45F0-99D2-96D20DD2DAEF}" name="Duration" dataDxfId="88"/>
-    <tableColumn id="31" xr3:uid="{FD1E9614-3960-4F72-BD42-711A4CC7BBA0}" name="Nominal Hours" dataDxfId="87">
+    <tableColumn id="30" xr3:uid="{82DD5B5B-C808-4E6E-849C-7A03DC6D0B69}" name="Description" dataDxfId="97"/>
+    <tableColumn id="36" xr3:uid="{A7BF30F6-C808-4B8F-B3FF-9FAF20E2145A}" name="Summative" dataDxfId="96"/>
+    <tableColumn id="16" xr3:uid="{E6637FEB-7F23-45F0-99D2-96D20DD2DAEF}" name="Duration" dataDxfId="95"/>
+    <tableColumn id="31" xr3:uid="{FD1E9614-3960-4F72-BD42-711A4CC7BBA0}" name="Nominal Hours" dataDxfId="94">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{E11C773A-511F-4D25-8636-C56C5B61ED90}" name="Hours" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{04E38F13-8347-412C-866C-6EFE6796253C}" name="Autumn Week 1" dataDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{254D6A24-FC1B-44C7-A3DF-52DA2A250D31}" name="Autumn Week 2" dataDxfId="84"/>
-    <tableColumn id="6" xr3:uid="{9EB326C3-772E-4E56-89FB-BA3A00291293}" name="Autumn Week 3" dataDxfId="83"/>
-    <tableColumn id="7" xr3:uid="{94BC6C78-5A89-4267-B1C1-BFA70E5A9F34}" name="Autumn Week 4" dataDxfId="82"/>
-    <tableColumn id="8" xr3:uid="{CF3B6389-B559-4FE3-8B33-FEDB303382B1}" name="Autumn Week 5" dataDxfId="81"/>
-    <tableColumn id="9" xr3:uid="{8DD80B9C-D1B1-4CDE-A624-4CD3A15113DD}" name="Autumn Week 6" dataDxfId="80"/>
-    <tableColumn id="10" xr3:uid="{8C4EBEE4-01CB-4AD0-B594-F466CC36D370}" name="Autumn Week 7" dataDxfId="79"/>
-    <tableColumn id="11" xr3:uid="{7F8C91DE-BE61-47CF-A916-D06ED7B283E9}" name="Autumn Week 8" dataDxfId="78"/>
-    <tableColumn id="12" xr3:uid="{9D58139A-0F96-4203-8D22-58BC34744B87}" name="Autumn Week 9" dataDxfId="77"/>
-    <tableColumn id="13" xr3:uid="{43C545DF-9B9E-4080-8012-F9EFA0F01283}" name="Autumn Week 10" dataDxfId="76"/>
-    <tableColumn id="14" xr3:uid="{829AB976-2AB2-435C-8F11-DE08DACA4407}" name="Autumn Week 11" dataDxfId="75"/>
-    <tableColumn id="15" xr3:uid="{9126A0EA-FC34-4876-9D56-A0AC39C5526C}" name="Autumn Week 12" dataDxfId="74"/>
-    <tableColumn id="17" xr3:uid="{15B891EE-FCC8-4E53-A90D-3E10FFC1E9FA}" name="Spring Week 1" dataDxfId="73"/>
-    <tableColumn id="18" xr3:uid="{464CA212-3B53-4678-AFE4-8AF8308C1986}" name="Spring Week 2" dataDxfId="72"/>
-    <tableColumn id="19" xr3:uid="{B560E823-CC29-418C-B26C-52D9FFC8C72E}" name="Spring Week 3" dataDxfId="71"/>
-    <tableColumn id="20" xr3:uid="{D95606F3-E0A0-4907-91E0-4AD09D0C65CB}" name="Spring Week 4" dataDxfId="70"/>
-    <tableColumn id="21" xr3:uid="{E71FF892-9A4B-444C-8972-62D92F81B0E7}" name="Spring Week 5" dataDxfId="69"/>
-    <tableColumn id="22" xr3:uid="{C7775BA8-178A-4501-A8DE-2B2CF77A2451}" name="Spring Week 6" dataDxfId="68"/>
-    <tableColumn id="23" xr3:uid="{51A89A97-F839-4F50-88A9-65049D65C9B0}" name="Spring Week 7" dataDxfId="67"/>
-    <tableColumn id="24" xr3:uid="{26EE6D10-4FC4-49AE-8DE6-18AC556C293D}" name="Spring Week 8" dataDxfId="66"/>
-    <tableColumn id="25" xr3:uid="{FCB1B9FB-21DA-415A-86E6-C8E14F864E1B}" name="Spring Week 9" dataDxfId="65"/>
-    <tableColumn id="26" xr3:uid="{54402AE1-DC77-41BA-BCC7-28BCA7186B44}" name="Spring Week 10" dataDxfId="64"/>
-    <tableColumn id="27" xr3:uid="{31C092D1-BD77-4126-8E72-8E74D0D11509}" name="Spring Week 11" dataDxfId="63"/>
-    <tableColumn id="28" xr3:uid="{56D67770-E36A-46FE-97FA-76CD24229C51}" name="Spring Week 12" dataDxfId="62"/>
-    <tableColumn id="29" xr3:uid="{785AD842-5ED0-4E27-B4B7-26E6FF9AC266}" name="Sub-total" dataDxfId="61">
+    <tableColumn id="32" xr3:uid="{E11C773A-511F-4D25-8636-C56C5B61ED90}" name="Hours" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{04E38F13-8347-412C-866C-6EFE6796253C}" name="Autumn Week 1" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{254D6A24-FC1B-44C7-A3DF-52DA2A250D31}" name="Autumn Week 2" dataDxfId="91"/>
+    <tableColumn id="6" xr3:uid="{9EB326C3-772E-4E56-89FB-BA3A00291293}" name="Autumn Week 3" dataDxfId="90"/>
+    <tableColumn id="7" xr3:uid="{94BC6C78-5A89-4267-B1C1-BFA70E5A9F34}" name="Autumn Week 4" dataDxfId="89"/>
+    <tableColumn id="8" xr3:uid="{CF3B6389-B559-4FE3-8B33-FEDB303382B1}" name="Autumn Week 5" dataDxfId="88"/>
+    <tableColumn id="9" xr3:uid="{8DD80B9C-D1B1-4CDE-A624-4CD3A15113DD}" name="Autumn Week 6" dataDxfId="87"/>
+    <tableColumn id="10" xr3:uid="{8C4EBEE4-01CB-4AD0-B594-F466CC36D370}" name="Autumn Week 7" dataDxfId="86"/>
+    <tableColumn id="11" xr3:uid="{7F8C91DE-BE61-47CF-A916-D06ED7B283E9}" name="Autumn Week 8" dataDxfId="85"/>
+    <tableColumn id="12" xr3:uid="{9D58139A-0F96-4203-8D22-58BC34744B87}" name="Autumn Week 9" dataDxfId="84"/>
+    <tableColumn id="13" xr3:uid="{43C545DF-9B9E-4080-8012-F9EFA0F01283}" name="Autumn Week 10" dataDxfId="83"/>
+    <tableColumn id="14" xr3:uid="{829AB976-2AB2-435C-8F11-DE08DACA4407}" name="Autumn Week 11" dataDxfId="82"/>
+    <tableColumn id="15" xr3:uid="{9126A0EA-FC34-4876-9D56-A0AC39C5526C}" name="Autumn Week 12" dataDxfId="81"/>
+    <tableColumn id="17" xr3:uid="{15B891EE-FCC8-4E53-A90D-3E10FFC1E9FA}" name="Spring Week 1" dataDxfId="80"/>
+    <tableColumn id="18" xr3:uid="{464CA212-3B53-4678-AFE4-8AF8308C1986}" name="Spring Week 2" dataDxfId="79"/>
+    <tableColumn id="19" xr3:uid="{B560E823-CC29-418C-B26C-52D9FFC8C72E}" name="Spring Week 3" dataDxfId="78"/>
+    <tableColumn id="20" xr3:uid="{D95606F3-E0A0-4907-91E0-4AD09D0C65CB}" name="Spring Week 4" dataDxfId="77"/>
+    <tableColumn id="21" xr3:uid="{E71FF892-9A4B-444C-8972-62D92F81B0E7}" name="Spring Week 5" dataDxfId="76"/>
+    <tableColumn id="22" xr3:uid="{C7775BA8-178A-4501-A8DE-2B2CF77A2451}" name="Spring Week 6" dataDxfId="75"/>
+    <tableColumn id="23" xr3:uid="{51A89A97-F839-4F50-88A9-65049D65C9B0}" name="Spring Week 7" dataDxfId="74"/>
+    <tableColumn id="24" xr3:uid="{26EE6D10-4FC4-49AE-8DE6-18AC556C293D}" name="Spring Week 8" dataDxfId="73"/>
+    <tableColumn id="25" xr3:uid="{FCB1B9FB-21DA-415A-86E6-C8E14F864E1B}" name="Spring Week 9" dataDxfId="72"/>
+    <tableColumn id="26" xr3:uid="{54402AE1-DC77-41BA-BCC7-28BCA7186B44}" name="Spring Week 10" dataDxfId="71"/>
+    <tableColumn id="27" xr3:uid="{31C092D1-BD77-4126-8E72-8E74D0D11509}" name="Spring Week 11" dataDxfId="70"/>
+    <tableColumn id="28" xr3:uid="{56D67770-E36A-46FE-97FA-76CD24229C51}" name="Spring Week 12" dataDxfId="69"/>
+    <tableColumn id="29" xr3:uid="{785AD842-5ED0-4E27-B4B7-26E6FF9AC266}" name="Sub-total" dataDxfId="68">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{EE5D0E71-7823-4EE2-9CC1-32BF500AB742}" name="Total Hours" dataDxfId="60">
+    <tableColumn id="35" xr3:uid="{EE5D0E71-7823-4EE2-9CC1-32BF500AB742}" name="Total Hours" dataDxfId="67">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9192,49 +9239,49 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A071F52D-AD51-4120-94C5-67D4117EBD07}" name="Table14" displayName="Table14" ref="A1:AE64" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A071F52D-AD51-4120-94C5-67D4117EBD07}" name="Table14" displayName="Table14" ref="A1:AE64" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" totalsRowBorderDxfId="62">
   <autoFilter ref="A1:AE64" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD64">
     <sortCondition ref="A1:A132"/>
   </sortState>
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{D7CE4D57-09F4-4B9D-B464-A087075D1C39}" name="Module Code" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{DE2920B2-70AC-48F3-99E7-07B70BC1E928}" name="Module Title" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{61946E7A-4C82-425B-89A6-3DBD530FCD55}" name="Contact type" dataDxfId="52"/>
-    <tableColumn id="34" xr3:uid="{55A68E2B-9324-4E9E-9629-6611EC7C904E}" name="Credits" dataDxfId="51">
+    <tableColumn id="1" xr3:uid="{D7CE4D57-09F4-4B9D-B464-A087075D1C39}" name="Module Code" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{DE2920B2-70AC-48F3-99E7-07B70BC1E928}" name="Module Title" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{61946E7A-4C82-425B-89A6-3DBD530FCD55}" name="Contact type" dataDxfId="59"/>
+    <tableColumn id="34" xr3:uid="{55A68E2B-9324-4E9E-9629-6611EC7C904E}" name="Credits" dataDxfId="58">
       <calculatedColumnFormula>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{9C4C2C35-CE5A-4469-93FA-21FC6F57EDAD}" name="Semester" dataDxfId="50">
+    <tableColumn id="30" xr3:uid="{9C4C2C35-CE5A-4469-93FA-21FC6F57EDAD}" name="Semester" dataDxfId="57">
       <calculatedColumnFormula>INDEX(Table2[Semester],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{A7B09E14-0C35-459D-A9D0-5143D8AFFE4E}" name="Nominal Hours" dataDxfId="49">
+    <tableColumn id="31" xr3:uid="{A7B09E14-0C35-459D-A9D0-5143D8AFFE4E}" name="Nominal Hours" dataDxfId="56">
       <calculatedColumnFormula>INDEX(Table2[Contact Time],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{503822B3-8862-4FCD-9DD3-3B52F57A97BE}" name="Autumn Week 1" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{760391D0-3219-4B11-8E3D-3E00EEDFA9DD}" name="Autumn Week 2" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{6EE5E3E9-C4FB-49BE-932C-B84EA0A7970D}" name="Autumn Week 3" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{2C7AD515-480E-49A6-8076-95205ACF95EC}" name="Autumn Week 4" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{6FD8C5C6-433E-493B-BB28-5ADD15CFC7FB}" name="Autumn Week 5" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{801E6BE2-75F8-40A5-A263-0AAEFDAA63E7}" name="Autumn Week 6" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{976D463A-C6BC-4636-B732-53E6CDF3F6C7}" name="Autumn Week 7" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{D025F987-6302-4D7B-9A9A-636F867D1872}" name="Autumn Week 8" dataDxfId="41"/>
-    <tableColumn id="12" xr3:uid="{D30D10EE-2DE5-4659-AA67-2134D11D6119}" name="Autumn Week 9" dataDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{35E8F713-2D13-47B7-9811-293DA89F0D62}" name="Autumn Week 10" dataDxfId="39"/>
-    <tableColumn id="14" xr3:uid="{5DD48606-F817-4B30-8BA1-A96457CBB489}" name="Autumn Week 11" dataDxfId="38"/>
-    <tableColumn id="15" xr3:uid="{9B982ED1-A4C5-4E87-99AB-70713F2B634E}" name="Autumn Week 12" dataDxfId="37"/>
-    <tableColumn id="17" xr3:uid="{3AFDFF11-D351-428A-AC16-E674EB9DD7CC}" name="Spring Week 1" dataDxfId="36"/>
-    <tableColumn id="18" xr3:uid="{1431E9F9-328E-4229-9377-39D94C660D67}" name="Spring Week 2" dataDxfId="35"/>
-    <tableColumn id="19" xr3:uid="{8E1051DB-2A93-4ABA-8317-8F9921CF483D}" name="Spring Week 3" dataDxfId="34"/>
-    <tableColumn id="20" xr3:uid="{98B745E4-C481-42FF-9D3B-0D0899BD3DB6}" name="Spring Week 4" dataDxfId="33"/>
-    <tableColumn id="21" xr3:uid="{2FC9B562-4622-444D-9372-5637BFE48E0A}" name="Spring Week 5" dataDxfId="32"/>
-    <tableColumn id="22" xr3:uid="{95778D77-82F1-4B00-8FED-6FEB2BF83C3D}" name="Spring Week 6" dataDxfId="31"/>
-    <tableColumn id="23" xr3:uid="{9A49A64C-9A09-47A0-BC65-A8C1C98DACA3}" name="Spring Week 7" dataDxfId="30"/>
-    <tableColumn id="24" xr3:uid="{191AACBA-3CF0-48E5-B522-FCD2CCE9AC99}" name="Spring Week 8" dataDxfId="29"/>
-    <tableColumn id="25" xr3:uid="{DC35B6C1-904B-4E6A-A04F-ADF850A50D85}" name="Spring Week 9" dataDxfId="28"/>
-    <tableColumn id="26" xr3:uid="{BEB9E86A-57BF-4A1E-A499-BADB9EAD1DE9}" name="Spring Week 10" dataDxfId="27"/>
-    <tableColumn id="27" xr3:uid="{D640FB81-F093-4E3F-B7A1-6995DDDD6305}" name="Spring Week 11" dataDxfId="26"/>
-    <tableColumn id="28" xr3:uid="{496FDC17-F0F2-4381-96DA-177DC578A786}" name="Spring Week 12" dataDxfId="25"/>
-    <tableColumn id="32" xr3:uid="{65BCC67A-5DC9-4957-BB42-BCF5FCA71B17}" name="Total" dataDxfId="24">
+    <tableColumn id="4" xr3:uid="{503822B3-8862-4FCD-9DD3-3B52F57A97BE}" name="Autumn Week 1" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{760391D0-3219-4B11-8E3D-3E00EEDFA9DD}" name="Autumn Week 2" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{6EE5E3E9-C4FB-49BE-932C-B84EA0A7970D}" name="Autumn Week 3" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{2C7AD515-480E-49A6-8076-95205ACF95EC}" name="Autumn Week 4" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{6FD8C5C6-433E-493B-BB28-5ADD15CFC7FB}" name="Autumn Week 5" dataDxfId="51"/>
+    <tableColumn id="9" xr3:uid="{801E6BE2-75F8-40A5-A263-0AAEFDAA63E7}" name="Autumn Week 6" dataDxfId="50"/>
+    <tableColumn id="10" xr3:uid="{976D463A-C6BC-4636-B732-53E6CDF3F6C7}" name="Autumn Week 7" dataDxfId="49"/>
+    <tableColumn id="11" xr3:uid="{D025F987-6302-4D7B-9A9A-636F867D1872}" name="Autumn Week 8" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{D30D10EE-2DE5-4659-AA67-2134D11D6119}" name="Autumn Week 9" dataDxfId="47"/>
+    <tableColumn id="13" xr3:uid="{35E8F713-2D13-47B7-9811-293DA89F0D62}" name="Autumn Week 10" dataDxfId="46"/>
+    <tableColumn id="14" xr3:uid="{5DD48606-F817-4B30-8BA1-A96457CBB489}" name="Autumn Week 11" dataDxfId="45"/>
+    <tableColumn id="15" xr3:uid="{9B982ED1-A4C5-4E87-99AB-70713F2B634E}" name="Autumn Week 12" dataDxfId="44"/>
+    <tableColumn id="17" xr3:uid="{3AFDFF11-D351-428A-AC16-E674EB9DD7CC}" name="Spring Week 1" dataDxfId="43"/>
+    <tableColumn id="18" xr3:uid="{1431E9F9-328E-4229-9377-39D94C660D67}" name="Spring Week 2" dataDxfId="42"/>
+    <tableColumn id="19" xr3:uid="{8E1051DB-2A93-4ABA-8317-8F9921CF483D}" name="Spring Week 3" dataDxfId="41"/>
+    <tableColumn id="20" xr3:uid="{98B745E4-C481-42FF-9D3B-0D0899BD3DB6}" name="Spring Week 4" dataDxfId="40"/>
+    <tableColumn id="21" xr3:uid="{2FC9B562-4622-444D-9372-5637BFE48E0A}" name="Spring Week 5" dataDxfId="39"/>
+    <tableColumn id="22" xr3:uid="{95778D77-82F1-4B00-8FED-6FEB2BF83C3D}" name="Spring Week 6" dataDxfId="38"/>
+    <tableColumn id="23" xr3:uid="{9A49A64C-9A09-47A0-BC65-A8C1C98DACA3}" name="Spring Week 7" dataDxfId="37"/>
+    <tableColumn id="24" xr3:uid="{191AACBA-3CF0-48E5-B522-FCD2CCE9AC99}" name="Spring Week 8" dataDxfId="36"/>
+    <tableColumn id="25" xr3:uid="{DC35B6C1-904B-4E6A-A04F-ADF850A50D85}" name="Spring Week 9" dataDxfId="35"/>
+    <tableColumn id="26" xr3:uid="{BEB9E86A-57BF-4A1E-A499-BADB9EAD1DE9}" name="Spring Week 10" dataDxfId="34"/>
+    <tableColumn id="27" xr3:uid="{D640FB81-F093-4E3F-B7A1-6995DDDD6305}" name="Spring Week 11" dataDxfId="33"/>
+    <tableColumn id="28" xr3:uid="{496FDC17-F0F2-4381-96DA-177DC578A786}" name="Spring Week 12" dataDxfId="32"/>
+    <tableColumn id="32" xr3:uid="{65BCC67A-5DC9-4957-BB42-BCF5FCA71B17}" name="Total" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table14[[#This Row],[Autumn Week 1]:[Spring Week 12]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9243,32 +9290,32 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}" name="Table2" displayName="Table2" ref="A1:R93" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22">
-  <autoFilter ref="A1:R93" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B61">
-    <sortCondition ref="A1:A61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}" name="Table2" displayName="Table2" ref="A1:R94" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29">
+  <autoFilter ref="A1:R94" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B62">
+    <sortCondition ref="A1:A62"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{A36A2B86-0F30-4188-9ECD-AE5BC71A59F4}" name="Module Code" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{D3F20037-EF35-4207-A530-484E1EB45719}" name="Module Title" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{40C22022-10B9-411F-9B76-B89140ABFFB2}" name="Alternative Module Code" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{CB12E405-1802-457C-AF17-F1B9CB3BBF13}" name="Source" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{EA737976-1AA7-49B6-8752-A388621554F4}" name="Semester" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{16DFC84F-5858-467D-B447-49992D721E4B}" name="Level" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{A17BC4BA-A3CB-442D-9BDC-D3B41B98B389}" name="Credits" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{7E25B4F4-1A7D-48D9-AAA2-AF5C97240797}" name="Physics" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{A36A2B86-0F30-4188-9ECD-AE5BC71A59F4}" name="Module Code" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{D3F20037-EF35-4207-A530-484E1EB45719}" name="Module Title" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{40C22022-10B9-411F-9B76-B89140ABFFB2}" name="Alternative Module Code" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{CB12E405-1802-457C-AF17-F1B9CB3BBF13}" name="Source" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{EA737976-1AA7-49B6-8752-A388621554F4}" name="Semester" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{16DFC84F-5858-467D-B447-49992D721E4B}" name="Level" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{A17BC4BA-A3CB-442D-9BDC-D3B41B98B389}" name="Credits" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{7E25B4F4-1A7D-48D9-AAA2-AF5C97240797}" name="Physics" dataDxfId="20"/>
     <tableColumn id="17" xr3:uid="{AA3AE96F-2651-49D7-89AD-BA94806438AE}" name="PhysAstro"/>
-    <tableColumn id="4" xr3:uid="{9C7DD469-E550-411F-8467-246A1543FB38}" name="Astro" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{3C5D3AEB-487E-4678-A42F-BE4BA4D0E9AA}" name="MedPhys" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{AE552873-9B31-41A6-B73C-D052477CA74C}" name="MScPhysics" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{8F51CE76-3A29-487A-A13C-FB63C79CF3E6}" name="MScAstro" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{9C7DD469-E550-411F-8467-246A1543FB38}" name="Astro" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{3C5D3AEB-487E-4678-A42F-BE4BA4D0E9AA}" name="MedPhys" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{AE552873-9B31-41A6-B73C-D052477CA74C}" name="MScPhysics" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{8F51CE76-3A29-487A-A13C-FB63C79CF3E6}" name="MScAstro" dataDxfId="16"/>
     <tableColumn id="18" xr3:uid="{10668F71-1EDF-482E-86A5-46E1F3C15120}" name="MScCSPhysics"/>
     <tableColumn id="16" xr3:uid="{DB790F5F-BEF0-41CE-A68A-1AA9DF83D66B}" name="Contact Time"/>
-    <tableColumn id="10" xr3:uid="{60774AFA-B365-4EB5-AAFF-6235868F8C97}" name="Exam Weight (%)" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{537B7C75-E9C0-42F2-9F3C-6E960AB2D257}" name="CA weight" dataDxfId="7">
+    <tableColumn id="10" xr3:uid="{60774AFA-B365-4EB5-AAFF-6235868F8C97}" name="Exam Weight (%)" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{537B7C75-E9C0-42F2-9F3C-6E960AB2D257}" name="CA weight" dataDxfId="14">
       <calculatedColumnFormula>100-Table2[[#This Row],[Exam Weight (%)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{75DA2527-5A08-4ECE-B4E4-752A8F8BF059}" name="CA Check" dataDxfId="6">
+    <tableColumn id="11" xr3:uid="{75DA2527-5A08-4ECE-B4E4-752A8F8BF059}" name="CA Check" dataDxfId="13">
       <calculatedColumnFormula>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9596,134 +9643,133 @@
   <dimension ref="A1:AJ139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.9296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.9296875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.73046875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.73046875" style="10" customWidth="1"/>
-    <col min="11" max="19" width="16.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="17.265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="34" width="9.06640625" style="16"/>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10" style="10" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" style="10" customWidth="1"/>
+    <col min="11" max="22" width="9.140625" style="14" customWidth="1"/>
+    <col min="23" max="34" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:36" s="44" customFormat="1" ht="30">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AB1" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AE1" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AF1" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AG1" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AH1" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AI1" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AJ1" s="43" t="s">
         <v>247</v>
       </c>
     </row>
@@ -11149,43 +11195,49 @@
       </c>
       <c r="I21" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>1.142857142857143</v>
+        <v>0.88888888888888895</v>
       </c>
       <c r="J21" s="11">
         <v>2</v>
       </c>
       <c r="K21" s="18"/>
       <c r="L21" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
+        <f>0.2/9</f>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="M21" s="18">
-        <f t="shared" ref="M21:O21" si="0">0.2/7</f>
-        <v>2.8571428571428574E-2</v>
+        <f>0.2/9</f>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="N21" s="18">
-        <f t="shared" si="0"/>
-        <v>2.8571428571428574E-2</v>
+        <f>0.2/9</f>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="O21" s="18">
-        <f t="shared" si="0"/>
-        <v>2.8571428571428574E-2</v>
+        <f>0.2/9</f>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="P21" s="18"/>
       <c r="Q21" s="18">
-        <f t="shared" ref="Q21:R21" si="1">0.2/7</f>
-        <v>2.8571428571428574E-2</v>
+        <f>0.2/9</f>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="R21" s="18">
-        <f t="shared" si="1"/>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="S21" s="18"/>
+        <f>0.2/9</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="S21" s="18">
+        <f>0.2/9</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
       <c r="T21" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="U21" s="18"/>
+        <f>0.2/9</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="U21" s="18">
+        <f>0.2/9</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
       <c r="V21" s="19"/>
       <c r="W21" s="20"/>
       <c r="X21" s="20"/>
@@ -11201,11 +11253,11 @@
       <c r="AH21" s="20"/>
       <c r="AI21" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.20000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="AJ21" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -11300,11 +11352,11 @@
         <v>251</v>
       </c>
       <c r="H23" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>7.3333333333333339</v>
+        <v>12</v>
       </c>
       <c r="J23" s="11">
         <v>6</v>
@@ -11312,21 +11364,16 @@
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="18">
-        <f>0.55/3</f>
-        <v>0.18333333333333335</v>
-      </c>
+      <c r="N23" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="O23" s="18"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="18">
-        <f>0.55/3</f>
-        <v>0.18333333333333335</v>
+        <v>0.3</v>
       </c>
       <c r="R23" s="19"/>
-      <c r="S23" s="18">
-        <f>0.55/3</f>
-        <v>0.18333333333333335</v>
-      </c>
+      <c r="S23" s="18"/>
       <c r="T23" s="18"/>
       <c r="U23" s="18"/>
       <c r="V23" s="19"/>
@@ -11344,11 +11391,11 @@
       <c r="AH23" s="20"/>
       <c r="AI23" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="AJ23" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -11449,7 +11496,7 @@
       </c>
       <c r="I25" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J25" s="11">
         <v>15</v>
@@ -11465,7 +11512,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
       <c r="U25" s="18">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="V25" s="19"/>
       <c r="W25" s="20"/>
@@ -11482,7 +11529,7 @@
       <c r="AH25" s="20"/>
       <c r="AI25" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="AJ25" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
@@ -11653,62 +11700,44 @@
         <v>42</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="D28" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E28" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>229</v>
-      </c>
+      <c r="F28" s="11"/>
       <c r="G28" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H28" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.79999999999999982</v>
+        <v>8</v>
       </c>
       <c r="J28" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="K28" s="18">
-        <v>0.02</v>
-      </c>
-      <c r="L28" s="18">
-        <v>0.02</v>
-      </c>
-      <c r="M28" s="18">
-        <v>0.02</v>
-      </c>
-      <c r="N28" s="19">
-        <v>0.02</v>
-      </c>
-      <c r="O28" s="18">
-        <v>0.02</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="18"/>
       <c r="P28" s="18">
-        <v>0.02</v>
-      </c>
-      <c r="Q28" s="18">
-        <v>0.02</v>
-      </c>
-      <c r="R28" s="19">
-        <v>0.02</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="19"/>
       <c r="S28" s="18">
-        <v>0.02</v>
-      </c>
-      <c r="T28" s="18">
-        <v>0.02</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="T28" s="18"/>
       <c r="U28" s="18"/>
       <c r="V28" s="19"/>
       <c r="W28" s="20"/>
@@ -11725,57 +11754,80 @@
       <c r="AH28" s="20"/>
       <c r="AI28" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.19999999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="AJ28" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="D29" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E29" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F29" s="11"/>
+      <c r="F29" s="11" t="s">
+        <v>219</v>
+      </c>
       <c r="G29" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H29" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>6</v>
-      </c>
-      <c r="J29" s="11">
-        <v>6</v>
-      </c>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="18"/>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="K29" s="18">
+        <f>0.1/9</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="L29" s="18">
+        <f t="shared" ref="L29:S29" si="0">0.1/9</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="M29" s="18">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="N29" s="18">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="O29" s="18">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
       <c r="P29" s="18">
-        <v>0.15</v>
-      </c>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="19"/>
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="Q29" s="18">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="R29" s="18">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
       <c r="S29" s="18">
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="T29" s="18"/>
       <c r="U29" s="18"/>
@@ -11794,11 +11846,11 @@
       <c r="AH29" s="20"/>
       <c r="AI29" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AJ29" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -11809,7 +11861,7 @@
         <v>43</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="D30" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -11820,57 +11872,38 @@
         <v>10</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H30" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.44444444444444448</v>
-      </c>
-      <c r="J30" s="11"/>
-      <c r="K30" s="18">
-        <f>0.1/9</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="L30" s="18">
-        <f t="shared" ref="L30:S30" si="2">0.1/9</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="M30" s="18">
-        <f t="shared" si="2"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="N30" s="18">
-        <f t="shared" si="2"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="O30" s="18">
-        <f t="shared" si="2"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="P30" s="18">
-        <f t="shared" si="2"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="Q30" s="18">
-        <f t="shared" si="2"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="R30" s="18">
-        <f t="shared" si="2"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="J30" s="11">
+        <v>2</v>
+      </c>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="19"/>
       <c r="S30" s="18">
-        <f t="shared" si="2"/>
-        <v>1.1111111111111112E-2</v>
+        <v>0.2</v>
       </c>
       <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
+      <c r="U30" s="18">
+        <v>0.05</v>
+      </c>
       <c r="V30" s="19"/>
       <c r="W30" s="20"/>
       <c r="X30" s="20"/>
@@ -11886,11 +11919,11 @@
       <c r="AH30" s="20"/>
       <c r="AI30" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="AJ30" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -11901,7 +11934,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="D31" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -11912,38 +11945,34 @@
         <v>10</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H31" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J31" s="11">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
-      <c r="N31" s="19">
-        <v>0.2</v>
-      </c>
+      <c r="N31" s="19"/>
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="18">
+      <c r="R31" s="19">
         <v>0.2</v>
       </c>
+      <c r="S31" s="18"/>
       <c r="T31" s="18"/>
-      <c r="U31" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="U31" s="18"/>
       <c r="V31" s="19"/>
       <c r="W31" s="20"/>
       <c r="X31" s="20"/>
@@ -11959,11 +11988,11 @@
       <c r="AH31" s="20"/>
       <c r="AI31" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="AJ31" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -11974,7 +12003,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D32" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -11985,20 +12014,20 @@
         <v>10</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H32" s="11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I32" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J32" s="11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
@@ -12007,12 +12036,12 @@
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
-      <c r="R32" s="19">
-        <v>0.2</v>
-      </c>
+      <c r="R32" s="19"/>
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
+      <c r="U32" s="18">
+        <v>0.25</v>
+      </c>
       <c r="V32" s="19"/>
       <c r="W32" s="20"/>
       <c r="X32" s="20"/>
@@ -12028,60 +12057,68 @@
       <c r="AH32" s="20"/>
       <c r="AI32" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AJ32" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" ht="14.65" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D33" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E33" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H33" s="11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I33" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J33" s="11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
       <c r="N33" s="19"/>
       <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="P33" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="Q33" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="R33" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="S33" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="T33" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="U33" s="18"/>
       <c r="V33" s="19"/>
       <c r="W33" s="20"/>
       <c r="X33" s="20"/>
@@ -12101,10 +12138,10 @@
       </c>
       <c r="AJ33" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:36" ht="14.55" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36">
       <c r="A34" s="4" t="s">
         <v>46</v>
       </c>
@@ -12112,7 +12149,7 @@
         <v>44</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="D34" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -12123,43 +12160,33 @@
         <v>10</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H34" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I34" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>2</v>
-      </c>
-      <c r="J34" s="11">
-        <v>3</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="J34" s="11"/>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
       <c r="N34" s="19"/>
       <c r="O34" s="18"/>
-      <c r="P34" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="Q34" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="R34" s="19">
-        <v>0.05</v>
-      </c>
-      <c r="S34" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="T34" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
       <c r="U34" s="18"/>
-      <c r="V34" s="19"/>
+      <c r="V34" s="19">
+        <v>0.25</v>
+      </c>
       <c r="W34" s="20"/>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
@@ -12178,74 +12205,86 @@
       </c>
       <c r="AJ34" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:36">
       <c r="A35" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="D35" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E35" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H35" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I35" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>10</v>
-      </c>
-      <c r="J35" s="11"/>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="J35" s="11">
+        <v>6</v>
+      </c>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
       <c r="N35" s="19"/>
-      <c r="O35" s="18"/>
+      <c r="O35" s="18">
+        <v>0.1</v>
+      </c>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
-      <c r="R35" s="19"/>
+      <c r="R35" s="19">
+        <v>0.1</v>
+      </c>
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="W35" s="20"/>
-      <c r="X35" s="20"/>
+      <c r="U35" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="V35" s="19"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
       <c r="Y35" s="20"/>
-      <c r="Z35" s="20"/>
+      <c r="Z35" s="22">
+        <v>0.1</v>
+      </c>
       <c r="AA35" s="20"/>
-      <c r="AB35" s="20"/>
-      <c r="AC35" s="20"/>
-      <c r="AD35" s="20"/>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AD35" s="22"/>
       <c r="AE35" s="20"/>
-      <c r="AF35" s="20"/>
-      <c r="AG35" s="20"/>
+      <c r="AF35" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="AG35" s="22"/>
       <c r="AH35" s="20"/>
       <c r="AI35" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="AJ35" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -12256,7 +12295,7 @@
         <v>51</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="D36" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -12267,76 +12306,54 @@
         <v>20</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H36" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J36" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
+      <c r="L36" s="18">
+        <v>0.05</v>
+      </c>
       <c r="M36" s="18"/>
       <c r="N36" s="19"/>
-      <c r="O36" s="18">
-        <f>0.6/8</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
+      <c r="O36" s="18"/>
       <c r="P36" s="18"/>
-      <c r="Q36" s="18">
-        <f>0.6/8</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
+      <c r="Q36" s="18"/>
       <c r="R36" s="19"/>
-      <c r="S36" s="18">
-        <f>0.6/8</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
+      <c r="S36" s="18"/>
       <c r="T36" s="18"/>
-      <c r="U36" s="18">
-        <f>0.6/8</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
+      <c r="U36" s="18"/>
       <c r="V36" s="19"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="18">
-        <f>0.6/8</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="18">
-        <f>0.6/8</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AB36" s="22"/>
-      <c r="AC36" s="18">
-        <f>0.6/8</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD36" s="22"/>
-      <c r="AE36" s="18">
-        <f>0.6/8</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AF36" s="22"/>
-      <c r="AG36" s="22"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="20"/>
+      <c r="AE36" s="20"/>
+      <c r="AF36" s="20"/>
+      <c r="AG36" s="20"/>
       <c r="AH36" s="20"/>
       <c r="AI36" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="AJ36" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -12347,7 +12364,7 @@
         <v>51</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="D37" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -12358,25 +12375,23 @@
         <v>20</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H37" s="11">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I37" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J37" s="11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K37" s="18"/>
-      <c r="L37" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="L37" s="18"/>
       <c r="M37" s="18"/>
       <c r="N37" s="19"/>
       <c r="O37" s="18"/>
@@ -12397,15 +12412,17 @@
       <c r="AD37" s="20"/>
       <c r="AE37" s="20"/>
       <c r="AF37" s="20"/>
-      <c r="AG37" s="20"/>
+      <c r="AG37" s="20">
+        <v>0.3</v>
+      </c>
       <c r="AH37" s="20"/>
       <c r="AI37" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="AJ37" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -12416,7 +12433,7 @@
         <v>51</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="D38" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -12427,20 +12444,20 @@
         <v>20</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H38" s="11">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I38" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J38" s="11">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
@@ -12465,27 +12482,27 @@
       <c r="AE38" s="20"/>
       <c r="AF38" s="20"/>
       <c r="AG38" s="20">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="AH38" s="20"/>
       <c r="AI38" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="AJ38" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>0.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:36">
       <c r="A39" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="D39" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -12496,54 +12513,60 @@
         <v>20</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H39" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I39" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J39" s="11">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
-      <c r="N39" s="19"/>
+      <c r="N39" s="19">
+        <v>0.1</v>
+      </c>
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
       <c r="Q39" s="18"/>
       <c r="R39" s="19"/>
       <c r="S39" s="18"/>
       <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
+      <c r="U39" s="18">
+        <v>0.1</v>
+      </c>
       <c r="V39" s="19"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="20"/>
-      <c r="AA39" s="20"/>
-      <c r="AB39" s="20"/>
-      <c r="AC39" s="20"/>
-      <c r="AD39" s="20"/>
-      <c r="AE39" s="20"/>
-      <c r="AF39" s="20"/>
-      <c r="AG39" s="20">
-        <v>0.05</v>
-      </c>
-      <c r="AH39" s="20"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="22"/>
+      <c r="AF39" s="22"/>
+      <c r="AG39" s="22"/>
+      <c r="AH39" s="22"/>
       <c r="AI39" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="AJ39" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -12554,7 +12577,7 @@
         <v>53</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="D40" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -12565,7 +12588,7 @@
         <v>20</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>251</v>
@@ -12577,48 +12600,40 @@
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
-      <c r="J40" s="11">
-        <v>6</v>
-      </c>
+      <c r="J40" s="11"/>
       <c r="K40" s="18"/>
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
-      <c r="N40" s="19">
+      <c r="N40" s="19"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18">
         <v>0.1</v>
       </c>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
       <c r="Q40" s="18"/>
       <c r="R40" s="19"/>
       <c r="S40" s="18"/>
       <c r="T40" s="18"/>
-      <c r="U40" s="18">
-        <v>0.1</v>
-      </c>
+      <c r="U40" s="18"/>
       <c r="V40" s="19"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="22"/>
-      <c r="Y40" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="Z40" s="22"/>
-      <c r="AA40" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="AB40" s="22"/>
-      <c r="AC40" s="22"/>
-      <c r="AD40" s="22"/>
-      <c r="AE40" s="22"/>
-      <c r="AF40" s="22"/>
-      <c r="AG40" s="22"/>
-      <c r="AH40" s="22"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="20"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="20"/>
       <c r="AI40" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AJ40" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -12640,30 +12655,32 @@
         <v>20</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H41" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
-      </c>
-      <c r="J41" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="J41" s="11">
+        <v>10</v>
+      </c>
       <c r="K41" s="18"/>
       <c r="L41" s="18"/>
       <c r="M41" s="18"/>
       <c r="N41" s="19"/>
       <c r="O41" s="18"/>
-      <c r="P41" s="18">
-        <v>0.1</v>
-      </c>
+      <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
       <c r="R41" s="19"/>
-      <c r="S41" s="18"/>
+      <c r="S41" s="18">
+        <v>0.2</v>
+      </c>
       <c r="T41" s="18"/>
       <c r="U41" s="18"/>
       <c r="V41" s="19"/>
@@ -12681,11 +12698,11 @@
       <c r="AH41" s="20"/>
       <c r="AI41" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AJ41" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -12707,21 +12724,19 @@
         <v>20</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H42" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I42" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>16</v>
-      </c>
-      <c r="J42" s="11">
-        <v>10</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J42" s="11"/>
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
@@ -12730,9 +12745,7 @@
       <c r="P42" s="18"/>
       <c r="Q42" s="18"/>
       <c r="R42" s="19"/>
-      <c r="S42" s="18">
-        <v>0.2</v>
-      </c>
+      <c r="S42" s="18"/>
       <c r="T42" s="18"/>
       <c r="U42" s="18"/>
       <c r="V42" s="19"/>
@@ -12746,49 +12759,53 @@
       <c r="AD42" s="20"/>
       <c r="AE42" s="20"/>
       <c r="AF42" s="20"/>
-      <c r="AG42" s="20"/>
+      <c r="AG42" s="20">
+        <v>0.3</v>
+      </c>
       <c r="AH42" s="20"/>
       <c r="AI42" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AJ42" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:36">
-      <c r="A43" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>53</v>
+      <c r="A43" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="D43" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E43" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H43" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I43" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>24</v>
-      </c>
-      <c r="J43" s="11"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="J43" s="11">
+        <v>0.5</v>
+      </c>
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
@@ -12801,27 +12818,45 @@
       <c r="T43" s="18"/>
       <c r="U43" s="18"/>
       <c r="V43" s="19"/>
-      <c r="W43" s="20"/>
-      <c r="X43" s="20"/>
-      <c r="Y43" s="20"/>
-      <c r="Z43" s="20"/>
-      <c r="AA43" s="20"/>
-      <c r="AB43" s="20"/>
-      <c r="AC43" s="20"/>
-      <c r="AD43" s="20"/>
-      <c r="AE43" s="20"/>
-      <c r="AF43" s="20"/>
-      <c r="AG43" s="20">
-        <v>0.3</v>
-      </c>
+      <c r="W43" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="X43" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="Y43" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="Z43" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AA43" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AB43" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AC43" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AD43" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AE43" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AF43" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AG43" s="20"/>
       <c r="AH43" s="20"/>
       <c r="AI43" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.3</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="AJ43" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -12831,8 +12866,8 @@
       <c r="B44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>128</v>
+      <c r="C44" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D44" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -12842,21 +12877,19 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>229</v>
-      </c>
+      <c r="F44" s="12"/>
       <c r="G44" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H44" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I44" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.79999999999999982</v>
+        <v>8</v>
       </c>
       <c r="J44" s="11">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
@@ -12870,79 +12903,63 @@
       <c r="T44" s="18"/>
       <c r="U44" s="18"/>
       <c r="V44" s="19"/>
-      <c r="W44" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="X44" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="Y44" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="Z44" s="20">
-        <v>0.01</v>
-      </c>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
       <c r="AA44" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AB44" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AC44" s="20">
-        <v>0.01</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="20"/>
       <c r="AD44" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AE44" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AF44" s="20">
-        <v>0.01</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="AE44" s="20"/>
+      <c r="AF44" s="20"/>
       <c r="AG44" s="20"/>
       <c r="AH44" s="20"/>
       <c r="AI44" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>9.9999999999999992E-2</v>
+        <v>0.2</v>
       </c>
       <c r="AJ44" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:36">
       <c r="A45" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>5</v>
+        <v>89</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="D45" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E45" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
-      </c>
-      <c r="F45" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>218</v>
+      </c>
       <c r="G45" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H45" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
-      </c>
-      <c r="J45" s="11">
-        <v>15</v>
-      </c>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="J45" s="11"/>
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
@@ -12958,26 +12975,28 @@
       <c r="W45" s="20"/>
       <c r="X45" s="20"/>
       <c r="Y45" s="20"/>
-      <c r="Z45" s="20"/>
-      <c r="AA45" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="AB45" s="20"/>
+      <c r="Z45" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="20">
+        <v>0.05</v>
+      </c>
       <c r="AC45" s="20"/>
-      <c r="AD45" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="AE45" s="20"/>
+      <c r="AD45" s="20"/>
+      <c r="AE45" s="20">
+        <v>0.05</v>
+      </c>
       <c r="AF45" s="20"/>
       <c r="AG45" s="20"/>
       <c r="AH45" s="20"/>
       <c r="AI45" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AJ45" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>30</v>
+        <v>6.0000000000000018</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -12987,8 +13006,8 @@
       <c r="B46" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>127</v>
+      <c r="C46" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="D46" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -12998,8 +13017,8 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>218</v>
+      <c r="F46" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>251</v>
@@ -13009,9 +13028,11 @@
       </c>
       <c r="I46" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>2.0000000000000004</v>
-      </c>
-      <c r="J46" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="J46" s="11">
+        <v>1</v>
+      </c>
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
@@ -13027,50 +13048,48 @@
       <c r="W46" s="20"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
-      <c r="Z46" s="20">
-        <v>0.05</v>
-      </c>
+      <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
-      <c r="AB46" s="20">
-        <v>0.05</v>
-      </c>
-      <c r="AC46" s="20"/>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="20">
+        <v>0.1</v>
+      </c>
       <c r="AD46" s="20"/>
-      <c r="AE46" s="20">
-        <v>0.05</v>
-      </c>
-      <c r="AF46" s="20"/>
+      <c r="AE46" s="20"/>
+      <c r="AF46" s="20">
+        <v>0.1</v>
+      </c>
       <c r="AG46" s="20"/>
       <c r="AH46" s="20"/>
       <c r="AI46" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.15000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="AJ46" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>6.0000000000000018</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:36">
       <c r="A47" s="3" t="s">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="D47" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E47" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>233</v>
+      <c r="F47" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>251</v>
@@ -13080,10 +13099,10 @@
       </c>
       <c r="I47" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="J47" s="11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K47" s="18"/>
       <c r="L47" s="18"/>
@@ -13098,64 +13117,76 @@
       <c r="U47" s="18"/>
       <c r="V47" s="19"/>
       <c r="W47" s="20"/>
-      <c r="X47" s="20"/>
-      <c r="Y47" s="20"/>
-      <c r="Z47" s="20"/>
-      <c r="AA47" s="20"/>
-      <c r="AB47" s="20"/>
+      <c r="X47" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="Y47" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="Z47" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="AA47" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="AB47" s="20">
+        <v>0.03</v>
+      </c>
       <c r="AC47" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="AD47" s="20"/>
-      <c r="AE47" s="20"/>
+        <v>0.03</v>
+      </c>
+      <c r="AD47" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="AE47" s="20">
+        <v>0.03</v>
+      </c>
       <c r="AF47" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="AG47" s="20"/>
+        <v>0.03</v>
+      </c>
+      <c r="AG47" s="20">
+        <v>0.03</v>
+      </c>
       <c r="AH47" s="20"/>
       <c r="AI47" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AJ47" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:36">
       <c r="A48" s="3" t="s">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>128</v>
+        <v>93</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D48" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E48" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F48" s="11" t="s">
-        <v>229</v>
-      </c>
+      <c r="F48" s="12"/>
       <c r="G48" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H48" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I48" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="J48" s="11">
-        <v>0.5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J48" s="11"/>
       <c r="K48" s="18"/>
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
@@ -13169,44 +13200,26 @@
       <c r="U48" s="18"/>
       <c r="V48" s="19"/>
       <c r="W48" s="20"/>
-      <c r="X48" s="20">
-        <v>0.03</v>
-      </c>
-      <c r="Y48" s="20">
-        <v>0.03</v>
-      </c>
-      <c r="Z48" s="20">
-        <v>0.03</v>
-      </c>
-      <c r="AA48" s="20">
-        <v>0.03</v>
-      </c>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
       <c r="AB48" s="20">
-        <v>0.03</v>
-      </c>
-      <c r="AC48" s="20">
-        <v>0.03</v>
-      </c>
-      <c r="AD48" s="20">
-        <v>0.03</v>
-      </c>
-      <c r="AE48" s="20">
-        <v>0.03</v>
-      </c>
-      <c r="AF48" s="20">
-        <v>0.03</v>
-      </c>
-      <c r="AG48" s="20">
-        <v>0.03</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="20"/>
+      <c r="AE48" s="20"/>
+      <c r="AF48" s="20"/>
+      <c r="AG48" s="20"/>
       <c r="AH48" s="20"/>
       <c r="AI48" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.30000000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="AJ48" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:36">
@@ -13217,7 +13230,7 @@
         <v>93</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="D49" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -13256,15 +13269,15 @@
       <c r="Y49" s="20"/>
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
-      <c r="AB49" s="20">
-        <v>0.1</v>
-      </c>
+      <c r="AB49" s="20"/>
       <c r="AC49" s="20"/>
       <c r="AD49" s="20"/>
       <c r="AE49" s="20"/>
       <c r="AF49" s="20"/>
       <c r="AG49" s="20"/>
-      <c r="AH49" s="20"/>
+      <c r="AH49" s="20">
+        <v>0.1</v>
+      </c>
       <c r="AI49" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>0.1</v>
@@ -13276,34 +13289,38 @@
     </row>
     <row r="50" spans="1:36">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>124</v>
+        <v>95</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="D50" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E50" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F50" s="12"/>
+      <c r="F50" s="11" t="s">
+        <v>215</v>
+      </c>
       <c r="G50" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H50" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I50" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
-      </c>
-      <c r="J50" s="11"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="J50" s="11">
+        <v>0.5</v>
+      </c>
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
@@ -13317,26 +13334,51 @@
       <c r="U50" s="18"/>
       <c r="V50" s="19"/>
       <c r="W50" s="20"/>
-      <c r="X50" s="20"/>
-      <c r="Y50" s="20"/>
-      <c r="Z50" s="20"/>
-      <c r="AA50" s="20"/>
-      <c r="AB50" s="20"/>
-      <c r="AC50" s="20"/>
-      <c r="AD50" s="20"/>
-      <c r="AE50" s="20"/>
-      <c r="AF50" s="20"/>
+      <c r="X50" s="20">
+        <f t="shared" ref="X50:AF50" si="1">0.75/9</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Y50" s="20">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Z50" s="20">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AA50" s="20">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AB50" s="20">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AC50" s="20">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AD50" s="20">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AE50" s="20">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AF50" s="20">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="AG50" s="20"/>
-      <c r="AH50" s="20">
-        <v>0.1</v>
-      </c>
+      <c r="AH50" s="20"/>
       <c r="AI50" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="AJ50" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="51" spans="1:36">
@@ -13346,8 +13388,8 @@
       <c r="B51" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>127</v>
+      <c r="C51" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="D51" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -13357,22 +13399,20 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>215</v>
+      <c r="F51" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H51" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I51" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="J51" s="11">
-        <v>0.5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J51" s="11"/>
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
       <c r="M51" s="18"/>
@@ -13386,54 +13426,29 @@
       <c r="U51" s="18"/>
       <c r="V51" s="19"/>
       <c r="W51" s="20"/>
-      <c r="X51" s="20">
-        <f t="shared" ref="X51:AF51" si="3">0.75/9</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Y51" s="20">
-        <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Z51" s="20">
-        <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AA51" s="20">
-        <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AB51" s="20">
-        <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AC51" s="20">
-        <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AD51" s="20">
-        <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AE51" s="20">
-        <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="20"/>
+      <c r="AA51" s="20"/>
+      <c r="AB51" s="20"/>
+      <c r="AC51" s="20"/>
+      <c r="AD51" s="20"/>
+      <c r="AE51" s="20"/>
       <c r="AF51" s="20">
-        <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.1</v>
       </c>
       <c r="AG51" s="20"/>
       <c r="AH51" s="20"/>
       <c r="AI51" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="AJ51" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" ht="14.65" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>94</v>
       </c>
@@ -13441,7 +13456,7 @@
         <v>95</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="D52" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -13452,19 +13467,21 @@
         <v>10</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H52" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I52" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
-      </c>
-      <c r="J52" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="J52" s="11">
+        <v>1</v>
+      </c>
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
       <c r="M52" s="18"/>
@@ -13486,21 +13503,21 @@
       <c r="AC52" s="20"/>
       <c r="AD52" s="20"/>
       <c r="AE52" s="20"/>
-      <c r="AF52" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="AG52" s="20"/>
+      <c r="AF52" s="20"/>
+      <c r="AG52" s="20">
+        <v>0.05</v>
+      </c>
       <c r="AH52" s="20"/>
       <c r="AI52" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AJ52" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:36" ht="14.55" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36">
       <c r="A53" s="3" t="s">
         <v>94</v>
       </c>
@@ -13508,7 +13525,7 @@
         <v>95</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="D53" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -13519,21 +13536,19 @@
         <v>10</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H53" s="11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I53" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>2</v>
-      </c>
-      <c r="J53" s="11">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J53" s="11"/>
       <c r="K53" s="18"/>
       <c r="L53" s="18"/>
       <c r="M53" s="18"/>
@@ -13555,29 +13570,29 @@
       <c r="AC53" s="20"/>
       <c r="AD53" s="20"/>
       <c r="AE53" s="20"/>
-      <c r="AF53" s="20"/>
-      <c r="AG53" s="20">
-        <v>0.05</v>
-      </c>
+      <c r="AF53" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AG53" s="20"/>
       <c r="AH53" s="20"/>
       <c r="AI53" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="AJ53" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" ht="14.65" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>124</v>
+        <v>90</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="D54" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -13587,20 +13602,22 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F54" s="12" t="s">
-        <v>216</v>
+      <c r="F54" s="11" t="s">
+        <v>215</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H54" s="11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I54" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
-      </c>
-      <c r="J54" s="11"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="J54" s="11">
+        <v>0.5</v>
+      </c>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
@@ -13614,37 +13631,62 @@
       <c r="U54" s="18"/>
       <c r="V54" s="19"/>
       <c r="W54" s="20"/>
-      <c r="X54" s="20"/>
-      <c r="Y54" s="20"/>
-      <c r="Z54" s="20"/>
-      <c r="AA54" s="20"/>
-      <c r="AB54" s="20"/>
-      <c r="AC54" s="20"/>
-      <c r="AD54" s="20"/>
-      <c r="AE54" s="20"/>
+      <c r="X54" s="20">
+        <f t="shared" ref="X54:AF54" si="2">0.75/9</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Y54" s="20">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Z54" s="20">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AA54" s="20">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AB54" s="20">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AC54" s="20">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AD54" s="20">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AE54" s="20">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="AF54" s="20">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AG54" s="20"/>
       <c r="AH54" s="20"/>
       <c r="AI54" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="AJ54" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:36" ht="14.55" customHeight="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36">
       <c r="A55" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>127</v>
+      <c r="C55" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="D55" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -13654,22 +13696,20 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F55" s="11" t="s">
-        <v>215</v>
+      <c r="F55" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H55" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I55" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="J55" s="11">
-        <v>0.5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J55" s="11"/>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
@@ -13683,51 +13723,26 @@
       <c r="U55" s="18"/>
       <c r="V55" s="19"/>
       <c r="W55" s="20"/>
-      <c r="X55" s="20">
-        <f t="shared" ref="X55:AF55" si="4">0.75/9</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Y55" s="20">
-        <f t="shared" si="4"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Z55" s="20">
-        <f t="shared" si="4"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AA55" s="20">
-        <f t="shared" si="4"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AB55" s="20">
-        <f t="shared" si="4"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AC55" s="20">
-        <f t="shared" si="4"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AD55" s="20">
-        <f t="shared" si="4"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AE55" s="20">
-        <f t="shared" si="4"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="X55" s="20"/>
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="20"/>
+      <c r="AA55" s="20"/>
+      <c r="AB55" s="20"/>
+      <c r="AC55" s="20"/>
+      <c r="AD55" s="20"/>
+      <c r="AE55" s="20"/>
       <c r="AF55" s="20">
-        <f t="shared" si="4"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.1</v>
       </c>
       <c r="AG55" s="20"/>
       <c r="AH55" s="20"/>
       <c r="AI55" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="AJ55" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:36">
@@ -13738,7 +13753,7 @@
         <v>90</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="D56" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -13749,19 +13764,21 @@
         <v>10</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H56" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I56" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
-      </c>
-      <c r="J56" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="J56" s="11">
+        <v>1</v>
+      </c>
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
@@ -13783,18 +13800,18 @@
       <c r="AC56" s="20"/>
       <c r="AD56" s="20"/>
       <c r="AE56" s="20"/>
-      <c r="AF56" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="AG56" s="20"/>
+      <c r="AF56" s="20"/>
+      <c r="AG56" s="20">
+        <v>0.05</v>
+      </c>
       <c r="AH56" s="20"/>
       <c r="AI56" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AJ56" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:36">
@@ -13805,7 +13822,7 @@
         <v>90</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="D57" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -13816,7 +13833,7 @@
         <v>10</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>251</v>
@@ -13826,11 +13843,9 @@
       </c>
       <c r="I57" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>2</v>
-      </c>
-      <c r="J57" s="11">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J57" s="11"/>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
@@ -13852,40 +13867,40 @@
       <c r="AC57" s="20"/>
       <c r="AD57" s="20"/>
       <c r="AE57" s="20"/>
-      <c r="AF57" s="20"/>
-      <c r="AG57" s="20">
-        <v>0.05</v>
-      </c>
+      <c r="AF57" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AG57" s="20"/>
       <c r="AH57" s="20"/>
       <c r="AI57" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="AJ57" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36">
+      <c r="A58" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:36">
-      <c r="A58" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>124</v>
+      <c r="B58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="D58" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E58" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>10</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>216</v>
+        <v>20</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>251</v>
@@ -13895,21 +13910,43 @@
       </c>
       <c r="I58" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
-      </c>
-      <c r="J58" s="11"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="18"/>
-      <c r="T58" s="18"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="J58" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K58" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="L58" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="M58" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="N58" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="O58" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="P58" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="Q58" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="R58" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="S58" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="T58" s="19">
+        <v>0.01</v>
+      </c>
       <c r="U58" s="18"/>
-      <c r="V58" s="19"/>
+      <c r="V58" s="18"/>
       <c r="W58" s="20"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
@@ -13919,18 +13956,16 @@
       <c r="AC58" s="20"/>
       <c r="AD58" s="20"/>
       <c r="AE58" s="20"/>
-      <c r="AF58" s="20">
-        <v>0.1</v>
-      </c>
+      <c r="AF58" s="20"/>
       <c r="AG58" s="20"/>
       <c r="AH58" s="20"/>
       <c r="AI58" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="AJ58" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:36">
@@ -13941,68 +13976,41 @@
         <v>2</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="D59" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E59" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H59" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I59" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.88888888888888895</v>
-      </c>
-      <c r="J59" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="K59" s="19">
-        <f t="shared" ref="K59:S59" si="5">0.1/9</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="L59" s="19">
-        <f t="shared" si="5"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="M59" s="19">
-        <f t="shared" si="5"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="N59" s="19">
-        <f t="shared" si="5"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="O59" s="19">
-        <f t="shared" si="5"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J59" s="11"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
       <c r="P59" s="19">
-        <f t="shared" si="5"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="Q59" s="19">
-        <f t="shared" si="5"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="R59" s="19">
-        <f t="shared" si="5"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="S59" s="19">
-        <f t="shared" si="5"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
       <c r="T59" s="18"/>
       <c r="U59" s="18"/>
       <c r="V59" s="18"/>
@@ -14024,55 +14032,75 @@
       </c>
       <c r="AJ59" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:36">
       <c r="A60" s="4" t="s">
-        <v>1</v>
+        <v>270</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="D60" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E60" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="H60" s="11">
-        <v>4</v>
+      <c r="H60" s="13">
+        <v>1</v>
       </c>
       <c r="I60" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
-      </c>
-      <c r="J60" s="11"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="18"/>
-      <c r="U60" s="18"/>
-      <c r="V60" s="18"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="J60" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="M60" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="N60" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="O60" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="P60" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="Q60" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="R60" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="S60" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="T60" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="U60" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="V60" s="23"/>
       <c r="W60" s="20"/>
       <c r="X60" s="20"/>
       <c r="Y60" s="20"/>
@@ -14087,61 +14115,80 @@
       <c r="AH60" s="20"/>
       <c r="AI60" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AJ60" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:36">
       <c r="A61" s="4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="D61" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E61" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H61" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I61" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>16</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="J61" s="11">
-        <v>20</v>
-      </c>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
-      <c r="S61" s="19"/>
+        <v>0.5</v>
+      </c>
+      <c r="K61" s="18"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="N61" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="O61" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="P61" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="Q61" s="18"/>
+      <c r="R61" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="S61" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
       <c r="T61" s="18">
-        <v>0.2</v>
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
       </c>
       <c r="U61" s="18"/>
-      <c r="V61" s="18"/>
+      <c r="V61" s="23"/>
       <c r="W61" s="20"/>
       <c r="X61" s="20"/>
       <c r="Y61" s="20"/>
@@ -14156,77 +14203,61 @@
       <c r="AH61" s="20"/>
       <c r="AI61" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="AJ61" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>20</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="62" spans="1:36">
       <c r="A62" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>258</v>
+        <v>9</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D62" s="29" t="e">
+        <v>5</v>
+      </c>
+      <c r="D62" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E62" s="29" t="e">
+        <v>100</v>
+      </c>
+      <c r="E62" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="H62" s="13">
-        <v>1</v>
-      </c>
-      <c r="I62" s="11" t="e">
+      <c r="H62" s="11">
+        <v>4</v>
+      </c>
+      <c r="I62" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>#N/A</v>
+        <v>16</v>
       </c>
       <c r="J62" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18">
-        <v>0.03</v>
-      </c>
-      <c r="M62" s="18">
-        <v>0.03</v>
-      </c>
-      <c r="N62" s="18">
-        <v>0.03</v>
-      </c>
-      <c r="O62" s="18">
-        <v>0.03</v>
-      </c>
-      <c r="P62" s="18">
-        <v>0.03</v>
-      </c>
-      <c r="Q62" s="18">
-        <v>0.03</v>
-      </c>
-      <c r="R62" s="19">
-        <v>0.03</v>
-      </c>
-      <c r="S62" s="18">
-        <v>0.03</v>
-      </c>
-      <c r="T62" s="18">
-        <v>0.03</v>
-      </c>
-      <c r="U62" s="18">
-        <v>0.03</v>
+        <v>20</v>
+      </c>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="R62" s="23"/>
+      <c r="S62" s="23"/>
+      <c r="T62" s="23"/>
+      <c r="U62" s="23">
+        <v>0.45</v>
       </c>
       <c r="V62" s="23"/>
       <c r="W62" s="20"/>
@@ -14243,79 +14274,58 @@
       <c r="AH62" s="20"/>
       <c r="AI62" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.30000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AJ62" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:36">
       <c r="A63" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="D63" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E63" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H63" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I63" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>1.142857142857143</v>
-      </c>
-      <c r="J63" s="11">
-        <v>0.5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J63" s="11"/>
       <c r="K63" s="18"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="N63" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="O63" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="P63" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="S63" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="T63" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="U63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="23"/>
+      <c r="S63" s="23"/>
+      <c r="T63" s="23"/>
+      <c r="U63" s="23"/>
       <c r="V63" s="23"/>
       <c r="W63" s="20"/>
       <c r="X63" s="20"/>
@@ -14331,19 +14341,19 @@
       <c r="AH63" s="20"/>
       <c r="AI63" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.20000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="AJ63" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>3.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:36">
       <c r="A64" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>5</v>
@@ -14357,36 +14367,38 @@
         <v>10</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H64" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I64" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>16</v>
-      </c>
-      <c r="J64" s="11">
-        <v>20</v>
-      </c>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="23">
-        <v>0.35</v>
-      </c>
-      <c r="R64" s="23"/>
-      <c r="S64" s="23"/>
-      <c r="T64" s="23"/>
-      <c r="U64" s="23">
-        <v>0.45</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="J64" s="11"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="N64" s="18">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="O64" s="18">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="P64" s="18">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="24"/>
+      <c r="T64" s="19"/>
+      <c r="U64" s="19"/>
       <c r="V64" s="23"/>
       <c r="W64" s="20"/>
       <c r="X64" s="20"/>
@@ -14402,58 +14414,60 @@
       <c r="AH64" s="20"/>
       <c r="AI64" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AJ64" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:36">
       <c r="A65" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="D65" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E65" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="G65" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H65" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I65" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
-      </c>
-      <c r="J65" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="J65" s="11">
+        <v>0.5</v>
+      </c>
       <c r="K65" s="18"/>
       <c r="L65" s="18"/>
       <c r="M65" s="18"/>
       <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="Q65" s="23"/>
-      <c r="R65" s="23"/>
-      <c r="S65" s="23"/>
-      <c r="T65" s="23"/>
-      <c r="U65" s="23"/>
+      <c r="O65" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="24"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="19"/>
       <c r="V65" s="23"/>
       <c r="W65" s="20"/>
       <c r="X65" s="20"/>
@@ -14469,11 +14483,11 @@
       <c r="AH65" s="20"/>
       <c r="AI65" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AJ65" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="66" spans="1:36">
@@ -14484,7 +14498,7 @@
         <v>13</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="D66" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -14495,38 +14509,34 @@
         <v>10</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H66" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I66" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>7</v>
-      </c>
-      <c r="J66" s="11"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="N66" s="18">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="O66" s="18">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="P66" s="18">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="24"/>
-      <c r="T66" s="19"/>
-      <c r="U66" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="J66" s="11">
+        <v>15</v>
+      </c>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23">
+        <v>0.2</v>
+      </c>
       <c r="V66" s="23"/>
       <c r="W66" s="20"/>
       <c r="X66" s="20"/>
@@ -14542,19 +14552,19 @@
       <c r="AH66" s="20"/>
       <c r="AI66" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="AJ66" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:36">
       <c r="A67" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>128</v>
@@ -14578,24 +14588,38 @@
       </c>
       <c r="I67" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="J67" s="11">
         <v>0.5</v>
       </c>
       <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
+      <c r="L67" s="18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M67" s="18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N67" s="18">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="O67" s="18">
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="P67" s="18"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="18"/>
-      <c r="S67" s="24"/>
+      <c r="Q67" s="18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R67" s="18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S67" s="18">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="T67" s="19"/>
-      <c r="U67" s="19"/>
+      <c r="U67" s="18">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="V67" s="23"/>
       <c r="W67" s="20"/>
       <c r="X67" s="20"/>
@@ -14611,22 +14635,22 @@
       <c r="AH67" s="20"/>
       <c r="AI67" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="AJ67" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:36">
       <c r="A68" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="D68" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -14636,35 +14660,35 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F68" s="11" t="s">
-        <v>216</v>
-      </c>
+      <c r="F68" s="11"/>
       <c r="G68" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H68" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I68" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J68" s="11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K68" s="23"/>
       <c r="L68" s="23"/>
       <c r="M68" s="23"/>
       <c r="N68" s="23"/>
       <c r="O68" s="23"/>
-      <c r="P68" s="23"/>
+      <c r="P68" s="23">
+        <v>0.35</v>
+      </c>
       <c r="Q68" s="23"/>
       <c r="R68" s="23"/>
       <c r="S68" s="23"/>
-      <c r="T68" s="23"/>
-      <c r="U68" s="23">
-        <v>0.2</v>
-      </c>
+      <c r="T68" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="U68" s="23"/>
       <c r="V68" s="23"/>
       <c r="W68" s="20"/>
       <c r="X68" s="20"/>
@@ -14680,26 +14704,26 @@
       <c r="AH68" s="20"/>
       <c r="AI68" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="AJ68" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:36">
       <c r="A69" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>128</v>
       </c>
       <c r="D69" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E69" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -14711,42 +14735,46 @@
       <c r="G69" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H69" s="13">
         <v>1</v>
       </c>
       <c r="I69" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.99999999999999989</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="J69" s="11">
         <v>0.5</v>
       </c>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="M69" s="18">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="N69" s="18">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="O69" s="18">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="18">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="R69" s="18">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="S69" s="18">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="T69" s="19"/>
-      <c r="U69" s="18">
-        <v>2.5000000000000001E-2</v>
+      <c r="K69" s="25"/>
+      <c r="L69" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="M69" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="N69" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="O69" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="P69" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="Q69" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="R69" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="S69" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="T69" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="U69" s="26">
+        <v>0.01</v>
       </c>
       <c r="V69" s="23"/>
       <c r="W69" s="20"/>
@@ -14763,60 +14791,58 @@
       <c r="AH69" s="20"/>
       <c r="AI69" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.19999999999999998</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="AJ69" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:36">
       <c r="A70" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="29">
+      <c r="D70" s="30">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
-      </c>
-      <c r="E70" s="29">
+        <v>30</v>
+      </c>
+      <c r="E70" s="30">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F70" s="11"/>
+      <c r="F70" s="13" t="s">
+        <v>213</v>
+      </c>
       <c r="G70" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H70" s="13">
         <v>4</v>
       </c>
       <c r="I70" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>16</v>
-      </c>
-      <c r="J70" s="11">
-        <v>20</v>
-      </c>
-      <c r="K70" s="23"/>
-      <c r="L70" s="23"/>
-      <c r="M70" s="23"/>
-      <c r="N70" s="23"/>
-      <c r="O70" s="23"/>
-      <c r="P70" s="23">
-        <v>0.35</v>
-      </c>
-      <c r="Q70" s="23"/>
-      <c r="R70" s="23"/>
-      <c r="S70" s="23"/>
-      <c r="T70" s="23">
-        <v>0.45</v>
-      </c>
-      <c r="U70" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="J70" s="13"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="26"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="26"/>
+      <c r="P70" s="26"/>
+      <c r="Q70" s="26"/>
+      <c r="R70" s="26"/>
+      <c r="S70" s="26"/>
+      <c r="T70" s="26"/>
+      <c r="U70" s="26">
+        <v>0.2</v>
+      </c>
       <c r="V70" s="23"/>
       <c r="W70" s="20"/>
       <c r="X70" s="20"/>
@@ -14832,26 +14858,26 @@
       <c r="AH70" s="20"/>
       <c r="AI70" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AJ70" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:36">
       <c r="A71" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>128</v>
       </c>
       <c r="D71" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E71" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -14863,46 +14889,46 @@
       <c r="G71" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H71" s="11">
         <v>1</v>
       </c>
       <c r="I71" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.39999999999999991</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="J71" s="11">
         <v>0.5</v>
       </c>
-      <c r="K71" s="25"/>
-      <c r="L71" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="M71" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="N71" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="O71" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="P71" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="Q71" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="R71" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="S71" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="T71" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="U71" s="26">
-        <v>0.01</v>
+      <c r="K71" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="N71" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="O71" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="P71" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="Q71" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="R71" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="S71" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="T71" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="U71" s="18">
+        <v>0.04</v>
       </c>
       <c r="V71" s="23"/>
       <c r="W71" s="20"/>
@@ -14919,7 +14945,7 @@
       <c r="AH71" s="20"/>
       <c r="AI71" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>9.9999999999999992E-2</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="AJ71" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
@@ -14928,50 +14954,52 @@
     </row>
     <row r="72" spans="1:36">
       <c r="A72" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="30">
+        <v>20</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D72" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>30</v>
-      </c>
-      <c r="E72" s="30">
+        <v>100</v>
+      </c>
+      <c r="E72" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F72" s="13" t="s">
-        <v>213</v>
+      <c r="F72" s="11" t="s">
+        <v>222</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="H72" s="13">
-        <v>4</v>
+      <c r="H72" s="11">
+        <v>2</v>
       </c>
       <c r="I72" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
-      </c>
-      <c r="J72" s="13"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="26"/>
-      <c r="P72" s="26"/>
-      <c r="Q72" s="26"/>
-      <c r="R72" s="26"/>
-      <c r="S72" s="26"/>
-      <c r="T72" s="26"/>
-      <c r="U72" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="V72" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="J72" s="11">
+        <v>15</v>
+      </c>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="18"/>
+      <c r="T72" s="18"/>
+      <c r="U72" s="18"/>
+      <c r="V72" s="19"/>
       <c r="W72" s="20"/>
       <c r="X72" s="20"/>
       <c r="Y72" s="20"/>
@@ -14986,79 +15014,61 @@
       <c r="AH72" s="20"/>
       <c r="AI72" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AJ72" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:36">
       <c r="A73" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D73" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E73" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G73" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H73" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I73" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>1.5999999999999996</v>
+        <v>10</v>
       </c>
       <c r="J73" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="K73" s="18">
-        <v>0.04</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="K73" s="18"/>
       <c r="L73" s="18"/>
-      <c r="M73" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="N73" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="O73" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="P73" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="Q73" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="R73" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="S73" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="T73" s="18">
-        <v>0.04</v>
-      </c>
+      <c r="M73" s="18"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="19"/>
+      <c r="S73" s="18"/>
+      <c r="T73" s="18"/>
       <c r="U73" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="V73" s="23"/>
+        <v>0.25</v>
+      </c>
+      <c r="V73" s="19"/>
       <c r="W73" s="20"/>
       <c r="X73" s="20"/>
       <c r="Y73" s="20"/>
@@ -15073,11 +15083,11 @@
       <c r="AH73" s="20"/>
       <c r="AI73" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.39999999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="AJ73" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:36">
@@ -15088,7 +15098,7 @@
         <v>20</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="D74" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -15099,7 +15109,7 @@
         <v>10</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>251</v>
@@ -15117,13 +15127,13 @@
       <c r="K74" s="18"/>
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
-      <c r="N74" s="19">
-        <v>0.25</v>
-      </c>
+      <c r="N74" s="19"/>
       <c r="O74" s="18"/>
       <c r="P74" s="18"/>
       <c r="Q74" s="18"/>
-      <c r="R74" s="19"/>
+      <c r="R74" s="19">
+        <v>0.25</v>
+      </c>
       <c r="S74" s="18"/>
       <c r="T74" s="18"/>
       <c r="U74" s="18"/>
@@ -15157,7 +15167,7 @@
         <v>20</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D75" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -15168,20 +15178,20 @@
         <v>10</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H75" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I75" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
         <v>10</v>
       </c>
       <c r="J75" s="11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K75" s="18"/>
       <c r="L75" s="18"/>
@@ -15193,10 +15203,10 @@
       <c r="R75" s="19"/>
       <c r="S75" s="18"/>
       <c r="T75" s="18"/>
-      <c r="U75" s="18">
+      <c r="U75" s="18"/>
+      <c r="V75" s="19">
         <v>0.25</v>
       </c>
-      <c r="V75" s="19"/>
       <c r="W75" s="20"/>
       <c r="X75" s="20"/>
       <c r="Y75" s="20"/>
@@ -15215,57 +15225,57 @@
       </c>
       <c r="AJ75" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:36">
-      <c r="A76" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:36" ht="28.5">
+      <c r="A76" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D76" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E76" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H76" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I76" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>10</v>
-      </c>
-      <c r="J76" s="11">
-        <v>15</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J76" s="11"/>
       <c r="K76" s="18"/>
       <c r="L76" s="18"/>
       <c r="M76" s="18"/>
-      <c r="N76" s="19"/>
+      <c r="N76" s="18"/>
       <c r="O76" s="18"/>
       <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
-      <c r="R76" s="19">
-        <v>0.25</v>
-      </c>
+      <c r="Q76" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="R76" s="18"/>
       <c r="S76" s="18"/>
       <c r="T76" s="18"/>
-      <c r="U76" s="18"/>
-      <c r="V76" s="19"/>
+      <c r="U76" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="V76" s="23"/>
       <c r="W76" s="20"/>
       <c r="X76" s="20"/>
       <c r="Y76" s="20"/>
@@ -15280,46 +15290,46 @@
       <c r="AH76" s="20"/>
       <c r="AI76" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AJ76" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:36">
-      <c r="A77" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>20</v>
+      <c r="A77" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D77" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E77" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H77" s="11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I77" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>10</v>
+        <v>0.79999999999999982</v>
       </c>
       <c r="J77" s="11">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="K77" s="18"/>
       <c r="L77" s="18"/>
@@ -15332,89 +15342,109 @@
       <c r="S77" s="18"/>
       <c r="T77" s="18"/>
       <c r="U77" s="18"/>
-      <c r="V77" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="W77" s="20"/>
-      <c r="X77" s="20"/>
-      <c r="Y77" s="20"/>
-      <c r="Z77" s="20"/>
-      <c r="AA77" s="20"/>
-      <c r="AB77" s="20"/>
-      <c r="AC77" s="20"/>
-      <c r="AD77" s="20"/>
-      <c r="AE77" s="20"/>
-      <c r="AF77" s="20"/>
+      <c r="V77" s="19"/>
+      <c r="W77" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="X77" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="Y77" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="Z77" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AA77" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AB77" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AC77" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AD77" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AE77" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AF77" s="20">
+        <v>0.01</v>
+      </c>
       <c r="AG77" s="20"/>
       <c r="AH77" s="20"/>
       <c r="AI77" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.25</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="AJ77" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:36">
-      <c r="A78" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C78" s="11" t="s">
+      <c r="A78" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D78" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E78" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>10</v>
-      </c>
-      <c r="F78" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="12" t="s">
         <v>213</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H78" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I78" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="J78" s="11"/>
       <c r="K78" s="18"/>
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
+      <c r="N78" s="19"/>
       <c r="O78" s="18"/>
       <c r="P78" s="18"/>
-      <c r="Q78" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="R78" s="18"/>
+      <c r="Q78" s="18"/>
+      <c r="R78" s="19"/>
       <c r="S78" s="18"/>
       <c r="T78" s="18"/>
-      <c r="U78" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="V78" s="23"/>
+      <c r="U78" s="18"/>
+      <c r="V78" s="19"/>
       <c r="W78" s="20"/>
       <c r="X78" s="20"/>
       <c r="Y78" s="20"/>
       <c r="Z78" s="20"/>
-      <c r="AA78" s="20"/>
+      <c r="AA78" s="20">
+        <v>0.08</v>
+      </c>
       <c r="AB78" s="20"/>
       <c r="AC78" s="20"/>
-      <c r="AD78" s="20"/>
+      <c r="AD78" s="20">
+        <v>0.06</v>
+      </c>
       <c r="AE78" s="20"/>
       <c r="AF78" s="20"/>
-      <c r="AG78" s="20"/>
+      <c r="AG78" s="20">
+        <v>0.06</v>
+      </c>
       <c r="AH78" s="20"/>
       <c r="AI78" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
@@ -15422,43 +15452,41 @@
       </c>
       <c r="AJ78" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:36">
       <c r="A79" s="3" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>128</v>
+        <v>100</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D79" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E79" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>229</v>
+        <v>10</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H79" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I79" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="J79" s="11">
-        <v>0.5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J79" s="11"/>
       <c r="K79" s="18"/>
       <c r="L79" s="18"/>
       <c r="M79" s="18"/>
@@ -15471,64 +15499,46 @@
       <c r="T79" s="18"/>
       <c r="U79" s="18"/>
       <c r="V79" s="19"/>
-      <c r="W79" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="X79" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="Y79" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="Z79" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AA79" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AB79" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AC79" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AD79" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AE79" s="20">
-        <v>0.01</v>
-      </c>
+      <c r="W79" s="20"/>
+      <c r="X79" s="20"/>
+      <c r="Y79" s="20"/>
+      <c r="Z79" s="20"/>
+      <c r="AA79" s="20"/>
+      <c r="AB79" s="20"/>
+      <c r="AC79" s="20"/>
+      <c r="AD79" s="20"/>
+      <c r="AE79" s="20"/>
       <c r="AF79" s="20">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="AG79" s="20"/>
       <c r="AH79" s="20"/>
       <c r="AI79" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>9.9999999999999992E-2</v>
+        <v>0.2</v>
       </c>
       <c r="AJ79" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:36">
       <c r="A80" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>99</v>
+        <v>278</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="29">
+      <c r="D80" s="47">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>30</v>
-      </c>
-      <c r="E80" s="29">
+        <v>20</v>
+      </c>
+      <c r="E80" s="47">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F80" s="12" t="s">
         <v>213</v>
@@ -15536,14 +15546,14 @@
       <c r="G80" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="H80" s="11">
-        <v>3</v>
-      </c>
-      <c r="I80" s="11">
+      <c r="H80" s="48">
+        <v>4</v>
+      </c>
+      <c r="I80" s="49">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="J80" s="11"/>
+        <v>1.6</v>
+      </c>
+      <c r="J80" s="48"/>
       <c r="K80" s="18"/>
       <c r="L80" s="18"/>
       <c r="M80" s="18"/>
@@ -15561,60 +15571,56 @@
       <c r="Y80" s="20"/>
       <c r="Z80" s="20"/>
       <c r="AA80" s="20">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="AB80" s="20"/>
       <c r="AC80" s="20"/>
-      <c r="AD80" s="20">
-        <v>0.06</v>
-      </c>
+      <c r="AD80" s="20"/>
       <c r="AE80" s="20"/>
       <c r="AF80" s="20"/>
-      <c r="AG80" s="20">
-        <v>0.06</v>
-      </c>
+      <c r="AG80" s="20"/>
       <c r="AH80" s="20"/>
-      <c r="AI80" s="27">
+      <c r="AI80" s="50">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
-      </c>
-      <c r="AJ80" s="27">
+        <v>0.04</v>
+      </c>
+      <c r="AJ80" s="50">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>16</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="81" spans="1:36">
       <c r="A81" s="3" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>100</v>
+        <v>278</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="29">
+        <v>124</v>
+      </c>
+      <c r="D81" s="47">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
-      <c r="E81" s="29">
+      <c r="E81" s="47">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="H81" s="11">
-        <v>6</v>
-      </c>
-      <c r="I81" s="11">
+      <c r="H81" s="48">
+        <v>2</v>
+      </c>
+      <c r="I81" s="49">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
-      </c>
-      <c r="J81" s="11"/>
+        <v>6.4</v>
+      </c>
+      <c r="J81" s="48"/>
       <c r="K81" s="18"/>
       <c r="L81" s="18"/>
       <c r="M81" s="18"/>
@@ -15633,21 +15639,21 @@
       <c r="Z81" s="20"/>
       <c r="AA81" s="20"/>
       <c r="AB81" s="20"/>
-      <c r="AC81" s="20"/>
+      <c r="AC81" s="20">
+        <v>0.16</v>
+      </c>
       <c r="AD81" s="20"/>
       <c r="AE81" s="20"/>
-      <c r="AF81" s="20">
-        <v>0.2</v>
-      </c>
+      <c r="AF81" s="20"/>
       <c r="AG81" s="20"/>
       <c r="AH81" s="20"/>
-      <c r="AI81" s="27">
+      <c r="AI81" s="50">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
-      </c>
-      <c r="AJ81" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="AJ81" s="50">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="82" spans="1:36">
@@ -16562,39 +16568,39 @@
       <c r="K94" s="18"/>
       <c r="L94" s="18"/>
       <c r="M94" s="18">
-        <f t="shared" ref="M94:U94" si="6">0.1/9</f>
+        <f t="shared" ref="M94:U94" si="3">0.1/9</f>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="N94" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="O94" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="P94" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="Q94" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="R94" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="S94" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="T94" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="U94" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="V94" s="19"/>
@@ -16726,39 +16732,39 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M96" s="18">
-        <f t="shared" ref="M96:U96" si="7">0.005</f>
+        <f t="shared" ref="M96:U96" si="4">0.005</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N96" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="O96" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="P96" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q96" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="R96" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="S96" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="T96" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="U96" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="V96" s="19"/>
@@ -17240,31 +17246,31 @@
         <v>0.5</v>
       </c>
       <c r="K103" s="18">
-        <f t="shared" ref="K103:Q103" si="8">0.15/8</f>
+        <f t="shared" ref="K103:Q103" si="5">0.15/8</f>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="L103" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="M103" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="N103" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="O103" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="P103" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="Q103" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="R103" s="18"/>
@@ -18165,35 +18171,35 @@
       </c>
     </row>
     <row r="116" spans="1:36">
-      <c r="A116" s="39" t="s">
+      <c r="A116" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B116" s="41" t="s">
+      <c r="B116" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="C116" s="45" t="s">
+      <c r="C116" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D116" s="46">
+      <c r="D116" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>50</v>
       </c>
-      <c r="E116" s="46">
+      <c r="E116" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F116" s="45"/>
+      <c r="F116" s="12"/>
       <c r="G116" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="H116" s="47">
+      <c r="H116" s="11">
         <v>1</v>
       </c>
-      <c r="I116" s="48">
+      <c r="I116" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0.3636363636363637</v>
       </c>
-      <c r="J116" s="47">
+      <c r="J116" s="11">
         <v>0.5</v>
       </c>
       <c r="K116" s="18"/>
@@ -18213,85 +18219,85 @@
         <v>9.0909090909090922E-3</v>
       </c>
       <c r="X116" s="20">
-        <f t="shared" ref="X116:AG116" si="9">0.1/11</f>
+        <f t="shared" ref="X116:AG116" si="6">0.1/11</f>
         <v>9.0909090909090922E-3</v>
       </c>
       <c r="Y116" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>9.0909090909090922E-3</v>
       </c>
       <c r="Z116" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>9.0909090909090922E-3</v>
       </c>
       <c r="AA116" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>9.0909090909090922E-3</v>
       </c>
       <c r="AB116" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>9.0909090909090922E-3</v>
       </c>
       <c r="AC116" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>9.0909090909090922E-3</v>
       </c>
       <c r="AD116" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>9.0909090909090922E-3</v>
       </c>
       <c r="AE116" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>9.0909090909090922E-3</v>
       </c>
       <c r="AF116" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>9.0909090909090922E-3</v>
       </c>
       <c r="AG116" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>9.0909090909090922E-3</v>
       </c>
       <c r="AH116" s="20"/>
-      <c r="AI116" s="49">
+      <c r="AI116" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>0.10000000000000002</v>
       </c>
-      <c r="AJ116" s="49">
+      <c r="AJ116" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>5.5</v>
       </c>
     </row>
     <row r="117" spans="1:36">
-      <c r="A117" s="39" t="s">
+      <c r="A117" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B117" s="41" t="s">
+      <c r="B117" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="C117" s="45" t="s">
+      <c r="C117" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D117" s="46">
+      <c r="D117" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>50</v>
       </c>
-      <c r="E117" s="46">
+      <c r="E117" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F117" s="45"/>
+      <c r="F117" s="12"/>
       <c r="G117" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="H117" s="47">
+      <c r="H117" s="11">
         <v>4</v>
       </c>
-      <c r="I117" s="48">
+      <c r="I117" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
-      <c r="J117" s="47"/>
+      <c r="J117" s="11"/>
       <c r="K117" s="18"/>
       <c r="L117" s="18"/>
       <c r="M117" s="18"/>
@@ -18320,11 +18326,11 @@
         <v>0.2</v>
       </c>
       <c r="AH117" s="20"/>
-      <c r="AI117" s="49">
+      <c r="AI117" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>0.4</v>
       </c>
-      <c r="AJ117" s="49">
+      <c r="AJ117" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>16</v>
       </c>
@@ -18953,37 +18959,37 @@
       </c>
     </row>
     <row r="126" spans="1:36">
-      <c r="A126" s="50" t="s">
+      <c r="A126" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B126" s="51" t="s">
+      <c r="B126" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C126" s="47" t="s">
+      <c r="C126" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D126" s="46">
+      <c r="D126" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E126" s="46">
+      <c r="E126" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F126" s="47" t="s">
+      <c r="F126" s="11" t="s">
         <v>274</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="H126" s="47">
+      <c r="H126" s="11">
         <v>1</v>
       </c>
-      <c r="I126" s="48">
+      <c r="I126" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
         <v>1.142857142857143</v>
       </c>
-      <c r="J126" s="47">
+      <c r="J126" s="11">
         <v>0.5</v>
       </c>
       <c r="K126" s="18"/>
@@ -19031,47 +19037,47 @@
       <c r="AF126" s="20"/>
       <c r="AG126" s="20"/>
       <c r="AH126" s="20"/>
-      <c r="AI126" s="49">
+      <c r="AI126" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>0.20000000000000004</v>
       </c>
-      <c r="AJ126" s="49">
+      <c r="AJ126" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="127" spans="1:36">
-      <c r="A127" s="50" t="s">
+      <c r="A127" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B127" s="51" t="s">
+      <c r="B127" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C127" s="47" t="s">
+      <c r="C127" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D127" s="46">
+      <c r="D127" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E127" s="46">
+      <c r="E127" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F127" s="47" t="s">
+      <c r="F127" s="11" t="s">
         <v>275</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="H127" s="47">
-        <v>2</v>
-      </c>
-      <c r="I127" s="48">
+      <c r="H127" s="11">
+        <v>2</v>
+      </c>
+      <c r="I127" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
-      <c r="J127" s="47"/>
+      <c r="J127" s="11"/>
       <c r="K127" s="18"/>
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
@@ -19098,47 +19104,47 @@
       <c r="AF127" s="20"/>
       <c r="AG127" s="20"/>
       <c r="AH127" s="20"/>
-      <c r="AI127" s="49">
+      <c r="AI127" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>0.2</v>
       </c>
-      <c r="AJ127" s="49">
+      <c r="AJ127" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:36">
-      <c r="A128" s="50" t="s">
+      <c r="A128" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B128" s="51" t="s">
+      <c r="B128" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C128" s="47" t="s">
+      <c r="C128" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D128" s="46">
+      <c r="D128" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E128" s="46">
+      <c r="E128" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F128" s="47" t="s">
+      <c r="F128" s="11" t="s">
         <v>276</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="H128" s="47">
+      <c r="H128" s="11">
         <v>4</v>
       </c>
-      <c r="I128" s="48">
+      <c r="I128" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
-      <c r="J128" s="47"/>
+      <c r="J128" s="11"/>
       <c r="K128" s="18"/>
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
@@ -19165,47 +19171,47 @@
       <c r="AF128" s="20"/>
       <c r="AG128" s="20"/>
       <c r="AH128" s="20"/>
-      <c r="AI128" s="49">
+      <c r="AI128" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>0.2</v>
       </c>
-      <c r="AJ128" s="49">
+      <c r="AJ128" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:36">
-      <c r="A129" s="50" t="s">
+      <c r="A129" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B129" s="51" t="s">
+      <c r="B129" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C129" s="47" t="s">
+      <c r="C129" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D129" s="46">
+      <c r="D129" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E129" s="46">
+      <c r="E129" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F129" s="47" t="s">
+      <c r="F129" s="11" t="s">
         <v>277</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="H129" s="47">
+      <c r="H129" s="11">
         <v>3</v>
       </c>
-      <c r="I129" s="48">
+      <c r="I129" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
         <v>16</v>
       </c>
-      <c r="J129" s="47"/>
+      <c r="J129" s="11"/>
       <c r="K129" s="18"/>
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
@@ -19232,47 +19238,47 @@
       <c r="AF129" s="20"/>
       <c r="AG129" s="20"/>
       <c r="AH129" s="20"/>
-      <c r="AI129" s="49">
+      <c r="AI129" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>0.4</v>
       </c>
-      <c r="AJ129" s="49">
+      <c r="AJ129" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:36">
-      <c r="A130" s="50" t="s">
+      <c r="A130" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B130" s="51" t="s">
+      <c r="B130" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C130" s="47" t="s">
+      <c r="C130" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D130" s="46">
+      <c r="D130" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E130" s="46">
+      <c r="E130" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F130" s="47" t="s">
+      <c r="F130" s="11" t="s">
         <v>212</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="H130" s="47">
+      <c r="H130" s="11">
         <v>5</v>
       </c>
-      <c r="I130" s="48">
+      <c r="I130" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
         <v>20</v>
       </c>
-      <c r="J130" s="47"/>
+      <c r="J130" s="11"/>
       <c r="K130" s="18"/>
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
@@ -19301,11 +19307,11 @@
       <c r="AF130" s="20"/>
       <c r="AG130" s="20"/>
       <c r="AH130" s="20"/>
-      <c r="AI130" s="49">
+      <c r="AI130" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>1</v>
       </c>
-      <c r="AJ130" s="49">
+      <c r="AJ130" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>40</v>
       </c>
@@ -19916,16 +19922,16 @@
       <selection pane="bottomRight" activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.9296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.9296875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" style="10" customWidth="1"/>
-    <col min="7" max="15" width="16.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="17.265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="30" width="8.73046875" style="16"/>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="10" customWidth="1"/>
+    <col min="7" max="15" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="17.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="30" width="8.7109375" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -23057,7 +23063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="14.55" customHeight="1">
+    <row r="34" spans="1:31" ht="14.65" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
@@ -23247,7 +23253,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" ht="28.5">
       <c r="A36" s="8" t="s">
         <v>21</v>
       </c>
@@ -24485,7 +24491,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="14.55" customHeight="1">
+    <row r="49" spans="1:31" ht="14.65" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>72</v>
       </c>
@@ -24675,7 +24681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="14.55" customHeight="1">
+    <row r="51" spans="1:31" ht="14.65" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>193</v>
       </c>
@@ -25723,16 +25729,16 @@
       </c>
     </row>
     <row r="62" spans="1:31">
-      <c r="A62" s="50" t="s">
+      <c r="A62" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B62" s="51" t="s">
+      <c r="B62" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C62" s="47" t="s">
+      <c r="C62" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D62" s="46">
+      <c r="D62" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
@@ -25740,53 +25746,53 @@
         <f>INDEX(Table2[Semester],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>SEM1</v>
       </c>
-      <c r="F62" s="48">
+      <c r="F62" s="11">
         <f>INDEX(Table2[Contact Time],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>2</v>
       </c>
-      <c r="G62" s="52">
-        <v>2</v>
-      </c>
-      <c r="H62" s="52">
-        <v>2</v>
-      </c>
-      <c r="I62" s="52">
-        <v>2</v>
-      </c>
-      <c r="J62" s="52">
-        <v>2</v>
-      </c>
-      <c r="K62" s="52"/>
-      <c r="L62" s="52">
-        <v>2</v>
-      </c>
-      <c r="M62" s="52">
-        <v>2</v>
-      </c>
-      <c r="N62" s="52">
-        <v>2</v>
-      </c>
-      <c r="O62" s="52">
-        <v>2</v>
-      </c>
-      <c r="P62" s="52">
-        <v>2</v>
-      </c>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="53"/>
-      <c r="S62" s="54"/>
-      <c r="T62" s="54"/>
-      <c r="U62" s="54"/>
-      <c r="V62" s="54"/>
-      <c r="W62" s="54"/>
-      <c r="X62" s="54"/>
-      <c r="Y62" s="54"/>
-      <c r="Z62" s="54"/>
-      <c r="AA62" s="54"/>
-      <c r="AB62" s="54"/>
-      <c r="AC62" s="54"/>
-      <c r="AD62" s="54"/>
-      <c r="AE62" s="55">
+      <c r="G62" s="31">
+        <v>2</v>
+      </c>
+      <c r="H62" s="31">
+        <v>2</v>
+      </c>
+      <c r="I62" s="31">
+        <v>2</v>
+      </c>
+      <c r="J62" s="31">
+        <v>2</v>
+      </c>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31">
+        <v>2</v>
+      </c>
+      <c r="M62" s="31">
+        <v>2</v>
+      </c>
+      <c r="N62" s="31">
+        <v>2</v>
+      </c>
+      <c r="O62" s="31">
+        <v>2</v>
+      </c>
+      <c r="P62" s="31">
+        <v>2</v>
+      </c>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="33"/>
+      <c r="T62" s="33"/>
+      <c r="U62" s="33"/>
+      <c r="V62" s="33"/>
+      <c r="W62" s="33"/>
+      <c r="X62" s="33"/>
+      <c r="Y62" s="33"/>
+      <c r="Z62" s="33"/>
+      <c r="AA62" s="33"/>
+      <c r="AB62" s="33"/>
+      <c r="AC62" s="33"/>
+      <c r="AD62" s="33"/>
+      <c r="AE62" s="37">
         <f>SUM(Table14[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>18</v>
       </c>
@@ -26069,21 +26075,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D548CE7-BEAC-43FA-847F-FDE82E3A5926}">
-  <dimension ref="A1:R127"/>
+  <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.796875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.9296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -26828,15 +26834,15 @@
         <v>2</v>
       </c>
       <c r="P16">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q16">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R16">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -27329,18 +27335,18 @@
         <v>4</v>
       </c>
       <c r="P27">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Q27">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R27">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="28.5">
       <c r="A28" s="4" t="s">
         <v>270</v>
       </c>
@@ -27386,10 +27392,10 @@
       </c>
       <c r="R28">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>30.000000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="28.5">
       <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
@@ -27438,7 +27444,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" ht="28.5">
       <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
@@ -27487,7 +27493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" ht="28.5">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -27536,7 +27542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" ht="28.5">
       <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
@@ -27586,7 +27592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" ht="28.5">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
@@ -27634,7 +27640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" ht="28.5">
       <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
@@ -27686,7 +27692,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" ht="28.5">
       <c r="A35" s="4" t="s">
         <v>24</v>
       </c>
@@ -27738,7 +27744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" ht="28.5">
       <c r="A36" s="8" t="s">
         <v>21</v>
       </c>
@@ -27880,14 +27886,12 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="3" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>153</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="2" t="s">
         <v>183</v>
       </c>
@@ -27900,139 +27904,140 @@
       <c r="G39" s="2">
         <v>10</v>
       </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6" t="s">
+      <c r="H39" t="s">
         <v>147</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="I39" t="s">
+        <v>147</v>
+      </c>
+      <c r="J39" t="s">
+        <v>147</v>
+      </c>
+      <c r="K39" t="s">
+        <v>147</v>
+      </c>
+      <c r="O39">
+        <v>2</v>
+      </c>
+      <c r="P39" s="45">
+        <v>80</v>
+      </c>
+      <c r="Q39" s="46">
+        <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
+        <v>20</v>
+      </c>
+      <c r="R39" s="46">
+        <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="2">
+        <v>6</v>
+      </c>
+      <c r="G40" s="2">
+        <v>10</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J40" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6">
-        <v>2</v>
-      </c>
-      <c r="P39">
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6">
+        <v>2</v>
+      </c>
+      <c r="P40">
         <v>50</v>
       </c>
-      <c r="Q39">
+      <c r="Q40">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>50</v>
       </c>
-      <c r="R39">
+      <c r="R40">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="3" t="s">
+    <row r="41" spans="1:18">
+      <c r="A41" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F41" s="2">
         <v>6</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G41" s="2">
         <v>10</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H41" t="s">
         <v>147</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I41" t="s">
         <v>147</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J41" t="s">
         <v>147</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K41" t="s">
         <v>147</v>
       </c>
-      <c r="O40">
-        <v>2</v>
-      </c>
-      <c r="P40">
+      <c r="O41">
+        <v>2</v>
+      </c>
+      <c r="P41">
         <v>0</v>
       </c>
-      <c r="Q40">
+      <c r="Q41">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R40">
+      <c r="R41">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
-      <c r="A41" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F41" s="2">
-        <v>6</v>
-      </c>
-      <c r="G41" s="2">
-        <v>10</v>
-      </c>
-      <c r="H41" t="s">
-        <v>147</v>
-      </c>
-      <c r="I41" t="s">
-        <v>147</v>
-      </c>
-      <c r="J41" t="s">
-        <v>146</v>
-      </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6">
-        <v>2</v>
-      </c>
-      <c r="P41">
-        <v>80</v>
-      </c>
-      <c r="Q41">
-        <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>20</v>
-      </c>
-      <c r="R41">
-        <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>20</v>
-      </c>
-    </row>
     <row r="42" spans="1:18">
       <c r="A42" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="D42" s="2" t="s">
         <v>183</v>
       </c>
@@ -28048,13 +28053,13 @@
       <c r="H42" t="s">
         <v>147</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="I42" t="s">
         <v>147</v>
       </c>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6" t="s">
+      <c r="J42" t="s">
         <v>146</v>
       </c>
+      <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
@@ -28075,10 +28080,10 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="2" t="s">
@@ -28122,111 +28127,109 @@
       </c>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="2"/>
+      <c r="A44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="3"/>
       <c r="D44" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>152</v>
+      <c r="E44" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="F44" s="2">
         <v>6</v>
       </c>
       <c r="G44" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H44" t="s">
+        <v>147</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I44" t="s">
-        <v>146</v>
-      </c>
-      <c r="J44" t="s">
-        <v>146</v>
-      </c>
-      <c r="K44" t="s">
-        <v>146</v>
-      </c>
-      <c r="O44">
-        <v>0.5</v>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6">
+        <v>2</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q44">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="R44">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="4" t="s">
-        <v>64</v>
+      <c r="A45" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F45" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G45" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J45" t="s">
         <v>146</v>
       </c>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6">
-        <v>2</v>
+      <c r="K45" t="s">
+        <v>146</v>
+      </c>
+      <c r="O45">
+        <v>0.5</v>
       </c>
       <c r="P45">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="Q45">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="R45">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>30.000000000000004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="28.5">
       <c r="A46" s="4" t="s">
-        <v>260</v>
+        <v>64</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>259</v>
+        <v>65</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>273</v>
+        <v>136</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>183</v>
@@ -28247,7 +28250,7 @@
         <v>147</v>
       </c>
       <c r="J46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
@@ -28257,26 +28260,26 @@
         <v>2</v>
       </c>
       <c r="P46">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Q46">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R46">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+        <v>30.000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="28.5">
       <c r="A47" s="4" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>67</v>
+        <v>259</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>137</v>
+        <v>273</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>183</v>
@@ -28293,8 +28296,12 @@
       <c r="H47" t="s">
         <v>147</v>
       </c>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
+      <c r="I47" t="s">
+        <v>147</v>
+      </c>
+      <c r="J47" t="s">
+        <v>147</v>
+      </c>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
@@ -28314,15 +28321,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" ht="28.5">
       <c r="A48" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>183</v>
@@ -28339,40 +28346,36 @@
       <c r="H48" t="s">
         <v>147</v>
       </c>
-      <c r="I48" t="s">
-        <v>147</v>
-      </c>
-      <c r="J48" t="s">
-        <v>147</v>
-      </c>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P48">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="Q48">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R48">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>30.000000000000004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="28.5">
       <c r="A49" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>183</v>
@@ -28400,29 +28403,29 @@
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Q49">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="R49">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+        <v>30.000000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="28.5">
       <c r="A50" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>183</v>
@@ -28453,32 +28456,32 @@
         <v>2</v>
       </c>
       <c r="P50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q50">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R50">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
-      <c r="A51" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>157</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="28.5">
+      <c r="A51" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>151</v>
+      <c r="E51" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="F51" s="2">
         <v>7</v>
@@ -28489,8 +28492,12 @@
       <c r="H51" t="s">
         <v>147</v>
       </c>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
+      <c r="I51" t="s">
+        <v>147</v>
+      </c>
+      <c r="J51" t="s">
+        <v>147</v>
+      </c>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
@@ -28499,26 +28506,26 @@
         <v>2</v>
       </c>
       <c r="P51">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="Q51">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="R51">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>183</v>
@@ -28535,12 +28542,8 @@
       <c r="H52" t="s">
         <v>147</v>
       </c>
-      <c r="I52" t="s">
-        <v>147</v>
-      </c>
-      <c r="J52" t="s">
-        <v>147</v>
-      </c>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
@@ -28549,26 +28552,26 @@
         <v>2</v>
       </c>
       <c r="P52">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Q52">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R52">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>183</v>
@@ -28599,26 +28602,26 @@
         <v>2</v>
       </c>
       <c r="P53">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Q53">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="R53">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>183</v>
@@ -28632,12 +28635,14 @@
       <c r="G54" s="2">
         <v>10</v>
       </c>
-      <c r="H54" s="6"/>
+      <c r="H54" t="s">
+        <v>147</v>
+      </c>
       <c r="I54" t="s">
         <v>147</v>
       </c>
       <c r="J54" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
@@ -28647,26 +28652,26 @@
         <v>2</v>
       </c>
       <c r="P54">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Q54">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="R54">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="3" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>183</v>
@@ -28680,43 +28685,41 @@
       <c r="G55" s="2">
         <v>10</v>
       </c>
-      <c r="H55" t="s">
-        <v>147</v>
-      </c>
+      <c r="H55" s="6"/>
       <c r="I55" t="s">
         <v>147</v>
       </c>
       <c r="J55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
       <c r="O55" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q55">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="R55">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>183</v>
@@ -28744,29 +28747,29 @@
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P56">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Q56">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="R56">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="3" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>183</v>
@@ -28783,8 +28786,12 @@
       <c r="H57" t="s">
         <v>147</v>
       </c>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
+      <c r="I57" t="s">
+        <v>147</v>
+      </c>
+      <c r="J57" t="s">
+        <v>147</v>
+      </c>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
@@ -28793,26 +28800,26 @@
         <v>2</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Q57">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="R57">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="3" t="s">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>183</v>
@@ -28829,40 +28836,36 @@
       <c r="H58" t="s">
         <v>147</v>
       </c>
-      <c r="I58" t="s">
-        <v>147</v>
-      </c>
-      <c r="J58" t="s">
-        <v>147</v>
-      </c>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P58">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q58">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R58">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>183</v>
@@ -28890,168 +28893,177 @@
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
       <c r="O59" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q59">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R59">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="B60" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="C60" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="D60" s="28" t="s">
+      <c r="A60" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E60" s="39" t="s">
+      <c r="E60" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F60" s="40">
+      <c r="F60" s="2">
         <v>7</v>
       </c>
-      <c r="G60" s="41">
+      <c r="G60" s="2">
         <v>10</v>
       </c>
-      <c r="H60" s="42" t="s">
+      <c r="H60" t="s">
         <v>147</v>
       </c>
       <c r="I60" t="s">
         <v>147</v>
       </c>
-      <c r="J60" s="42" t="s">
+      <c r="J60" t="s">
         <v>147</v>
       </c>
-      <c r="K60" s="43"/>
-      <c r="L60" s="43"/>
-      <c r="M60" s="43"/>
-      <c r="N60" s="43"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
       <c r="O60" s="6">
         <v>2</v>
       </c>
-      <c r="P60" s="42">
-        <v>50</v>
-      </c>
-      <c r="Q60" s="44">
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>50</v>
-      </c>
-      <c r="R60" s="44">
+        <v>100</v>
+      </c>
+      <c r="R60">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2" t="s">
+      <c r="A61" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D61" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F61" s="2">
+      <c r="E61" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F61" s="4">
         <v>7</v>
       </c>
-      <c r="G61" s="2">
-        <v>60</v>
+      <c r="G61" s="28">
+        <v>10</v>
       </c>
       <c r="H61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61" s="6">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="P61">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="Q61">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R61">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D62" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F62" s="4">
+      <c r="A62" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F62" s="2">
         <v>7</v>
       </c>
       <c r="G62" s="2">
-        <v>10</v>
-      </c>
-      <c r="L62" t="s">
-        <v>147</v>
-      </c>
-      <c r="O62">
-        <f>INDEX(O2:O61,MATCH(Table2[[#This Row],[Alternative Module Code]],A2:A61,0))</f>
-        <v>3</v>
+        <v>60</v>
+      </c>
+      <c r="H62" t="s">
+        <v>146</v>
+      </c>
+      <c r="I62" t="s">
+        <v>146</v>
+      </c>
+      <c r="J62" t="s">
+        <v>146</v>
+      </c>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6">
+        <v>0.5</v>
       </c>
       <c r="P62">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="Q62">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="R62">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="3" t="s">
-        <v>129</v>
+        <v>271</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>9</v>
+        <v>258</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>8</v>
+        <v>270</v>
       </c>
       <c r="D63" s="28" t="s">
         <v>181</v>
@@ -29068,37 +29080,31 @@
       <c r="L63" t="s">
         <v>147</v>
       </c>
-      <c r="M63" t="s">
-        <v>147</v>
-      </c>
-      <c r="N63" t="s">
-        <v>147</v>
-      </c>
       <c r="O63">
-        <f>INDEX(O3:O62,MATCH(Table2[[#This Row],[Alternative Module Code]],A3:A62,0))</f>
-        <v>2</v>
+        <f>INDEX(O2:O62,MATCH(Table2[[#This Row],[Alternative Module Code]],A2:A62,0))</f>
+        <v>3</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Q63">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="R63">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>100</v>
+        <v>30.000000000000004</v>
       </c>
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D64" s="28" t="s">
         <v>181</v>
@@ -29112,34 +29118,40 @@
       <c r="G64" s="2">
         <v>10</v>
       </c>
+      <c r="L64" t="s">
+        <v>147</v>
+      </c>
       <c r="M64" t="s">
         <v>147</v>
       </c>
+      <c r="N64" t="s">
+        <v>147</v>
+      </c>
       <c r="O64">
-        <f>INDEX(O4:O63,MATCH(Table2[[#This Row],[Alternative Module Code]],A4:A63,0))</f>
+        <f>INDEX(O3:O63,MATCH(Table2[[#This Row],[Alternative Module Code]],A3:A63,0))</f>
         <v>2</v>
       </c>
       <c r="P64">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Q64">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="R64">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D65" s="28" t="s">
         <v>181</v>
@@ -29153,34 +29165,34 @@
       <c r="G65" s="2">
         <v>10</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>147</v>
       </c>
       <c r="O65">
-        <f>INDEX(O5:O64,MATCH(Table2[[#This Row],[Alternative Module Code]],A5:A64,0))</f>
+        <f>INDEX(O4:O64,MATCH(Table2[[#This Row],[Alternative Module Code]],A4:A64,0))</f>
         <v>2</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q65">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="R65">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66" s="28" t="s">
         <v>181</v>
@@ -29198,7 +29210,7 @@
         <v>147</v>
       </c>
       <c r="O66">
-        <f>INDEX(O6:O65,MATCH(Table2[[#This Row],[Alternative Module Code]],A6:A65,0))</f>
+        <f>INDEX(O5:O65,MATCH(Table2[[#This Row],[Alternative Module Code]],A5:A65,0))</f>
         <v>2</v>
       </c>
       <c r="P66">
@@ -29215,13 +29227,13 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D67" s="28" t="s">
         <v>181</v>
@@ -29235,34 +29247,34 @@
       <c r="G67" s="2">
         <v>10</v>
       </c>
-      <c r="M67" t="s">
+      <c r="L67" t="s">
         <v>147</v>
       </c>
       <c r="O67">
-        <f>INDEX(O7:O66,MATCH(Table2[[#This Row],[Alternative Module Code]],A7:A66,0))</f>
+        <f>INDEX(O6:O66,MATCH(Table2[[#This Row],[Alternative Module Code]],A6:A66,0))</f>
         <v>2</v>
       </c>
       <c r="P67">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="Q67">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="R67">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D68" s="28" t="s">
         <v>181</v>
@@ -29276,37 +29288,34 @@
       <c r="G68" s="2">
         <v>10</v>
       </c>
-      <c r="L68" t="s">
-        <v>147</v>
-      </c>
       <c r="M68" t="s">
         <v>147</v>
       </c>
       <c r="O68">
-        <f>INDEX(O8:O67,MATCH(Table2[[#This Row],[Alternative Module Code]],A8:A67,0))</f>
+        <f>INDEX(O7:O67,MATCH(Table2[[#This Row],[Alternative Module Code]],A7:A67,0))</f>
         <v>2</v>
       </c>
       <c r="P68">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q68">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R68">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D69" s="28" t="s">
         <v>181</v>
@@ -29326,40 +29335,37 @@
       <c r="M69" t="s">
         <v>147</v>
       </c>
-      <c r="N69" t="s">
-        <v>147</v>
-      </c>
       <c r="O69">
-        <f>INDEX(O9:O68,MATCH(Table2[[#This Row],[Alternative Module Code]],A9:A68,0))</f>
-        <v>3</v>
+        <f>INDEX(O8:O68,MATCH(Table2[[#This Row],[Alternative Module Code]],A8:A68,0))</f>
+        <v>2</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Q69">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="R69">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="3" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="D70" s="28" t="s">
         <v>181</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F70" s="4">
         <v>7</v>
@@ -29367,34 +29373,40 @@
       <c r="G70" s="2">
         <v>10</v>
       </c>
+      <c r="L70" t="s">
+        <v>147</v>
+      </c>
       <c r="M70" t="s">
         <v>147</v>
       </c>
+      <c r="N70" t="s">
+        <v>147</v>
+      </c>
       <c r="O70">
-        <f>INDEX(O10:O69,MATCH(Table2[[#This Row],[Alternative Module Code]],A10:A69,0))</f>
-        <v>2</v>
+        <f>INDEX(O9:O69,MATCH(Table2[[#This Row],[Alternative Module Code]],A9:A69,0))</f>
+        <v>3</v>
       </c>
       <c r="P70">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q70">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R70">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="D71" s="28" t="s">
         <v>181</v>
@@ -29408,37 +29420,34 @@
       <c r="G71" s="2">
         <v>10</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>147</v>
       </c>
-      <c r="N71" t="s">
-        <v>147</v>
-      </c>
       <c r="O71">
-        <f>INDEX(O13:O70,MATCH(Table2[[#This Row],[Alternative Module Code]],A13:A70,0))</f>
+        <f>INDEX(O10:O70,MATCH(Table2[[#This Row],[Alternative Module Code]],A10:A70,0))</f>
         <v>2</v>
       </c>
       <c r="P71">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q71">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R71">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D72" s="28" t="s">
         <v>181</v>
@@ -29452,40 +29461,43 @@
       <c r="G72" s="2">
         <v>10</v>
       </c>
-      <c r="M72" t="s">
+      <c r="L72" t="s">
         <v>147</v>
       </c>
+      <c r="N72" t="s">
+        <v>147</v>
+      </c>
       <c r="O72">
-        <f>INDEX(O14:O71,MATCH(Table2[[#This Row],[Alternative Module Code]],A14:A71,0))</f>
+        <f>INDEX(O13:O71,MATCH(Table2[[#This Row],[Alternative Module Code]],A13:A71,0))</f>
         <v>2</v>
       </c>
       <c r="P72">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Q72">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="R72">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="3" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="D73" s="28" t="s">
         <v>181</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F73" s="4">
         <v>7</v>
@@ -29493,37 +29505,34 @@
       <c r="G73" s="2">
         <v>10</v>
       </c>
-      <c r="L73" t="s">
-        <v>147</v>
-      </c>
       <c r="M73" t="s">
         <v>147</v>
       </c>
       <c r="O73">
-        <f>INDEX(O16:O72,MATCH(Table2[[#This Row],[Alternative Module Code]],A16:A72,0))</f>
+        <f>INDEX(O14:O72,MATCH(Table2[[#This Row],[Alternative Module Code]],A14:A72,0))</f>
         <v>2</v>
       </c>
       <c r="P73">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Q73">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R73">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>30.000000000000004</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="3" t="s">
-        <v>273</v>
+        <v>136</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>259</v>
+        <v>65</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>260</v>
+        <v>64</v>
       </c>
       <c r="D74" s="28" t="s">
         <v>181</v>
@@ -29544,30 +29553,30 @@
         <v>147</v>
       </c>
       <c r="O74">
-        <f>INDEX(O17:O73,MATCH(Table2[[#This Row],[Alternative Module Code]],A17:A73,0))</f>
+        <f>INDEX(O16:O73,MATCH(Table2[[#This Row],[Alternative Module Code]],A16:A73,0))</f>
         <v>2</v>
       </c>
       <c r="P74">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Q74">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R74">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>50</v>
+        <v>30.000000000000004</v>
       </c>
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="3" t="s">
-        <v>137</v>
+        <v>273</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>67</v>
+        <v>259</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="D75" s="28" t="s">
         <v>181</v>
@@ -29584,11 +29593,11 @@
       <c r="L75" t="s">
         <v>147</v>
       </c>
-      <c r="N75" t="s">
-        <v>146</v>
+      <c r="M75" t="s">
+        <v>147</v>
       </c>
       <c r="O75">
-        <f>INDEX(O18:O74,MATCH(Table2[[#This Row],[Alternative Module Code]],A18:A74,0))</f>
+        <f>INDEX(O17:O74,MATCH(Table2[[#This Row],[Alternative Module Code]],A17:A74,0))</f>
         <v>2</v>
       </c>
       <c r="P75">
@@ -29605,13 +29614,13 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D76" s="28" t="s">
         <v>181</v>
@@ -29629,33 +29638,33 @@
         <v>147</v>
       </c>
       <c r="N76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O76">
-        <f>INDEX(O20:O75,MATCH(Table2[[#This Row],[Alternative Module Code]],A20:A75,0))</f>
-        <v>3</v>
+        <f>INDEX(O18:O75,MATCH(Table2[[#This Row],[Alternative Module Code]],A18:A75,0))</f>
+        <v>2</v>
       </c>
       <c r="P76">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="Q76">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R76">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>30.000000000000004</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D77" s="28" t="s">
         <v>181</v>
@@ -29672,37 +29681,34 @@
       <c r="L77" t="s">
         <v>147</v>
       </c>
-      <c r="M77" t="s">
-        <v>147</v>
-      </c>
       <c r="N77" t="s">
         <v>147</v>
       </c>
       <c r="O77">
-        <f>INDEX(O21:O76,MATCH(Table2[[#This Row],[Alternative Module Code]],A21:A76,0))</f>
-        <v>2</v>
+        <f>INDEX(O20:O76,MATCH(Table2[[#This Row],[Alternative Module Code]],A20:A76,0))</f>
+        <v>3</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Q77">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="R77">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>100</v>
+        <v>30.000000000000004</v>
       </c>
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D78" s="28" t="s">
         <v>181</v>
@@ -29726,36 +29732,36 @@
         <v>147</v>
       </c>
       <c r="O78">
-        <f>INDEX(O22:O77,MATCH(Table2[[#This Row],[Alternative Module Code]],A22:A77,0))</f>
+        <f>INDEX(O21:O77,MATCH(Table2[[#This Row],[Alternative Module Code]],A21:A77,0))</f>
         <v>2</v>
       </c>
       <c r="P78">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q78">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R78">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="3" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="D79" s="28" t="s">
         <v>181</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F79" s="4">
         <v>7</v>
@@ -29766,34 +29772,37 @@
       <c r="L79" t="s">
         <v>147</v>
       </c>
+      <c r="M79" t="s">
+        <v>147</v>
+      </c>
       <c r="N79" t="s">
         <v>147</v>
       </c>
       <c r="O79">
-        <f>INDEX(O23:O78,MATCH(Table2[[#This Row],[Alternative Module Code]],A23:A78,0))</f>
+        <f>INDEX(O22:O78,MATCH(Table2[[#This Row],[Alternative Module Code]],A22:A78,0))</f>
         <v>2</v>
       </c>
       <c r="P79">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="Q79">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="R79">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D80" s="28" t="s">
         <v>181</v>
@@ -29810,34 +29819,34 @@
       <c r="L80" t="s">
         <v>147</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80" t="s">
         <v>147</v>
       </c>
       <c r="O80">
-        <f>INDEX(O24:O79,MATCH(Table2[[#This Row],[Alternative Module Code]],A24:A79,0))</f>
+        <f>INDEX(O23:O79,MATCH(Table2[[#This Row],[Alternative Module Code]],A23:A79,0))</f>
         <v>2</v>
       </c>
       <c r="P80">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Q80">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R80">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D81" s="28" t="s">
         <v>181</v>
@@ -29857,34 +29866,31 @@
       <c r="M81" t="s">
         <v>147</v>
       </c>
-      <c r="N81" t="s">
-        <v>147</v>
-      </c>
       <c r="O81">
-        <f>INDEX(O25:O80,MATCH(Table2[[#This Row],[Alternative Module Code]],A25:A80,0))</f>
+        <f>INDEX(O24:O80,MATCH(Table2[[#This Row],[Alternative Module Code]],A24:A80,0))</f>
         <v>2</v>
       </c>
       <c r="P81">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Q81">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="R81">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D82" s="28" t="s">
         <v>181</v>
@@ -29898,34 +29904,40 @@
       <c r="G82" s="2">
         <v>10</v>
       </c>
+      <c r="L82" t="s">
+        <v>147</v>
+      </c>
       <c r="M82" t="s">
         <v>147</v>
       </c>
+      <c r="N82" t="s">
+        <v>147</v>
+      </c>
       <c r="O82">
-        <f>INDEX(O26:O81,MATCH(Table2[[#This Row],[Alternative Module Code]],A26:A81,0))</f>
+        <f>INDEX(O25:O81,MATCH(Table2[[#This Row],[Alternative Module Code]],A25:A81,0))</f>
         <v>2</v>
       </c>
       <c r="P82">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Q82">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="R82">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="D83" s="28" t="s">
         <v>181</v>
@@ -29939,37 +29951,34 @@
       <c r="G83" s="2">
         <v>10</v>
       </c>
-      <c r="L83" t="s">
-        <v>147</v>
-      </c>
       <c r="M83" t="s">
         <v>147</v>
       </c>
       <c r="O83">
-        <f>INDEX(O27:O82,MATCH(Table2[[#This Row],[Alternative Module Code]],A27:A82,0))</f>
-        <v>3</v>
+        <f>INDEX(O26:O82,MATCH(Table2[[#This Row],[Alternative Module Code]],A26:A82,0))</f>
+        <v>2</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q83">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="R83">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D84" s="28" t="s">
         <v>181</v>
@@ -29990,30 +29999,30 @@
         <v>147</v>
       </c>
       <c r="O84">
-        <f>INDEX(O28:O83,MATCH(Table2[[#This Row],[Alternative Module Code]],A28:A83,0))</f>
-        <v>2</v>
+        <f>INDEX(O27:O83,MATCH(Table2[[#This Row],[Alternative Module Code]],A27:A83,0))</f>
+        <v>3</v>
       </c>
       <c r="P84">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Q84">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="R84">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="D85" s="28" t="s">
         <v>181</v>
@@ -30027,31 +30036,37 @@
       <c r="G85" s="2">
         <v>10</v>
       </c>
+      <c r="L85" t="s">
+        <v>147</v>
+      </c>
+      <c r="M85" t="s">
+        <v>147</v>
+      </c>
       <c r="O85">
-        <f>INDEX(O29:O84,MATCH(Table2[[#This Row],[Alternative Module Code]],A29:A84,0))</f>
+        <f>INDEX(O28:O84,MATCH(Table2[[#This Row],[Alternative Module Code]],A28:A84,0))</f>
         <v>2</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Q85">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="R85">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="D86" s="28" t="s">
         <v>181</v>
@@ -30065,34 +30080,31 @@
       <c r="G86" s="2">
         <v>10</v>
       </c>
-      <c r="M86" t="s">
-        <v>147</v>
-      </c>
       <c r="O86">
-        <f>INDEX(O30:O85,MATCH(Table2[[#This Row],[Alternative Module Code]],A30:A85,0))</f>
-        <v>3</v>
+        <f>INDEX(O29:O85,MATCH(Table2[[#This Row],[Alternative Module Code]],A29:A85,0))</f>
+        <v>2</v>
       </c>
       <c r="P86">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q86">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R86">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D87" s="28" t="s">
         <v>181</v>
@@ -30106,238 +30118,217 @@
       <c r="G87" s="2">
         <v>10</v>
       </c>
-      <c r="L87" t="s">
-        <v>147</v>
-      </c>
       <c r="M87" t="s">
         <v>147</v>
       </c>
       <c r="O87">
-        <f>INDEX(O31:O86,MATCH(Table2[[#This Row],[Alternative Module Code]],A31:A86,0))</f>
-        <v>2</v>
+        <f>INDEX(O30:O86,MATCH(Table2[[#This Row],[Alternative Module Code]],A30:A86,0))</f>
+        <v>3</v>
       </c>
       <c r="P87">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q87">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R87">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="B88" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="C88" s="39" t="s">
-        <v>261</v>
+      <c r="A88" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="D88" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E88" s="39" t="s">
+      <c r="E88" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F88" s="40">
+      <c r="F88" s="4">
         <v>7</v>
       </c>
-      <c r="G88" s="41">
+      <c r="G88" s="2">
         <v>10</v>
       </c>
-      <c r="H88" s="42"/>
-      <c r="J88" s="42"/>
-      <c r="K88" s="42"/>
-      <c r="L88" s="42" t="s">
+      <c r="L88" t="s">
         <v>147</v>
       </c>
-      <c r="M88" s="42" t="s">
+      <c r="M88" t="s">
         <v>147</v>
       </c>
-      <c r="N88" s="42"/>
       <c r="O88">
-        <f>INDEX(O32:O87,MATCH(Table2[[#This Row],[Alternative Module Code]],A32:A87,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P88" s="42">
+        <f>INDEX(O31:O87,MATCH(Table2[[#This Row],[Alternative Module Code]],A31:A87,0))</f>
+        <v>2</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
+        <v>100</v>
+      </c>
+      <c r="R88">
+        <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F89" s="4">
+        <v>7</v>
+      </c>
+      <c r="G89" s="28">
+        <v>10</v>
+      </c>
+      <c r="L89" t="s">
+        <v>147</v>
+      </c>
+      <c r="M89" t="s">
+        <v>147</v>
+      </c>
+      <c r="O89">
+        <f>INDEX(O32:O88,MATCH(Table2[[#This Row],[Alternative Module Code]],A32:A88,0))</f>
+        <v>2</v>
+      </c>
+      <c r="P89">
         <v>50</v>
       </c>
-      <c r="Q88" s="44">
+      <c r="Q89">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>50</v>
       </c>
-      <c r="R88" s="44">
+      <c r="R89">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
-      <c r="A89" s="39" t="s">
+    <row r="90" spans="1:18">
+      <c r="A90" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B89" s="39" t="s">
+      <c r="B90" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C89" s="39"/>
-      <c r="D89" s="28" t="s">
+      <c r="C90" s="3"/>
+      <c r="D90" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E89" s="39" t="s">
+      <c r="E90" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F89" s="40">
+      <c r="F90" s="4">
         <v>7</v>
       </c>
-      <c r="G89" s="41">
+      <c r="G90" s="28">
         <v>10</v>
       </c>
-      <c r="H89" s="42"/>
-      <c r="J89" s="42"/>
-      <c r="K89" s="42"/>
-      <c r="L89" s="42"/>
-      <c r="M89" s="42"/>
-      <c r="N89" s="42" t="s">
+      <c r="N90" t="s">
         <v>147</v>
       </c>
-      <c r="O89">
-        <v>2</v>
-      </c>
-      <c r="P89" s="42">
+      <c r="O90">
+        <v>2</v>
+      </c>
+      <c r="P90">
         <v>0</v>
       </c>
-      <c r="Q89" s="44">
+      <c r="Q90">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R89" s="44">
+      <c r="R90">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
-      <c r="A90" s="39" t="s">
+    <row r="91" spans="1:18">
+      <c r="A91" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B90" s="39" t="s">
+      <c r="B91" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C90" s="39"/>
-      <c r="D90" s="28" t="s">
+      <c r="C91" s="3"/>
+      <c r="D91" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E90" s="39" t="s">
+      <c r="E91" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F90" s="40">
+      <c r="F91" s="4">
         <v>7</v>
       </c>
-      <c r="G90" s="41">
+      <c r="G91" s="28">
         <v>10</v>
       </c>
-      <c r="H90" s="42"/>
-      <c r="J90" s="42"/>
-      <c r="K90" s="42"/>
-      <c r="L90" s="42" t="s">
+      <c r="L91" t="s">
         <v>147</v>
       </c>
-      <c r="M90" s="42"/>
-      <c r="N90" s="42" t="s">
+      <c r="N91" t="s">
         <v>147</v>
       </c>
-      <c r="O90">
-        <v>2</v>
-      </c>
-      <c r="P90" s="42">
+      <c r="O91">
+        <v>2</v>
+      </c>
+      <c r="P91">
         <v>0</v>
       </c>
-      <c r="Q90" s="44">
+      <c r="Q91">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R90" s="44">
+      <c r="R91">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
-      <c r="A91" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="B91" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="C91" s="39"/>
-      <c r="D91" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="E91" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="F91" s="40">
-        <v>7</v>
-      </c>
-      <c r="G91" s="41">
-        <v>10</v>
-      </c>
-      <c r="H91" s="42"/>
-      <c r="J91" s="42"/>
-      <c r="K91" s="42"/>
-      <c r="L91" s="42"/>
-      <c r="M91" s="42"/>
-      <c r="N91" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="O91">
-        <v>2</v>
-      </c>
-      <c r="P91" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="44">
-        <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>100</v>
-      </c>
-      <c r="R91" s="44">
-        <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>100</v>
-      </c>
-    </row>
     <row r="92" spans="1:18">
       <c r="A92" s="3" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="28" t="s">
         <v>181</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F92" s="4">
         <v>7</v>
       </c>
-      <c r="G92" s="2">
-        <v>20</v>
-      </c>
-      <c r="L92" t="s">
-        <v>146</v>
-      </c>
-      <c r="M92" t="s">
-        <v>146</v>
+      <c r="G92" s="28">
+        <v>10</v>
       </c>
       <c r="N92" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -30353,17 +30344,17 @@
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="28" t="s">
         <v>181</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F93" s="4">
         <v>7</v>
@@ -30381,7 +30372,7 @@
         <v>146</v>
       </c>
       <c r="O93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -30396,13 +30387,48 @@
       </c>
     </row>
     <row r="94" spans="1:18">
-      <c r="A94"/>
-      <c r="B94"/>
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
+      <c r="A94" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F94" s="4">
+        <v>7</v>
+      </c>
+      <c r="G94" s="2">
+        <v>20</v>
+      </c>
+      <c r="L94" t="s">
+        <v>146</v>
+      </c>
+      <c r="M94" t="s">
+        <v>146</v>
+      </c>
+      <c r="N94" t="s">
+        <v>146</v>
+      </c>
+      <c r="O94">
+        <v>4</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
+        <v>100</v>
+      </c>
+      <c r="R94">
+        <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="95" spans="1:18">
       <c r="A95"/>
@@ -30422,22 +30448,150 @@
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" customFormat="1"/>
-    <row r="98" customFormat="1"/>
-    <row r="99" customFormat="1"/>
-    <row r="100" customFormat="1"/>
-    <row r="101" customFormat="1"/>
-    <row r="102" customFormat="1"/>
-    <row r="103" customFormat="1"/>
-    <row r="104" customFormat="1"/>
-    <row r="105" customFormat="1"/>
-    <row r="106" customFormat="1"/>
-    <row r="107" customFormat="1"/>
-    <row r="108" customFormat="1"/>
-    <row r="109" customFormat="1"/>
-    <row r="110" customFormat="1"/>
-    <row r="111" customFormat="1"/>
-    <row r="112" customFormat="1"/>
+    <row r="97" spans="1:7">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+    </row>
     <row r="113" spans="1:7">
       <c r="A113"/>
       <c r="B113"/>
@@ -30565,37 +30719,38 @@
       <c r="G126"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E93">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="SEMD">
+  <conditionalFormatting sqref="E2:E38 E40:E94">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="SEMD">
       <formula>NOT(ISERROR(SEARCH("SEMD",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="SEM2">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="SEM2">
       <formula>NOT(ISERROR(SEARCH("SEM2",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="SEM1">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="SEM1">
       <formula>NOT(ISERROR(SEARCH("SEM1",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:O93">
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="O">
-      <formula>NOT(ISERROR(SEARCH("O",H2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",H2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F93">
-    <cfRule type="colorScale" priority="152">
+  <conditionalFormatting sqref="F2:F38 F40:F94">
+    <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -30604,8 +30759,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G93">
-    <cfRule type="colorScale" priority="154">
+  <conditionalFormatting sqref="G2:G38 G40:G94">
+    <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="num" val="10"/>
         <cfvo type="percentile" val="50"/>
@@ -30614,6 +30769,55 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:O38 H40:O94">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="SEMD">
+      <formula>NOT(ISERROR(SEARCH("SEMD",E39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="SEM2">
+      <formula>NOT(ISERROR(SEARCH("SEM2",E39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="SEM1">
+      <formula>NOT(ISERROR(SEARCH("SEM1",E39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="num" val="10"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:N39">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",H39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",H39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30625,7 +30829,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{AB48118A-1CFE-488B-B12E-453EA0CADD16}">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{AB48118A-1CFE-488B-B12E-453EA0CADD16}">
             <xm:f>NOT(ISERROR(SEARCH("-",H2)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -30636,7 +30840,21 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H2:O93</xm:sqref>
+          <xm:sqref>H2:O38 H40:O94</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{3FB391C5-B3FE-43CF-822F-2C4A5C3D1798}">
+            <xm:f>NOT(ISERROR(SEARCH("-",H39)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H39:N39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -30652,11 +30870,11 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.53125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
@@ -30928,7 +31146,7 @@
       </c>
       <c r="C14">
         <f>SUMIF(Table1[Module Code],Sheet2!A14,Table1[Total Hours])</f>
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="D14">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A14,Table14[Module Code],0))</f>
@@ -30936,11 +31154,11 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>47.5</v>
+        <v>51.5</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>4.75</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -30952,7 +31170,7 @@
       </c>
       <c r="C15">
         <f>SUMIF(Table1[Module Code],Sheet2!A15,Table1[Total Hours])</f>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A15,Table14[Module Code],0))</f>
@@ -30960,11 +31178,11 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -31000,7 +31218,7 @@
       </c>
       <c r="C17">
         <f>SUMIF(Table1[Module Code],Sheet2!A17,Table1[Total Hours])</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A17,Table14[Module Code],0))</f>
@@ -31008,11 +31226,11 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -31072,7 +31290,7 @@
       </c>
       <c r="C20">
         <f>SUMIF(Table1[Module Code],Sheet2!A20,Table1[Total Hours])</f>
-        <v>64.5</v>
+        <v>52.5</v>
       </c>
       <c r="D20">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A20,Table14[Module Code],0))</f>
@@ -31080,11 +31298,11 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>152.5</v>
+        <v>140.5</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>7.625</v>
+        <v>7.0250000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -31264,7 +31482,7 @@
       </c>
       <c r="C28">
         <f>SUMIF(Table1[Module Code],Sheet2!A28,Table1[Total Hours])</f>
-        <v>32.5</v>
+        <v>13</v>
       </c>
       <c r="D28">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A28,Table14[Module Code],0))</f>
@@ -31272,11 +31490,11 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>76.5</v>
+        <v>57</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>3.8250000000000002</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -31288,7 +31506,7 @@
       </c>
       <c r="C29">
         <f>SUMIF(Table1[Module Code],Sheet2!A29,Table1[Total Hours])</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D29" t="e">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A29,Table14[Module Code],0))</f>
@@ -31576,7 +31794,7 @@
       </c>
       <c r="C41">
         <f>SUMIF(Table1[Module Code],Sheet2!A41,Table1[Total Hours])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D41" t="e">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A41,Table14[Module Code],0))</f>

--- a/AssessmentSchedule_2526.xlsx
+++ b/AssessmentSchedule_2526.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="300" documentId="8_{3BD1AB7E-894C-4574-9FA4-C65B4507F605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87209A31-6165-49FC-8533-0E7BDDE38269}"/>
+  <xr:revisionPtr revIDLastSave="303" documentId="8_{3BD1AB7E-894C-4574-9FA4-C65B4507F605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39B31A22-FF78-42C4-AED0-F9C1189934F4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="34" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -973,7 +973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1099,25 +1099,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="107">
+  <dxfs count="104">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1142,36 +1128,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1231,41 +1187,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3332,6 +3253,41 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8732,7 +8688,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9181,56 +9137,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}" name="Table1" displayName="Table1" ref="A1:AJ139" totalsRowShown="0" headerRowDxfId="12" dataDxfId="105" headerRowBorderDxfId="106" tableBorderDxfId="104" totalsRowBorderDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}" name="Table1" displayName="Table1" ref="A1:AJ139" totalsRowShown="0" headerRowDxfId="103" dataDxfId="101" headerRowBorderDxfId="102" tableBorderDxfId="100" totalsRowBorderDxfId="99">
   <autoFilter ref="A1:AJ139" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH125">
     <sortCondition ref="A1:A125"/>
   </sortState>
   <tableColumns count="36">
-    <tableColumn id="1" xr3:uid="{7078548A-F011-4851-AB36-1F04238FA2FE}" name="Module Code" dataDxfId="102"/>
-    <tableColumn id="2" xr3:uid="{D2290F36-B8B3-427A-AEFE-45FD22901411}" name="Module Title" dataDxfId="101"/>
-    <tableColumn id="3" xr3:uid="{31165455-2AA3-4532-A0A0-C942837C0F79}" name="CA type" dataDxfId="100"/>
-    <tableColumn id="33" xr3:uid="{B83E0E3E-2B28-42F1-BC64-5D7177EC4229}" name="CA Weight" dataDxfId="99">
+    <tableColumn id="1" xr3:uid="{7078548A-F011-4851-AB36-1F04238FA2FE}" name="Module Code" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{D2290F36-B8B3-427A-AEFE-45FD22901411}" name="Module Title" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{31165455-2AA3-4532-A0A0-C942837C0F79}" name="CA type" dataDxfId="96"/>
+    <tableColumn id="33" xr3:uid="{B83E0E3E-2B28-42F1-BC64-5D7177EC4229}" name="CA Weight" dataDxfId="95">
       <calculatedColumnFormula>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{AEA2048C-138D-450A-BE52-3FCBDE03C67D}" name="Credits" dataDxfId="98">
+    <tableColumn id="34" xr3:uid="{AEA2048C-138D-450A-BE52-3FCBDE03C67D}" name="Credits" dataDxfId="94">
       <calculatedColumnFormula>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{82DD5B5B-C808-4E6E-849C-7A03DC6D0B69}" name="Description" dataDxfId="97"/>
-    <tableColumn id="36" xr3:uid="{A7BF30F6-C808-4B8F-B3FF-9FAF20E2145A}" name="Summative" dataDxfId="96"/>
-    <tableColumn id="16" xr3:uid="{E6637FEB-7F23-45F0-99D2-96D20DD2DAEF}" name="Duration" dataDxfId="95"/>
-    <tableColumn id="31" xr3:uid="{FD1E9614-3960-4F72-BD42-711A4CC7BBA0}" name="Nominal Hours" dataDxfId="94">
+    <tableColumn id="30" xr3:uid="{82DD5B5B-C808-4E6E-849C-7A03DC6D0B69}" name="Description" dataDxfId="93"/>
+    <tableColumn id="36" xr3:uid="{A7BF30F6-C808-4B8F-B3FF-9FAF20E2145A}" name="Summative" dataDxfId="92"/>
+    <tableColumn id="16" xr3:uid="{E6637FEB-7F23-45F0-99D2-96D20DD2DAEF}" name="Duration" dataDxfId="91"/>
+    <tableColumn id="31" xr3:uid="{FD1E9614-3960-4F72-BD42-711A4CC7BBA0}" name="Nominal Hours" dataDxfId="90">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{E11C773A-511F-4D25-8636-C56C5B61ED90}" name="Hours" dataDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{04E38F13-8347-412C-866C-6EFE6796253C}" name="Autumn Week 1" dataDxfId="92"/>
-    <tableColumn id="5" xr3:uid="{254D6A24-FC1B-44C7-A3DF-52DA2A250D31}" name="Autumn Week 2" dataDxfId="91"/>
-    <tableColumn id="6" xr3:uid="{9EB326C3-772E-4E56-89FB-BA3A00291293}" name="Autumn Week 3" dataDxfId="90"/>
-    <tableColumn id="7" xr3:uid="{94BC6C78-5A89-4267-B1C1-BFA70E5A9F34}" name="Autumn Week 4" dataDxfId="89"/>
-    <tableColumn id="8" xr3:uid="{CF3B6389-B559-4FE3-8B33-FEDB303382B1}" name="Autumn Week 5" dataDxfId="88"/>
-    <tableColumn id="9" xr3:uid="{8DD80B9C-D1B1-4CDE-A624-4CD3A15113DD}" name="Autumn Week 6" dataDxfId="87"/>
-    <tableColumn id="10" xr3:uid="{8C4EBEE4-01CB-4AD0-B594-F466CC36D370}" name="Autumn Week 7" dataDxfId="86"/>
-    <tableColumn id="11" xr3:uid="{7F8C91DE-BE61-47CF-A916-D06ED7B283E9}" name="Autumn Week 8" dataDxfId="85"/>
-    <tableColumn id="12" xr3:uid="{9D58139A-0F96-4203-8D22-58BC34744B87}" name="Autumn Week 9" dataDxfId="84"/>
-    <tableColumn id="13" xr3:uid="{43C545DF-9B9E-4080-8012-F9EFA0F01283}" name="Autumn Week 10" dataDxfId="83"/>
-    <tableColumn id="14" xr3:uid="{829AB976-2AB2-435C-8F11-DE08DACA4407}" name="Autumn Week 11" dataDxfId="82"/>
-    <tableColumn id="15" xr3:uid="{9126A0EA-FC34-4876-9D56-A0AC39C5526C}" name="Autumn Week 12" dataDxfId="81"/>
-    <tableColumn id="17" xr3:uid="{15B891EE-FCC8-4E53-A90D-3E10FFC1E9FA}" name="Spring Week 1" dataDxfId="80"/>
-    <tableColumn id="18" xr3:uid="{464CA212-3B53-4678-AFE4-8AF8308C1986}" name="Spring Week 2" dataDxfId="79"/>
-    <tableColumn id="19" xr3:uid="{B560E823-CC29-418C-B26C-52D9FFC8C72E}" name="Spring Week 3" dataDxfId="78"/>
-    <tableColumn id="20" xr3:uid="{D95606F3-E0A0-4907-91E0-4AD09D0C65CB}" name="Spring Week 4" dataDxfId="77"/>
-    <tableColumn id="21" xr3:uid="{E71FF892-9A4B-444C-8972-62D92F81B0E7}" name="Spring Week 5" dataDxfId="76"/>
-    <tableColumn id="22" xr3:uid="{C7775BA8-178A-4501-A8DE-2B2CF77A2451}" name="Spring Week 6" dataDxfId="75"/>
-    <tableColumn id="23" xr3:uid="{51A89A97-F839-4F50-88A9-65049D65C9B0}" name="Spring Week 7" dataDxfId="74"/>
-    <tableColumn id="24" xr3:uid="{26EE6D10-4FC4-49AE-8DE6-18AC556C293D}" name="Spring Week 8" dataDxfId="73"/>
-    <tableColumn id="25" xr3:uid="{FCB1B9FB-21DA-415A-86E6-C8E14F864E1B}" name="Spring Week 9" dataDxfId="72"/>
-    <tableColumn id="26" xr3:uid="{54402AE1-DC77-41BA-BCC7-28BCA7186B44}" name="Spring Week 10" dataDxfId="71"/>
-    <tableColumn id="27" xr3:uid="{31C092D1-BD77-4126-8E72-8E74D0D11509}" name="Spring Week 11" dataDxfId="70"/>
-    <tableColumn id="28" xr3:uid="{56D67770-E36A-46FE-97FA-76CD24229C51}" name="Spring Week 12" dataDxfId="69"/>
-    <tableColumn id="29" xr3:uid="{785AD842-5ED0-4E27-B4B7-26E6FF9AC266}" name="Sub-total" dataDxfId="68">
+    <tableColumn id="32" xr3:uid="{E11C773A-511F-4D25-8636-C56C5B61ED90}" name="Hours" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{04E38F13-8347-412C-866C-6EFE6796253C}" name="Autumn Week 1" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{254D6A24-FC1B-44C7-A3DF-52DA2A250D31}" name="Autumn Week 2" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{9EB326C3-772E-4E56-89FB-BA3A00291293}" name="Autumn Week 3" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{94BC6C78-5A89-4267-B1C1-BFA70E5A9F34}" name="Autumn Week 4" dataDxfId="85"/>
+    <tableColumn id="8" xr3:uid="{CF3B6389-B559-4FE3-8B33-FEDB303382B1}" name="Autumn Week 5" dataDxfId="84"/>
+    <tableColumn id="9" xr3:uid="{8DD80B9C-D1B1-4CDE-A624-4CD3A15113DD}" name="Autumn Week 6" dataDxfId="83"/>
+    <tableColumn id="10" xr3:uid="{8C4EBEE4-01CB-4AD0-B594-F466CC36D370}" name="Autumn Week 7" dataDxfId="82"/>
+    <tableColumn id="11" xr3:uid="{7F8C91DE-BE61-47CF-A916-D06ED7B283E9}" name="Autumn Week 8" dataDxfId="81"/>
+    <tableColumn id="12" xr3:uid="{9D58139A-0F96-4203-8D22-58BC34744B87}" name="Autumn Week 9" dataDxfId="80"/>
+    <tableColumn id="13" xr3:uid="{43C545DF-9B9E-4080-8012-F9EFA0F01283}" name="Autumn Week 10" dataDxfId="79"/>
+    <tableColumn id="14" xr3:uid="{829AB976-2AB2-435C-8F11-DE08DACA4407}" name="Autumn Week 11" dataDxfId="78"/>
+    <tableColumn id="15" xr3:uid="{9126A0EA-FC34-4876-9D56-A0AC39C5526C}" name="Autumn Week 12" dataDxfId="77"/>
+    <tableColumn id="17" xr3:uid="{15B891EE-FCC8-4E53-A90D-3E10FFC1E9FA}" name="Spring Week 1" dataDxfId="76"/>
+    <tableColumn id="18" xr3:uid="{464CA212-3B53-4678-AFE4-8AF8308C1986}" name="Spring Week 2" dataDxfId="75"/>
+    <tableColumn id="19" xr3:uid="{B560E823-CC29-418C-B26C-52D9FFC8C72E}" name="Spring Week 3" dataDxfId="74"/>
+    <tableColumn id="20" xr3:uid="{D95606F3-E0A0-4907-91E0-4AD09D0C65CB}" name="Spring Week 4" dataDxfId="73"/>
+    <tableColumn id="21" xr3:uid="{E71FF892-9A4B-444C-8972-62D92F81B0E7}" name="Spring Week 5" dataDxfId="72"/>
+    <tableColumn id="22" xr3:uid="{C7775BA8-178A-4501-A8DE-2B2CF77A2451}" name="Spring Week 6" dataDxfId="71"/>
+    <tableColumn id="23" xr3:uid="{51A89A97-F839-4F50-88A9-65049D65C9B0}" name="Spring Week 7" dataDxfId="70"/>
+    <tableColumn id="24" xr3:uid="{26EE6D10-4FC4-49AE-8DE6-18AC556C293D}" name="Spring Week 8" dataDxfId="69"/>
+    <tableColumn id="25" xr3:uid="{FCB1B9FB-21DA-415A-86E6-C8E14F864E1B}" name="Spring Week 9" dataDxfId="68"/>
+    <tableColumn id="26" xr3:uid="{54402AE1-DC77-41BA-BCC7-28BCA7186B44}" name="Spring Week 10" dataDxfId="67"/>
+    <tableColumn id="27" xr3:uid="{31C092D1-BD77-4126-8E72-8E74D0D11509}" name="Spring Week 11" dataDxfId="66"/>
+    <tableColumn id="28" xr3:uid="{56D67770-E36A-46FE-97FA-76CD24229C51}" name="Spring Week 12" dataDxfId="65"/>
+    <tableColumn id="29" xr3:uid="{785AD842-5ED0-4E27-B4B7-26E6FF9AC266}" name="Sub-total" dataDxfId="64">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{EE5D0E71-7823-4EE2-9CC1-32BF500AB742}" name="Total Hours" dataDxfId="67">
+    <tableColumn id="35" xr3:uid="{EE5D0E71-7823-4EE2-9CC1-32BF500AB742}" name="Total Hours" dataDxfId="63">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9239,49 +9195,49 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A071F52D-AD51-4120-94C5-67D4117EBD07}" name="Table14" displayName="Table14" ref="A1:AE64" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" totalsRowBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A071F52D-AD51-4120-94C5-67D4117EBD07}" name="Table14" displayName="Table14" ref="A1:AE64" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59" totalsRowBorderDxfId="58">
   <autoFilter ref="A1:AE64" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD64">
     <sortCondition ref="A1:A132"/>
   </sortState>
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{D7CE4D57-09F4-4B9D-B464-A087075D1C39}" name="Module Code" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{DE2920B2-70AC-48F3-99E7-07B70BC1E928}" name="Module Title" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{61946E7A-4C82-425B-89A6-3DBD530FCD55}" name="Contact type" dataDxfId="59"/>
-    <tableColumn id="34" xr3:uid="{55A68E2B-9324-4E9E-9629-6611EC7C904E}" name="Credits" dataDxfId="58">
+    <tableColumn id="1" xr3:uid="{D7CE4D57-09F4-4B9D-B464-A087075D1C39}" name="Module Code" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{DE2920B2-70AC-48F3-99E7-07B70BC1E928}" name="Module Title" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{61946E7A-4C82-425B-89A6-3DBD530FCD55}" name="Contact type" dataDxfId="55"/>
+    <tableColumn id="34" xr3:uid="{55A68E2B-9324-4E9E-9629-6611EC7C904E}" name="Credits" dataDxfId="54">
       <calculatedColumnFormula>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{9C4C2C35-CE5A-4469-93FA-21FC6F57EDAD}" name="Semester" dataDxfId="57">
+    <tableColumn id="30" xr3:uid="{9C4C2C35-CE5A-4469-93FA-21FC6F57EDAD}" name="Semester" dataDxfId="53">
       <calculatedColumnFormula>INDEX(Table2[Semester],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{A7B09E14-0C35-459D-A9D0-5143D8AFFE4E}" name="Nominal Hours" dataDxfId="56">
+    <tableColumn id="31" xr3:uid="{A7B09E14-0C35-459D-A9D0-5143D8AFFE4E}" name="Nominal Hours" dataDxfId="52">
       <calculatedColumnFormula>INDEX(Table2[Contact Time],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{503822B3-8862-4FCD-9DD3-3B52F57A97BE}" name="Autumn Week 1" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{760391D0-3219-4B11-8E3D-3E00EEDFA9DD}" name="Autumn Week 2" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{6EE5E3E9-C4FB-49BE-932C-B84EA0A7970D}" name="Autumn Week 3" dataDxfId="53"/>
-    <tableColumn id="7" xr3:uid="{2C7AD515-480E-49A6-8076-95205ACF95EC}" name="Autumn Week 4" dataDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{6FD8C5C6-433E-493B-BB28-5ADD15CFC7FB}" name="Autumn Week 5" dataDxfId="51"/>
-    <tableColumn id="9" xr3:uid="{801E6BE2-75F8-40A5-A263-0AAEFDAA63E7}" name="Autumn Week 6" dataDxfId="50"/>
-    <tableColumn id="10" xr3:uid="{976D463A-C6BC-4636-B732-53E6CDF3F6C7}" name="Autumn Week 7" dataDxfId="49"/>
-    <tableColumn id="11" xr3:uid="{D025F987-6302-4D7B-9A9A-636F867D1872}" name="Autumn Week 8" dataDxfId="48"/>
-    <tableColumn id="12" xr3:uid="{D30D10EE-2DE5-4659-AA67-2134D11D6119}" name="Autumn Week 9" dataDxfId="47"/>
-    <tableColumn id="13" xr3:uid="{35E8F713-2D13-47B7-9811-293DA89F0D62}" name="Autumn Week 10" dataDxfId="46"/>
-    <tableColumn id="14" xr3:uid="{5DD48606-F817-4B30-8BA1-A96457CBB489}" name="Autumn Week 11" dataDxfId="45"/>
-    <tableColumn id="15" xr3:uid="{9B982ED1-A4C5-4E87-99AB-70713F2B634E}" name="Autumn Week 12" dataDxfId="44"/>
-    <tableColumn id="17" xr3:uid="{3AFDFF11-D351-428A-AC16-E674EB9DD7CC}" name="Spring Week 1" dataDxfId="43"/>
-    <tableColumn id="18" xr3:uid="{1431E9F9-328E-4229-9377-39D94C660D67}" name="Spring Week 2" dataDxfId="42"/>
-    <tableColumn id="19" xr3:uid="{8E1051DB-2A93-4ABA-8317-8F9921CF483D}" name="Spring Week 3" dataDxfId="41"/>
-    <tableColumn id="20" xr3:uid="{98B745E4-C481-42FF-9D3B-0D0899BD3DB6}" name="Spring Week 4" dataDxfId="40"/>
-    <tableColumn id="21" xr3:uid="{2FC9B562-4622-444D-9372-5637BFE48E0A}" name="Spring Week 5" dataDxfId="39"/>
-    <tableColumn id="22" xr3:uid="{95778D77-82F1-4B00-8FED-6FEB2BF83C3D}" name="Spring Week 6" dataDxfId="38"/>
-    <tableColumn id="23" xr3:uid="{9A49A64C-9A09-47A0-BC65-A8C1C98DACA3}" name="Spring Week 7" dataDxfId="37"/>
-    <tableColumn id="24" xr3:uid="{191AACBA-3CF0-48E5-B522-FCD2CCE9AC99}" name="Spring Week 8" dataDxfId="36"/>
-    <tableColumn id="25" xr3:uid="{DC35B6C1-904B-4E6A-A04F-ADF850A50D85}" name="Spring Week 9" dataDxfId="35"/>
-    <tableColumn id="26" xr3:uid="{BEB9E86A-57BF-4A1E-A499-BADB9EAD1DE9}" name="Spring Week 10" dataDxfId="34"/>
-    <tableColumn id="27" xr3:uid="{D640FB81-F093-4E3F-B7A1-6995DDDD6305}" name="Spring Week 11" dataDxfId="33"/>
-    <tableColumn id="28" xr3:uid="{496FDC17-F0F2-4381-96DA-177DC578A786}" name="Spring Week 12" dataDxfId="32"/>
-    <tableColumn id="32" xr3:uid="{65BCC67A-5DC9-4957-BB42-BCF5FCA71B17}" name="Total" dataDxfId="31">
+    <tableColumn id="4" xr3:uid="{503822B3-8862-4FCD-9DD3-3B52F57A97BE}" name="Autumn Week 1" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{760391D0-3219-4B11-8E3D-3E00EEDFA9DD}" name="Autumn Week 2" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{6EE5E3E9-C4FB-49BE-932C-B84EA0A7970D}" name="Autumn Week 3" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{2C7AD515-480E-49A6-8076-95205ACF95EC}" name="Autumn Week 4" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{6FD8C5C6-433E-493B-BB28-5ADD15CFC7FB}" name="Autumn Week 5" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{801E6BE2-75F8-40A5-A263-0AAEFDAA63E7}" name="Autumn Week 6" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{976D463A-C6BC-4636-B732-53E6CDF3F6C7}" name="Autumn Week 7" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{D025F987-6302-4D7B-9A9A-636F867D1872}" name="Autumn Week 8" dataDxfId="44"/>
+    <tableColumn id="12" xr3:uid="{D30D10EE-2DE5-4659-AA67-2134D11D6119}" name="Autumn Week 9" dataDxfId="43"/>
+    <tableColumn id="13" xr3:uid="{35E8F713-2D13-47B7-9811-293DA89F0D62}" name="Autumn Week 10" dataDxfId="42"/>
+    <tableColumn id="14" xr3:uid="{5DD48606-F817-4B30-8BA1-A96457CBB489}" name="Autumn Week 11" dataDxfId="41"/>
+    <tableColumn id="15" xr3:uid="{9B982ED1-A4C5-4E87-99AB-70713F2B634E}" name="Autumn Week 12" dataDxfId="40"/>
+    <tableColumn id="17" xr3:uid="{3AFDFF11-D351-428A-AC16-E674EB9DD7CC}" name="Spring Week 1" dataDxfId="39"/>
+    <tableColumn id="18" xr3:uid="{1431E9F9-328E-4229-9377-39D94C660D67}" name="Spring Week 2" dataDxfId="38"/>
+    <tableColumn id="19" xr3:uid="{8E1051DB-2A93-4ABA-8317-8F9921CF483D}" name="Spring Week 3" dataDxfId="37"/>
+    <tableColumn id="20" xr3:uid="{98B745E4-C481-42FF-9D3B-0D0899BD3DB6}" name="Spring Week 4" dataDxfId="36"/>
+    <tableColumn id="21" xr3:uid="{2FC9B562-4622-444D-9372-5637BFE48E0A}" name="Spring Week 5" dataDxfId="35"/>
+    <tableColumn id="22" xr3:uid="{95778D77-82F1-4B00-8FED-6FEB2BF83C3D}" name="Spring Week 6" dataDxfId="34"/>
+    <tableColumn id="23" xr3:uid="{9A49A64C-9A09-47A0-BC65-A8C1C98DACA3}" name="Spring Week 7" dataDxfId="33"/>
+    <tableColumn id="24" xr3:uid="{191AACBA-3CF0-48E5-B522-FCD2CCE9AC99}" name="Spring Week 8" dataDxfId="32"/>
+    <tableColumn id="25" xr3:uid="{DC35B6C1-904B-4E6A-A04F-ADF850A50D85}" name="Spring Week 9" dataDxfId="31"/>
+    <tableColumn id="26" xr3:uid="{BEB9E86A-57BF-4A1E-A499-BADB9EAD1DE9}" name="Spring Week 10" dataDxfId="30"/>
+    <tableColumn id="27" xr3:uid="{D640FB81-F093-4E3F-B7A1-6995DDDD6305}" name="Spring Week 11" dataDxfId="29"/>
+    <tableColumn id="28" xr3:uid="{496FDC17-F0F2-4381-96DA-177DC578A786}" name="Spring Week 12" dataDxfId="28"/>
+    <tableColumn id="32" xr3:uid="{65BCC67A-5DC9-4957-BB42-BCF5FCA71B17}" name="Total" dataDxfId="27">
       <calculatedColumnFormula>SUM(Table14[[#This Row],[Autumn Week 1]:[Spring Week 12]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9290,32 +9246,32 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}" name="Table2" displayName="Table2" ref="A1:R94" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}" name="Table2" displayName="Table2" ref="A1:R94" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25">
   <autoFilter ref="A1:R94" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B62">
     <sortCondition ref="A1:A62"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{A36A2B86-0F30-4188-9ECD-AE5BC71A59F4}" name="Module Code" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{D3F20037-EF35-4207-A530-484E1EB45719}" name="Module Title" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{40C22022-10B9-411F-9B76-B89140ABFFB2}" name="Alternative Module Code" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{CB12E405-1802-457C-AF17-F1B9CB3BBF13}" name="Source" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{EA737976-1AA7-49B6-8752-A388621554F4}" name="Semester" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{16DFC84F-5858-467D-B447-49992D721E4B}" name="Level" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{A17BC4BA-A3CB-442D-9BDC-D3B41B98B389}" name="Credits" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{7E25B4F4-1A7D-48D9-AAA2-AF5C97240797}" name="Physics" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{A36A2B86-0F30-4188-9ECD-AE5BC71A59F4}" name="Module Code" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{D3F20037-EF35-4207-A530-484E1EB45719}" name="Module Title" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{40C22022-10B9-411F-9B76-B89140ABFFB2}" name="Alternative Module Code" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{CB12E405-1802-457C-AF17-F1B9CB3BBF13}" name="Source" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{EA737976-1AA7-49B6-8752-A388621554F4}" name="Semester" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{16DFC84F-5858-467D-B447-49992D721E4B}" name="Level" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{A17BC4BA-A3CB-442D-9BDC-D3B41B98B389}" name="Credits" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{7E25B4F4-1A7D-48D9-AAA2-AF5C97240797}" name="Physics" dataDxfId="16"/>
     <tableColumn id="17" xr3:uid="{AA3AE96F-2651-49D7-89AD-BA94806438AE}" name="PhysAstro"/>
-    <tableColumn id="4" xr3:uid="{9C7DD469-E550-411F-8467-246A1543FB38}" name="Astro" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{3C5D3AEB-487E-4678-A42F-BE4BA4D0E9AA}" name="MedPhys" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{AE552873-9B31-41A6-B73C-D052477CA74C}" name="MScPhysics" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{8F51CE76-3A29-487A-A13C-FB63C79CF3E6}" name="MScAstro" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{9C7DD469-E550-411F-8467-246A1543FB38}" name="Astro" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{3C5D3AEB-487E-4678-A42F-BE4BA4D0E9AA}" name="MedPhys" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{AE552873-9B31-41A6-B73C-D052477CA74C}" name="MScPhysics" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{8F51CE76-3A29-487A-A13C-FB63C79CF3E6}" name="MScAstro" dataDxfId="12"/>
     <tableColumn id="18" xr3:uid="{10668F71-1EDF-482E-86A5-46E1F3C15120}" name="MScCSPhysics"/>
     <tableColumn id="16" xr3:uid="{DB790F5F-BEF0-41CE-A68A-1AA9DF83D66B}" name="Contact Time"/>
-    <tableColumn id="10" xr3:uid="{60774AFA-B365-4EB5-AAFF-6235868F8C97}" name="Exam Weight (%)" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{537B7C75-E9C0-42F2-9F3C-6E960AB2D257}" name="CA weight" dataDxfId="14">
+    <tableColumn id="10" xr3:uid="{60774AFA-B365-4EB5-AAFF-6235868F8C97}" name="Exam Weight (%)" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{537B7C75-E9C0-42F2-9F3C-6E960AB2D257}" name="CA weight" dataDxfId="10">
       <calculatedColumnFormula>100-Table2[[#This Row],[Exam Weight (%)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{75DA2527-5A08-4ECE-B4E4-752A8F8BF059}" name="CA Check" dataDxfId="13">
+    <tableColumn id="11" xr3:uid="{75DA2527-5A08-4ECE-B4E4-752A8F8BF059}" name="CA Check" dataDxfId="9">
       <calculatedColumnFormula>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9643,10 +9599,10 @@
   <dimension ref="A1:AJ139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G61" sqref="G61"/>
+      <selection pane="bottomRight" activeCell="U94" sqref="U94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15532,11 +15488,11 @@
       <c r="C80" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="47">
+      <c r="D80" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
-      <c r="E80" s="47">
+      <c r="E80" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
@@ -15546,14 +15502,14 @@
       <c r="G80" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="H80" s="48">
+      <c r="H80" s="11">
         <v>4</v>
       </c>
-      <c r="I80" s="49">
+      <c r="I80" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
         <v>1.6</v>
       </c>
-      <c r="J80" s="48"/>
+      <c r="J80" s="11"/>
       <c r="K80" s="18"/>
       <c r="L80" s="18"/>
       <c r="M80" s="18"/>
@@ -15580,11 +15536,11 @@
       <c r="AF80" s="20"/>
       <c r="AG80" s="20"/>
       <c r="AH80" s="20"/>
-      <c r="AI80" s="50">
+      <c r="AI80" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>0.04</v>
       </c>
-      <c r="AJ80" s="50">
+      <c r="AJ80" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>1.6</v>
       </c>
@@ -15599,11 +15555,11 @@
       <c r="C81" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D81" s="47">
+      <c r="D81" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
-      <c r="E81" s="47">
+      <c r="E81" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
@@ -15613,14 +15569,14 @@
       <c r="G81" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="H81" s="48">
-        <v>2</v>
-      </c>
-      <c r="I81" s="49">
+      <c r="H81" s="11">
+        <v>2</v>
+      </c>
+      <c r="I81" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
         <v>6.4</v>
       </c>
-      <c r="J81" s="48"/>
+      <c r="J81" s="11"/>
       <c r="K81" s="18"/>
       <c r="L81" s="18"/>
       <c r="M81" s="18"/>
@@ -15647,11 +15603,11 @@
       <c r="AF81" s="20"/>
       <c r="AG81" s="20"/>
       <c r="AH81" s="20"/>
-      <c r="AI81" s="50">
+      <c r="AI81" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>0.16</v>
       </c>
-      <c r="AJ81" s="50">
+      <c r="AJ81" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>6.4</v>
       </c>
@@ -16560,49 +16516,52 @@
       </c>
       <c r="I94" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.44444444444444448</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="J94" s="11">
         <v>0.5</v>
       </c>
-      <c r="K94" s="18"/>
-      <c r="L94" s="18"/>
+      <c r="K94" s="18">
+        <f>0.1/10</f>
+        <v>0.01</v>
+      </c>
+      <c r="L94" s="18">
+        <f t="shared" ref="L94:T94" si="3">0.1/10</f>
+        <v>0.01</v>
+      </c>
       <c r="M94" s="18">
-        <f t="shared" ref="M94:U94" si="3">0.1/9</f>
-        <v>1.1111111111111112E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.01</v>
       </c>
       <c r="N94" s="18">
         <f t="shared" si="3"/>
-        <v>1.1111111111111112E-2</v>
+        <v>0.01</v>
       </c>
       <c r="O94" s="18">
         <f t="shared" si="3"/>
-        <v>1.1111111111111112E-2</v>
+        <v>0.01</v>
       </c>
       <c r="P94" s="18">
         <f t="shared" si="3"/>
-        <v>1.1111111111111112E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Q94" s="18">
         <f t="shared" si="3"/>
-        <v>1.1111111111111112E-2</v>
+        <v>0.01</v>
       </c>
       <c r="R94" s="18">
         <f t="shared" si="3"/>
-        <v>1.1111111111111112E-2</v>
+        <v>0.01</v>
       </c>
       <c r="S94" s="18">
         <f t="shared" si="3"/>
-        <v>1.1111111111111112E-2</v>
+        <v>0.01</v>
       </c>
       <c r="T94" s="18">
         <f t="shared" si="3"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="U94" s="18">
-        <f t="shared" si="3"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="U94" s="18"/>
       <c r="V94" s="19"/>
       <c r="W94" s="20"/>
       <c r="X94" s="20"/>
@@ -16618,11 +16577,11 @@
       <c r="AH94" s="20"/>
       <c r="AI94" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="AJ94" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:36">
@@ -27346,7 +27305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="28.5">
+    <row r="28" spans="1:18">
       <c r="A28" s="4" t="s">
         <v>270</v>
       </c>
@@ -27395,7 +27354,7 @@
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="28.5">
+    <row r="29" spans="1:18">
       <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
@@ -27444,7 +27403,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="28.5">
+    <row r="30" spans="1:18">
       <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
@@ -27493,7 +27452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="28.5">
+    <row r="31" spans="1:18">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -27542,7 +27501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="28.5">
+    <row r="32" spans="1:18">
       <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
@@ -27592,7 +27551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="28.5">
+    <row r="33" spans="1:18">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
@@ -27640,7 +27599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="28.5">
+    <row r="34" spans="1:18">
       <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
@@ -27692,7 +27651,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="28.5">
+    <row r="35" spans="1:18">
       <c r="A35" s="4" t="s">
         <v>24</v>
       </c>
@@ -27919,14 +27878,14 @@
       <c r="O39">
         <v>2</v>
       </c>
-      <c r="P39" s="45">
+      <c r="P39">
         <v>80</v>
       </c>
-      <c r="Q39" s="46">
+      <c r="Q39">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="R39" s="46">
+      <c r="R39">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
@@ -28221,7 +28180,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="28.5">
+    <row r="46" spans="1:18">
       <c r="A46" s="4" t="s">
         <v>64</v>
       </c>
@@ -28268,10 +28227,10 @@
       </c>
       <c r="R46">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>30.000000000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="28.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="4" t="s">
         <v>260</v>
       </c>
@@ -28321,7 +28280,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="28.5">
+    <row r="48" spans="1:18">
       <c r="A48" s="4" t="s">
         <v>66</v>
       </c>
@@ -28367,7 +28326,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="28.5">
+    <row r="49" spans="1:18">
       <c r="A49" s="4" t="s">
         <v>69</v>
       </c>
@@ -28417,7 +28376,7 @@
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="28.5">
+    <row r="50" spans="1:18">
       <c r="A50" s="4" t="s">
         <v>72</v>
       </c>
@@ -28467,7 +28426,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="28.5">
+    <row r="51" spans="1:18">
       <c r="A51" s="4" t="s">
         <v>74</v>
       </c>
@@ -29565,7 +29524,7 @@
       </c>
       <c r="R74">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>30.000000000000004</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -30448,150 +30407,22 @@
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7">
-      <c r="A97"/>
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98"/>
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100"/>
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101"/>
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102"/>
-      <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
-      <c r="G102"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103"/>
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104"/>
-      <c r="F104"/>
-      <c r="G104"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105"/>
-      <c r="B105"/>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105"/>
-      <c r="F105"/>
-      <c r="G105"/>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106"/>
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106"/>
-      <c r="G106"/>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107"/>
-      <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107"/>
-      <c r="E107"/>
-      <c r="F107"/>
-      <c r="G107"/>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108"/>
-      <c r="B108"/>
-      <c r="C108"/>
-      <c r="D108"/>
-      <c r="E108"/>
-      <c r="F108"/>
-      <c r="G108"/>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109"/>
-      <c r="B109"/>
-      <c r="C109"/>
-      <c r="D109"/>
-      <c r="E109"/>
-      <c r="F109"/>
-      <c r="G109"/>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110"/>
-      <c r="B110"/>
-      <c r="C110"/>
-      <c r="D110"/>
-      <c r="E110"/>
-      <c r="F110"/>
-      <c r="G110"/>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111"/>
-      <c r="B111"/>
-      <c r="C111"/>
-      <c r="D111"/>
-      <c r="E111"/>
-      <c r="F111"/>
-      <c r="G111"/>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112"/>
-      <c r="B112"/>
-      <c r="C112"/>
-      <c r="D112"/>
-      <c r="E112"/>
-      <c r="F112"/>
-      <c r="G112"/>
-    </row>
+    <row r="97" customFormat="1"/>
+    <row r="98" customFormat="1"/>
+    <row r="99" customFormat="1"/>
+    <row r="100" customFormat="1"/>
+    <row r="101" customFormat="1"/>
+    <row r="102" customFormat="1"/>
+    <row r="103" customFormat="1"/>
+    <row r="104" customFormat="1"/>
+    <row r="105" customFormat="1"/>
+    <row r="106" customFormat="1"/>
+    <row r="107" customFormat="1"/>
+    <row r="108" customFormat="1"/>
+    <row r="109" customFormat="1"/>
+    <row r="110" customFormat="1"/>
+    <row r="111" customFormat="1"/>
+    <row r="112" customFormat="1"/>
     <row r="113" spans="1:7">
       <c r="A113"/>
       <c r="B113"/>
@@ -30738,19 +30569,29 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E38 E40:E94">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="SEMD">
+  <conditionalFormatting sqref="E2:E94">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="SEMD">
       <formula>NOT(ISERROR(SEARCH("SEMD",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="SEM2">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="SEM2">
       <formula>NOT(ISERROR(SEARCH("SEM2",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="SEM1">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="SEM1">
       <formula>NOT(ISERROR(SEARCH("SEM1",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F38 F40:F94">
     <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -30771,35 +30612,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:O38 H40:O94">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="O">
-      <formula>NOT(ISERROR(SEARCH("O",H2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",H2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="SEMD">
-      <formula>NOT(ISERROR(SEARCH("SEMD",E39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="SEM2">
-      <formula>NOT(ISERROR(SEARCH("SEM2",E39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="SEM1">
-      <formula>NOT(ISERROR(SEARCH("SEM1",E39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G39">
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -30813,11 +30625,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:N39">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="O">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",H39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",H39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:O38 H40:O94">
+    <cfRule type="containsText" dxfId="1" priority="15" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="16" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30828,6 +30648,20 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{3FB391C5-B3FE-43CF-822F-2C4A5C3D1798}">
+            <xm:f>NOT(ISERROR(SEARCH("-",H39)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H39:N39</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="9" operator="containsText" id="{AB48118A-1CFE-488B-B12E-453EA0CADD16}">
             <xm:f>NOT(ISERROR(SEARCH("-",H2)))</xm:f>
@@ -30841,20 +30675,6 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>H2:O38 H40:O94</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{3FB391C5-B3FE-43CF-822F-2C4A5C3D1798}">
-            <xm:f>NOT(ISERROR(SEARCH("-",H39)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H39:N39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -32010,7 +31830,7 @@
       </c>
       <c r="C50">
         <f>SUMIF(Table1[Module Code],Sheet2!A50,Table1[Total Hours])</f>
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="D50">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A50,Table14[Module Code],0))</f>
@@ -32018,11 +31838,11 @@
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>34.5</v>
+        <v>35</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="51" spans="1:6">

--- a/AssessmentSchedule_2526.xlsx
+++ b/AssessmentSchedule_2526.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="524" documentId="8_{3BD1AB7E-894C-4574-9FA4-C65B4507F605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45D11A30-9381-40E9-BF14-21C6461D6688}"/>
+  <xr:revisionPtr revIDLastSave="605" documentId="8_{3BD1AB7E-894C-4574-9FA4-C65B4507F605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5921044-0543-4A92-93A5-5B86297F0395}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="3800" yWindow="3800" windowWidth="28800" windowHeight="15290" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="286">
   <si>
     <t>Module Code</t>
   </si>
@@ -854,9 +854,6 @@
     <t>Article</t>
   </si>
   <si>
-    <t>Supervisor</t>
-  </si>
-  <si>
     <t>Exercise 1</t>
   </si>
   <si>
@@ -885,6 +882,24 @@
   </si>
   <si>
     <t>Coding</t>
+  </si>
+  <si>
+    <t>Final Report</t>
+  </si>
+  <si>
+    <t>Interim Report</t>
+  </si>
+  <si>
+    <t>Project Diary</t>
+  </si>
+  <si>
+    <t>Interim Diary</t>
+  </si>
+  <si>
+    <t>Final Diary</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
@@ -979,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1104,12 +1119,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -8715,7 +8724,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9164,10 +9173,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}" name="Table1" displayName="Table1" ref="A1:AJ143" totalsRowShown="0" headerRowDxfId="103" dataDxfId="101" headerRowBorderDxfId="102" tableBorderDxfId="100" totalsRowBorderDxfId="99">
-  <autoFilter ref="A1:AJ143" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH129">
-    <sortCondition ref="A1:A129"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}" name="Table1" displayName="Table1" ref="A1:AJ147" totalsRowShown="0" headerRowDxfId="103" dataDxfId="101" headerRowBorderDxfId="102" tableBorderDxfId="100" totalsRowBorderDxfId="99">
+  <autoFilter ref="A1:AJ147" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH133">
+    <sortCondition ref="A1:A133"/>
   </sortState>
   <tableColumns count="36">
     <tableColumn id="1" xr3:uid="{7078548A-F011-4851-AB36-1F04238FA2FE}" name="Module Code" dataDxfId="98"/>
@@ -9623,30 +9632,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66039B40-29AD-4D93-B125-EAF72A7B3996}">
-  <dimension ref="A1:AJ143"/>
+  <dimension ref="A1:AJ147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD123" sqref="AD123"/>
+      <selection pane="bottomRight" activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.73046875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.73046875" style="10" customWidth="1"/>
-    <col min="11" max="22" width="9.1328125" style="14" customWidth="1"/>
-    <col min="23" max="34" width="9.1328125" style="16"/>
+    <col min="6" max="6" width="21.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7265625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7265625" style="10" customWidth="1"/>
+    <col min="11" max="22" width="9.08984375" style="14" customWidth="1"/>
+    <col min="23" max="34" width="9.08984375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="44" customFormat="1" ht="28.5">
+    <row r="1" spans="1:36" s="44" customFormat="1" ht="29">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -10260,37 +10269,37 @@
       </c>
     </row>
     <row r="9" spans="1:36">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="11" t="s">
         <v>207</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="11">
         <v>1</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
         <v>7.1999999999999993</v>
       </c>
-      <c r="J9" s="47"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18">
         <v>0.09</v>
@@ -10317,11 +10326,11 @@
       <c r="AF9" s="20"/>
       <c r="AG9" s="20"/>
       <c r="AH9" s="20"/>
-      <c r="AI9" s="50">
+      <c r="AI9" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>0.09</v>
       </c>
-      <c r="AJ9" s="50">
+      <c r="AJ9" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>7.1999999999999993</v>
       </c>
@@ -10945,31 +10954,31 @@
       <c r="B18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>25</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="12" t="s">
         <v>210</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="11">
         <v>6</v>
       </c>
-      <c r="I18" s="49">
+      <c r="I18" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
         <v>2</v>
       </c>
-      <c r="J18" s="47"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
@@ -10996,11 +11005,11 @@
       <c r="AF18" s="20"/>
       <c r="AG18" s="20"/>
       <c r="AH18" s="20"/>
-      <c r="AI18" s="50">
+      <c r="AI18" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>0.05</v>
       </c>
-      <c r="AJ18" s="50">
+      <c r="AJ18" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>2</v>
       </c>
@@ -11341,7 +11350,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>234</v>
@@ -11607,31 +11616,31 @@
       <c r="B27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="11" t="s">
         <v>265</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="H27" s="47">
+      <c r="H27" s="11">
         <v>11</v>
       </c>
-      <c r="I27" s="49">
+      <c r="I27" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
         <v>2.4</v>
       </c>
-      <c r="J27" s="47">
+      <c r="J27" s="11">
         <v>0.5</v>
       </c>
       <c r="K27" s="18"/>
@@ -11660,11 +11669,11 @@
       <c r="AF27" s="20"/>
       <c r="AG27" s="20"/>
       <c r="AH27" s="20"/>
-      <c r="AI27" s="50">
+      <c r="AI27" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>0.06</v>
       </c>
-      <c r="AJ27" s="50">
+      <c r="AJ27" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>0.5</v>
       </c>
@@ -11834,29 +11843,29 @@
       <c r="B30" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48">
+      <c r="C30" s="11"/>
+      <c r="D30" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F30" s="47" t="s">
-        <v>276</v>
+      <c r="F30" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="H30" s="47">
+      <c r="H30" s="11">
         <v>1</v>
       </c>
-      <c r="I30" s="49">
+      <c r="I30" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
         <v>20</v>
       </c>
-      <c r="J30" s="47">
+      <c r="J30" s="11">
         <v>0.5</v>
       </c>
       <c r="K30" s="18"/>
@@ -11885,11 +11894,11 @@
       <c r="AF30" s="20"/>
       <c r="AG30" s="20"/>
       <c r="AH30" s="20"/>
-      <c r="AI30" s="50">
+      <c r="AI30" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>0.5</v>
       </c>
-      <c r="AJ30" s="50">
+      <c r="AJ30" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>0.5</v>
       </c>
@@ -11982,7 +11991,7 @@
         <v>10</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>234</v>
@@ -12576,7 +12585,7 @@
       </c>
       <c r="I40" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J40" s="11">
         <v>0.5</v>
@@ -12604,12 +12613,12 @@
       <c r="AE40" s="20"/>
       <c r="AF40" s="20"/>
       <c r="AG40" s="20">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="AH40" s="20"/>
       <c r="AI40" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="AJ40" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
@@ -12645,7 +12654,7 @@
       </c>
       <c r="I41" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J41" s="11">
         <v>15</v>
@@ -12673,12 +12682,12 @@
       <c r="AE41" s="20"/>
       <c r="AF41" s="20"/>
       <c r="AG41" s="20">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="AH41" s="20"/>
       <c r="AI41" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="AJ41" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
@@ -15392,31 +15401,31 @@
       <c r="B79" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C79" s="47" t="s">
+      <c r="C79" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D79" s="48">
+      <c r="D79" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
-      <c r="E79" s="48">
+      <c r="E79" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F79" s="47" t="s">
+      <c r="F79" s="11" t="s">
         <v>209</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="H79" s="47">
+      <c r="H79" s="11">
         <v>4</v>
       </c>
-      <c r="I79" s="49">
+      <c r="I79" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
-      <c r="J79" s="47"/>
+      <c r="J79" s="11"/>
       <c r="K79" s="18"/>
       <c r="L79" s="18"/>
       <c r="M79" s="18"/>
@@ -15443,11 +15452,11 @@
       <c r="AF79" s="20"/>
       <c r="AG79" s="20"/>
       <c r="AH79" s="20"/>
-      <c r="AI79" s="50">
+      <c r="AI79" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>0.1</v>
       </c>
-      <c r="AJ79" s="50">
+      <c r="AJ79" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>4</v>
       </c>
@@ -16381,7 +16390,7 @@
         <v>235</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="H93" s="11">
         <v>1</v>
@@ -16482,68 +16491,68 @@
       <c r="B94" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D94" s="30">
+      <c r="C94" s="49"/>
+      <c r="D94" s="46">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E94" s="30">
+      <c r="E94" s="46">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>30</v>
       </c>
-      <c r="F94" s="13" t="s">
-        <v>270</v>
+      <c r="F94" s="49" t="s">
+        <v>283</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="H94" s="13">
+        <v>225</v>
+      </c>
+      <c r="H94" s="45">
         <v>1</v>
       </c>
-      <c r="I94" s="11">
+      <c r="I94" s="47">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>24</v>
-      </c>
-      <c r="J94" s="13">
+        <v>8</v>
+      </c>
+      <c r="J94" s="45">
         <v>0.1</v>
       </c>
       <c r="K94" s="18"/>
       <c r="L94" s="18"/>
       <c r="M94" s="18"/>
-      <c r="N94" s="18"/>
+      <c r="N94" s="19"/>
       <c r="O94" s="18"/>
-      <c r="P94" s="18"/>
+      <c r="P94" s="18">
+        <v>0.05</v>
+      </c>
       <c r="Q94" s="18"/>
-      <c r="R94" s="18"/>
+      <c r="R94" s="19"/>
       <c r="S94" s="18"/>
       <c r="T94" s="18"/>
       <c r="U94" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="V94" s="18"/>
+        <v>0.05</v>
+      </c>
+      <c r="V94" s="19"/>
       <c r="W94" s="20"/>
       <c r="X94" s="20"/>
       <c r="Y94" s="20"/>
       <c r="Z94" s="20"/>
       <c r="AA94" s="20"/>
-      <c r="AB94" s="20"/>
+      <c r="AB94" s="20">
+        <v>0.1</v>
+      </c>
       <c r="AC94" s="20"/>
       <c r="AD94" s="20"/>
       <c r="AE94" s="20"/>
       <c r="AF94" s="20"/>
       <c r="AG94" s="20"/>
-      <c r="AH94" s="20">
+      <c r="AH94" s="20"/>
+      <c r="AI94" s="48">
+        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>0.2</v>
       </c>
-      <c r="AI94" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.4</v>
-      </c>
-      <c r="AJ94" s="27">
+      <c r="AJ94" s="48">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="95" spans="1:36">
@@ -16553,47 +16562,45 @@
       <c r="B95" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D95" s="29">
+      <c r="C95" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D95" s="30">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E95" s="29">
+      <c r="E95" s="30">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>30</v>
       </c>
-      <c r="F95" s="11" t="s">
-        <v>208</v>
+      <c r="F95" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="H95" s="11">
-        <v>11</v>
+      <c r="H95" s="13">
+        <v>1</v>
       </c>
       <c r="I95" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>24</v>
-      </c>
-      <c r="J95" s="11">
-        <v>10</v>
+        <v>48</v>
+      </c>
+      <c r="J95" s="13">
+        <v>0.1</v>
       </c>
       <c r="K95" s="18"/>
       <c r="L95" s="18"/>
       <c r="M95" s="18"/>
-      <c r="N95" s="19"/>
+      <c r="N95" s="18"/>
       <c r="O95" s="18"/>
       <c r="P95" s="18"/>
       <c r="Q95" s="18"/>
-      <c r="R95" s="19"/>
+      <c r="R95" s="18"/>
       <c r="S95" s="18"/>
       <c r="T95" s="18"/>
-      <c r="U95" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="V95" s="19"/>
+      <c r="U95" s="18"/>
+      <c r="V95" s="18"/>
       <c r="W95" s="20"/>
       <c r="X95" s="20"/>
       <c r="Y95" s="20"/>
@@ -16606,7 +16613,7 @@
       <c r="AF95" s="20"/>
       <c r="AG95" s="20"/>
       <c r="AH95" s="20">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AI95" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
@@ -16614,7 +16621,7 @@
       </c>
       <c r="AJ95" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>20</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="96" spans="1:36">
@@ -16625,7 +16632,7 @@
         <v>23</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D96" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -16636,20 +16643,20 @@
         <v>30</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>210</v>
+        <v>281</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="H96" s="11">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I96" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
         <v>24</v>
       </c>
       <c r="J96" s="11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K96" s="18"/>
       <c r="L96" s="18"/>
@@ -16661,7 +16668,9 @@
       <c r="R96" s="19"/>
       <c r="S96" s="18"/>
       <c r="T96" s="18"/>
-      <c r="U96" s="18"/>
+      <c r="U96" s="18">
+        <v>0.2</v>
+      </c>
       <c r="V96" s="19"/>
       <c r="W96" s="20"/>
       <c r="X96" s="20"/>
@@ -16673,9 +16682,7 @@
       <c r="AD96" s="20"/>
       <c r="AE96" s="20"/>
       <c r="AF96" s="20"/>
-      <c r="AG96" s="20">
-        <v>0.2</v>
-      </c>
+      <c r="AG96" s="20"/>
       <c r="AH96" s="20"/>
       <c r="AI96" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
@@ -16683,83 +16690,53 @@
       </c>
       <c r="AJ96" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:36">
-      <c r="A97" s="4" t="s">
-        <v>64</v>
+      <c r="A97" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D97" s="29">
+        <v>23</v>
+      </c>
+      <c r="C97" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D97" s="46">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>100</v>
+      </c>
+      <c r="E97" s="46">
+        <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>30</v>
       </c>
-      <c r="E97" s="29">
-        <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>10</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>260</v>
+      <c r="F97" s="45" t="s">
+        <v>280</v>
       </c>
       <c r="G97" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="H97" s="11">
-        <v>1</v>
-      </c>
-      <c r="I97" s="11">
+      <c r="H97" s="45">
+        <v>11</v>
+      </c>
+      <c r="I97" s="47">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="J97" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="K97" s="18">
-        <f>0.1/10</f>
-        <v>0.01</v>
-      </c>
-      <c r="L97" s="18">
-        <f t="shared" ref="L97:T97" si="1">0.1/10</f>
-        <v>0.01</v>
-      </c>
-      <c r="M97" s="18">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="N97" s="18">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="O97" s="18">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="P97" s="18">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="Q97" s="18">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="R97" s="18">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="S97" s="18">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="T97" s="18">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="J97" s="45">
+        <v>10</v>
+      </c>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="18"/>
+      <c r="P97" s="18"/>
+      <c r="Q97" s="18"/>
+      <c r="R97" s="19"/>
+      <c r="S97" s="18"/>
+      <c r="T97" s="18"/>
       <c r="U97" s="18"/>
       <c r="V97" s="19"/>
       <c r="W97" s="20"/>
@@ -16773,57 +16750,59 @@
       <c r="AE97" s="20"/>
       <c r="AF97" s="20"/>
       <c r="AG97" s="20"/>
-      <c r="AH97" s="20"/>
-      <c r="AI97" s="27">
+      <c r="AH97" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="AI97" s="48">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="AJ97" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="AJ97" s="48">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:36">
-      <c r="A98" s="4" t="s">
-        <v>64</v>
+      <c r="A98" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="D98" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E98" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G98" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H98" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I98" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
-      </c>
-      <c r="J98" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="J98" s="11">
+        <v>15</v>
+      </c>
       <c r="K98" s="18"/>
       <c r="L98" s="18"/>
       <c r="M98" s="18"/>
       <c r="N98" s="19"/>
       <c r="O98" s="18"/>
       <c r="P98" s="18"/>
-      <c r="Q98" s="18">
-        <v>0.2</v>
-      </c>
+      <c r="Q98" s="18"/>
       <c r="R98" s="19"/>
       <c r="S98" s="18"/>
       <c r="T98" s="18"/>
@@ -16838,7 +16817,9 @@
       <c r="AC98" s="20"/>
       <c r="AD98" s="20"/>
       <c r="AE98" s="20"/>
-      <c r="AF98" s="20"/>
+      <c r="AF98" s="20">
+        <v>0.2</v>
+      </c>
       <c r="AG98" s="20"/>
       <c r="AH98" s="20"/>
       <c r="AI98" s="27">
@@ -16847,53 +16828,83 @@
       </c>
       <c r="AJ98" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:36">
       <c r="A99" s="4" t="s">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>242</v>
+        <v>65</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="D99" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E99" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="G99" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H99" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I99" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
-      </c>
-      <c r="J99" s="11"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="19"/>
-      <c r="O99" s="18"/>
-      <c r="P99" s="18"/>
-      <c r="Q99" s="18"/>
-      <c r="R99" s="19"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="J99" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K99" s="18">
+        <f>0.1/10</f>
+        <v>0.01</v>
+      </c>
+      <c r="L99" s="18">
+        <f t="shared" ref="L99:T99" si="1">0.1/10</f>
+        <v>0.01</v>
+      </c>
+      <c r="M99" s="18">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="N99" s="18">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="O99" s="18">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="P99" s="18">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q99" s="18">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="R99" s="18">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
       <c r="S99" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="T99" s="18"/>
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="T99" s="18">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
       <c r="U99" s="18"/>
       <c r="V99" s="19"/>
       <c r="W99" s="20"/>
@@ -16910,39 +16921,39 @@
       <c r="AH99" s="20"/>
       <c r="AI99" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="AJ99" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:36">
       <c r="A100" s="4" t="s">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>242</v>
+        <v>65</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="D100" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E100" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H100" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I100" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
@@ -16986,49 +16997,47 @@
     </row>
     <row r="101" spans="1:36">
       <c r="A101" s="4" t="s">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="D101" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E101" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H101" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I101" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>10</v>
-      </c>
-      <c r="J101" s="11">
-        <v>15</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J101" s="11"/>
       <c r="K101" s="18"/>
       <c r="L101" s="18"/>
       <c r="M101" s="18"/>
       <c r="N101" s="19"/>
-      <c r="O101" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="O101" s="18"/>
       <c r="P101" s="18"/>
       <c r="Q101" s="18"/>
       <c r="R101" s="19"/>
-      <c r="S101" s="18"/>
+      <c r="S101" s="18">
+        <v>0.2</v>
+      </c>
       <c r="T101" s="18"/>
       <c r="U101" s="18"/>
       <c r="V101" s="19"/>
@@ -17046,43 +17055,43 @@
       <c r="AH101" s="20"/>
       <c r="AI101" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AJ101" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:36">
       <c r="A102" s="4" t="s">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="D102" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E102" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H102" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I102" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J102" s="11"/>
       <c r="K102" s="18"/>
@@ -17091,11 +17100,11 @@
       <c r="N102" s="19"/>
       <c r="O102" s="18"/>
       <c r="P102" s="18"/>
-      <c r="Q102" s="18"/>
+      <c r="Q102" s="18">
+        <v>0.2</v>
+      </c>
       <c r="R102" s="19"/>
-      <c r="S102" s="18">
-        <v>0.1</v>
-      </c>
+      <c r="S102" s="18"/>
       <c r="T102" s="18"/>
       <c r="U102" s="18"/>
       <c r="V102" s="19"/>
@@ -17113,78 +17122,60 @@
       <c r="AH102" s="20"/>
       <c r="AI102" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AJ102" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:36">
       <c r="A103" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>70</v>
+        <v>276</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D103" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E103" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H103" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.39999999999999991</v>
+        <v>10</v>
       </c>
       <c r="J103" s="11">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="K103" s="18"/>
-      <c r="L103" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="M103" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="N103" s="18">
-        <v>0.01</v>
-      </c>
+      <c r="L103" s="18"/>
+      <c r="M103" s="18"/>
+      <c r="N103" s="19"/>
       <c r="O103" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="P103" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="Q103" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="R103" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="S103" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="T103" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="U103" s="18">
-        <v>0.01</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="P103" s="18"/>
+      <c r="Q103" s="18"/>
+      <c r="R103" s="19"/>
+      <c r="S103" s="18"/>
+      <c r="T103" s="18"/>
+      <c r="U103" s="18"/>
       <c r="V103" s="19"/>
       <c r="W103" s="20"/>
       <c r="X103" s="20"/>
@@ -17200,26 +17191,26 @@
       <c r="AH103" s="20"/>
       <c r="AI103" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>9.9999999999999992E-2</v>
+        <v>0.25</v>
       </c>
       <c r="AJ103" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:36">
       <c r="A104" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>70</v>
+        <v>276</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D104" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E104" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -17232,26 +17223,24 @@
         <v>234</v>
       </c>
       <c r="H104" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I104" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="J104" s="11"/>
       <c r="K104" s="18"/>
       <c r="L104" s="18"/>
       <c r="M104" s="18"/>
-      <c r="N104" s="19">
-        <v>0.12</v>
-      </c>
+      <c r="N104" s="19"/>
       <c r="O104" s="18"/>
       <c r="P104" s="18"/>
       <c r="Q104" s="18"/>
-      <c r="R104" s="19">
-        <v>0.12</v>
-      </c>
-      <c r="S104" s="18"/>
+      <c r="R104" s="19"/>
+      <c r="S104" s="18">
+        <v>0.1</v>
+      </c>
       <c r="T104" s="18"/>
       <c r="U104" s="18"/>
       <c r="V104" s="19"/>
@@ -17269,26 +17258,26 @@
       <c r="AH104" s="20"/>
       <c r="AI104" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="AJ104" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>9.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:36">
       <c r="A105" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>128</v>
       </c>
       <c r="D105" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E105" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -17305,38 +17294,42 @@
       </c>
       <c r="I105" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.49999999999999994</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="J105" s="11">
         <v>0.5</v>
       </c>
-      <c r="K105" s="18">
-        <v>1.2500000000000001E-2</v>
-      </c>
+      <c r="K105" s="18"/>
       <c r="L105" s="18">
-        <v>1.2500000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="M105" s="18">
-        <v>1.2500000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="N105" s="18">
-        <v>1.2500000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="O105" s="18">
-        <v>1.2500000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="P105" s="18">
-        <v>1.2500000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Q105" s="18">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="R105" s="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="R105" s="18">
+        <v>0.01</v>
+      </c>
       <c r="S105" s="18">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="T105" s="18"/>
-      <c r="U105" s="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="T105" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="U105" s="18">
+        <v>0.01</v>
+      </c>
       <c r="V105" s="19"/>
       <c r="W105" s="20"/>
       <c r="X105" s="20"/>
@@ -17356,49 +17349,53 @@
       </c>
       <c r="AJ105" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:36">
       <c r="A106" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D106" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E106" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F106" s="11"/>
+      <c r="F106" s="11" t="s">
+        <v>209</v>
+      </c>
       <c r="G106" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H106" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I106" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>14</v>
+        <v>4.8</v>
       </c>
       <c r="J106" s="11"/>
       <c r="K106" s="18"/>
       <c r="L106" s="18"/>
       <c r="M106" s="18"/>
-      <c r="N106" s="19"/>
+      <c r="N106" s="19">
+        <v>0.12</v>
+      </c>
       <c r="O106" s="18"/>
-      <c r="P106" s="18">
-        <v>0.35</v>
-      </c>
+      <c r="P106" s="18"/>
       <c r="Q106" s="18"/>
-      <c r="R106" s="19"/>
+      <c r="R106" s="19">
+        <v>0.12</v>
+      </c>
       <c r="S106" s="18"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
@@ -17417,11 +17414,11 @@
       <c r="AH106" s="20"/>
       <c r="AI106" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.35</v>
+        <v>0.24</v>
       </c>
       <c r="AJ106" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>14</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="107" spans="1:36">
@@ -17432,7 +17429,7 @@
         <v>73</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D107" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -17442,33 +17439,49 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F107" s="11"/>
+      <c r="F107" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G107" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H107" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I107" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>20</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="J107" s="11">
-        <v>25</v>
-      </c>
-      <c r="K107" s="18"/>
-      <c r="L107" s="18"/>
-      <c r="M107" s="18"/>
-      <c r="N107" s="19"/>
-      <c r="O107" s="18"/>
-      <c r="P107" s="18"/>
-      <c r="Q107" s="18"/>
-      <c r="R107" s="19"/>
-      <c r="S107" s="18"/>
+        <v>0.5</v>
+      </c>
+      <c r="K107" s="18">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="L107" s="18">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="M107" s="18">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="N107" s="18">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="O107" s="18">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="P107" s="18">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="Q107" s="18">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="R107" s="18"/>
+      <c r="S107" s="18">
+        <v>1.2500000000000001E-2</v>
+      </c>
       <c r="T107" s="18"/>
-      <c r="U107" s="18">
-        <v>0.5</v>
-      </c>
+      <c r="U107" s="18"/>
       <c r="V107" s="19"/>
       <c r="W107" s="20"/>
       <c r="X107" s="20"/>
@@ -17484,78 +17497,56 @@
       <c r="AH107" s="20"/>
       <c r="AI107" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.5</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="AJ107" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:36">
       <c r="A108" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="D108" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E108" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F108" s="11" t="s">
-        <v>260</v>
-      </c>
+      <c r="F108" s="11"/>
       <c r="G108" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H108" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I108" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="J108" s="11">
-        <v>0.5</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J108" s="11"/>
       <c r="K108" s="18"/>
-      <c r="L108" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="M108" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="N108" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="O108" s="18">
-        <v>0.01</v>
-      </c>
+      <c r="L108" s="18"/>
+      <c r="M108" s="18"/>
+      <c r="N108" s="19"/>
+      <c r="O108" s="18"/>
       <c r="P108" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="Q108" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="R108" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="S108" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="T108" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="U108" s="18">
-        <v>0.01</v>
-      </c>
+        <v>0.35</v>
+      </c>
+      <c r="Q108" s="18"/>
+      <c r="R108" s="19"/>
+      <c r="S108" s="18"/>
+      <c r="T108" s="18"/>
+      <c r="U108" s="18"/>
       <c r="V108" s="19"/>
       <c r="W108" s="20"/>
       <c r="X108" s="20"/>
@@ -17571,64 +17562,58 @@
       <c r="AH108" s="20"/>
       <c r="AI108" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>9.9999999999999992E-2</v>
+        <v>0.35</v>
       </c>
       <c r="AJ108" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:36">
       <c r="A109" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="D109" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E109" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F109" s="11" t="s">
-        <v>209</v>
-      </c>
+      <c r="F109" s="11"/>
       <c r="G109" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H109" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I109" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
-      </c>
-      <c r="J109" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="J109" s="11">
+        <v>25</v>
+      </c>
       <c r="K109" s="18"/>
       <c r="L109" s="18"/>
-      <c r="M109" s="18">
-        <v>0.1</v>
-      </c>
+      <c r="M109" s="18"/>
       <c r="N109" s="19"/>
-      <c r="O109" s="18">
-        <v>0.1</v>
-      </c>
+      <c r="O109" s="18"/>
       <c r="P109" s="18"/>
-      <c r="Q109" s="18">
-        <v>0.1</v>
-      </c>
+      <c r="Q109" s="18"/>
       <c r="R109" s="19"/>
       <c r="S109" s="18"/>
-      <c r="T109" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="U109" s="18"/>
+      <c r="T109" s="18"/>
+      <c r="U109" s="18">
+        <v>0.5</v>
+      </c>
       <c r="V109" s="19"/>
       <c r="W109" s="20"/>
       <c r="X109" s="20"/>
@@ -17644,63 +17629,83 @@
       <c r="AH109" s="20"/>
       <c r="AI109" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AJ109" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:36">
-      <c r="A110" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>5</v>
+      <c r="A110" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="D110" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E110" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F110" s="12" t="s">
-        <v>209</v>
+      <c r="F110" s="11" t="s">
+        <v>260</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H110" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I110" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
-      </c>
-      <c r="J110" s="11"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="J110" s="11">
+        <v>0.5</v>
+      </c>
       <c r="K110" s="18"/>
-      <c r="L110" s="18"/>
-      <c r="M110" s="18"/>
-      <c r="N110" s="19"/>
-      <c r="O110" s="18"/>
-      <c r="P110" s="18"/>
-      <c r="Q110" s="18"/>
-      <c r="R110" s="19"/>
-      <c r="S110" s="18"/>
-      <c r="T110" s="18"/>
-      <c r="U110" s="18"/>
+      <c r="L110" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="M110" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="N110" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="O110" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="P110" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="Q110" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="R110" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="S110" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="T110" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="U110" s="18">
+        <v>0.01</v>
+      </c>
       <c r="V110" s="19"/>
       <c r="W110" s="20"/>
       <c r="X110" s="20"/>
       <c r="Y110" s="20"/>
-      <c r="Z110" s="20">
-        <v>0.2</v>
-      </c>
+      <c r="Z110" s="20"/>
       <c r="AA110" s="20"/>
       <c r="AB110" s="20"/>
       <c r="AC110" s="20"/>
@@ -17711,68 +17716,72 @@
       <c r="AH110" s="20"/>
       <c r="AI110" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="AJ110" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:36">
-      <c r="A111" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C111" s="12" t="s">
+      <c r="A111" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C111" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D111" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E111" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F111" s="12" t="s">
+      <c r="F111" s="11" t="s">
         <v>209</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H111" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I111" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J111" s="11"/>
       <c r="K111" s="18"/>
       <c r="L111" s="18"/>
-      <c r="M111" s="18"/>
+      <c r="M111" s="18">
+        <v>0.1</v>
+      </c>
       <c r="N111" s="19"/>
-      <c r="O111" s="18"/>
+      <c r="O111" s="18">
+        <v>0.1</v>
+      </c>
       <c r="P111" s="18"/>
-      <c r="Q111" s="18"/>
+      <c r="Q111" s="18">
+        <v>0.1</v>
+      </c>
       <c r="R111" s="19"/>
       <c r="S111" s="18"/>
-      <c r="T111" s="18"/>
+      <c r="T111" s="18">
+        <v>0.1</v>
+      </c>
       <c r="U111" s="18"/>
       <c r="V111" s="19"/>
       <c r="W111" s="20"/>
       <c r="X111" s="20"/>
       <c r="Y111" s="20"/>
       <c r="Z111" s="20"/>
-      <c r="AA111" s="20">
-        <v>0.15</v>
-      </c>
+      <c r="AA111" s="20"/>
       <c r="AB111" s="20"/>
-      <c r="AC111" s="20">
-        <v>0.15</v>
-      </c>
+      <c r="AC111" s="20"/>
       <c r="AD111" s="20"/>
       <c r="AE111" s="20"/>
       <c r="AF111" s="20"/>
@@ -17780,47 +17789,45 @@
       <c r="AH111" s="20"/>
       <c r="AI111" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AJ111" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:36">
       <c r="A112" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>128</v>
+        <v>113</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D112" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E112" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F112" s="11" t="s">
-        <v>260</v>
+      <c r="F112" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H112" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I112" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="J112" s="11">
-        <v>0.5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J112" s="11"/>
       <c r="K112" s="18"/>
       <c r="L112" s="18"/>
       <c r="M112" s="18"/>
@@ -17834,59 +17841,41 @@
       <c r="U112" s="18"/>
       <c r="V112" s="19"/>
       <c r="W112" s="20"/>
-      <c r="X112" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="Y112" s="20">
-        <v>0.01</v>
-      </c>
+      <c r="X112" s="20"/>
+      <c r="Y112" s="20"/>
       <c r="Z112" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AA112" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AB112" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AC112" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AD112" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AE112" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AF112" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AG112" s="20">
-        <v>0.01</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="AA112" s="20"/>
+      <c r="AB112" s="20"/>
+      <c r="AC112" s="20"/>
+      <c r="AD112" s="20"/>
+      <c r="AE112" s="20"/>
+      <c r="AF112" s="20"/>
+      <c r="AG112" s="20"/>
       <c r="AH112" s="20"/>
       <c r="AI112" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>9.9999999999999992E-2</v>
+        <v>0.2</v>
       </c>
       <c r="AJ112" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:36">
       <c r="A113" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E113" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -17899,11 +17888,11 @@
         <v>234</v>
       </c>
       <c r="H113" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I113" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J113" s="11"/>
       <c r="K113" s="18"/>
@@ -17923,10 +17912,12 @@
       <c r="Y113" s="20"/>
       <c r="Z113" s="20"/>
       <c r="AA113" s="20">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AB113" s="20"/>
-      <c r="AC113" s="20"/>
+      <c r="AC113" s="20">
+        <v>0.15</v>
+      </c>
       <c r="AD113" s="20"/>
       <c r="AE113" s="20"/>
       <c r="AF113" s="20"/>
@@ -17934,11 +17925,11 @@
       <c r="AH113" s="20"/>
       <c r="AI113" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AJ113" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:36">
@@ -17948,8 +17939,8 @@
       <c r="B114" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C114" s="12" t="s">
-        <v>124</v>
+      <c r="C114" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="D114" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -17959,21 +17950,21 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F114" s="12" t="s">
-        <v>210</v>
+      <c r="F114" s="11" t="s">
+        <v>260</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H114" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>12</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="J114" s="11">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="K114" s="18"/>
       <c r="L114" s="18"/>
@@ -17988,62 +17979,78 @@
       <c r="U114" s="18"/>
       <c r="V114" s="19"/>
       <c r="W114" s="20"/>
-      <c r="X114" s="20"/>
-      <c r="Y114" s="20"/>
-      <c r="Z114" s="20"/>
-      <c r="AA114" s="20"/>
-      <c r="AB114" s="20"/>
-      <c r="AC114" s="20"/>
-      <c r="AD114" s="20"/>
+      <c r="X114" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="Y114" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="Z114" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AA114" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AB114" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AC114" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AD114" s="20">
+        <v>0.01</v>
+      </c>
       <c r="AE114" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="AF114" s="20"/>
-      <c r="AG114" s="20"/>
+        <v>0.01</v>
+      </c>
+      <c r="AF114" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AG114" s="20">
+        <v>0.01</v>
+      </c>
       <c r="AH114" s="20"/>
       <c r="AI114" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.3</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="AJ114" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:36">
       <c r="A115" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>128</v>
+        <v>115</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D115" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E115" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F115" s="11" t="s">
-        <v>260</v>
+      <c r="F115" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="G115" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H115" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I115" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="J115" s="11">
-        <v>0.5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J115" s="11"/>
       <c r="K115" s="18"/>
       <c r="L115" s="18"/>
       <c r="M115" s="18"/>
@@ -18057,78 +18064,62 @@
       <c r="U115" s="18"/>
       <c r="V115" s="19"/>
       <c r="W115" s="20"/>
-      <c r="X115" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="Y115" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="Z115" s="20">
-        <v>0.02</v>
-      </c>
+      <c r="X115" s="20"/>
+      <c r="Y115" s="20"/>
+      <c r="Z115" s="20"/>
       <c r="AA115" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="AB115" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="AC115" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="AD115" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="AE115" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="AF115" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="AG115" s="20">
-        <v>0.02</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="AB115" s="20"/>
+      <c r="AC115" s="20"/>
+      <c r="AD115" s="20"/>
+      <c r="AE115" s="20"/>
+      <c r="AF115" s="20"/>
+      <c r="AG115" s="20"/>
       <c r="AH115" s="20"/>
       <c r="AI115" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.19999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AJ115" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:36">
       <c r="A116" s="3" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="D116" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E116" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H116" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>16</v>
-      </c>
-      <c r="J116" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="J116" s="11">
+        <v>15</v>
+      </c>
       <c r="K116" s="18"/>
       <c r="L116" s="18"/>
       <c r="M116" s="18"/>
@@ -18147,55 +18138,57 @@
       <c r="Z116" s="20"/>
       <c r="AA116" s="20"/>
       <c r="AB116" s="20"/>
-      <c r="AC116" s="20">
-        <v>0.4</v>
-      </c>
+      <c r="AC116" s="20"/>
       <c r="AD116" s="20"/>
-      <c r="AE116" s="20"/>
+      <c r="AE116" s="20">
+        <v>0.3</v>
+      </c>
       <c r="AF116" s="20"/>
       <c r="AG116" s="20"/>
       <c r="AH116" s="20"/>
       <c r="AI116" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AJ116" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:36">
       <c r="A117" s="3" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C117" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117" s="48">
+        <v>116</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D117" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
-      </c>
-      <c r="E117" s="48">
+        <v>20</v>
+      </c>
+      <c r="E117" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F117" s="51" t="s">
-        <v>208</v>
+      <c r="F117" s="11" t="s">
+        <v>260</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="H117" s="47">
-        <v>3</v>
-      </c>
-      <c r="I117" s="49">
+      <c r="H117" s="11">
+        <v>1</v>
+      </c>
+      <c r="I117" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>22</v>
-      </c>
-      <c r="J117" s="47"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="J117" s="11">
+        <v>0.5</v>
+      </c>
       <c r="K117" s="18"/>
       <c r="L117" s="18"/>
       <c r="M117" s="18"/>
@@ -18209,26 +18202,44 @@
       <c r="U117" s="18"/>
       <c r="V117" s="19"/>
       <c r="W117" s="20"/>
-      <c r="X117" s="20"/>
-      <c r="Y117" s="20"/>
-      <c r="Z117" s="20"/>
-      <c r="AA117" s="20"/>
-      <c r="AB117" s="20"/>
-      <c r="AC117" s="20"/>
-      <c r="AD117" s="20"/>
-      <c r="AE117" s="20"/>
+      <c r="X117" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="Y117" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="Z117" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="AA117" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="AB117" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="AC117" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="AD117" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="AE117" s="20">
+        <v>0.02</v>
+      </c>
       <c r="AF117" s="20">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AG117" s="20"/>
+        <v>0.02</v>
+      </c>
+      <c r="AG117" s="20">
+        <v>0.02</v>
+      </c>
       <c r="AH117" s="20"/>
-      <c r="AI117" s="50">
+      <c r="AI117" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AJ117" s="50">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="AJ117" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:36">
@@ -18239,7 +18250,7 @@
         <v>118</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="D118" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -18256,11 +18267,11 @@
         <v>234</v>
       </c>
       <c r="H118" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I118" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J118" s="11"/>
       <c r="K118" s="18"/>
@@ -18281,55 +18292,55 @@
       <c r="Z118" s="20"/>
       <c r="AA118" s="20"/>
       <c r="AB118" s="20"/>
-      <c r="AC118" s="20"/>
+      <c r="AC118" s="20">
+        <v>0.4</v>
+      </c>
       <c r="AD118" s="20"/>
       <c r="AE118" s="20"/>
       <c r="AF118" s="20"/>
-      <c r="AG118" s="20">
-        <v>0.05</v>
-      </c>
+      <c r="AG118" s="20"/>
       <c r="AH118" s="20"/>
       <c r="AI118" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="AJ118" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:36">
       <c r="A119" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B119" s="28" t="s">
-        <v>245</v>
+        <v>117</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D119" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E119" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F119" s="12"/>
+      <c r="F119" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="G119" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H119" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="J119" s="11">
-        <v>0.5</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J119" s="11"/>
       <c r="K119" s="18"/>
       <c r="L119" s="18"/>
       <c r="M119" s="18"/>
@@ -18342,75 +18353,59 @@
       <c r="T119" s="18"/>
       <c r="U119" s="18"/>
       <c r="V119" s="19"/>
-      <c r="W119" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="X119" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="Y119" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="Z119" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AA119" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AB119" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AC119" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AD119" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AE119" s="20">
-        <v>0.01</v>
-      </c>
+      <c r="W119" s="20"/>
+      <c r="X119" s="20"/>
+      <c r="Y119" s="20"/>
+      <c r="Z119" s="20"/>
+      <c r="AA119" s="20"/>
+      <c r="AB119" s="20"/>
+      <c r="AC119" s="20"/>
+      <c r="AD119" s="20"/>
+      <c r="AE119" s="20"/>
       <c r="AF119" s="20">
-        <v>0.01</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG119" s="20"/>
       <c r="AH119" s="20"/>
       <c r="AI119" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>9.9999999999999992E-2</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AJ119" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:36">
       <c r="A120" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B120" s="28" t="s">
-        <v>245</v>
+        <v>117</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="D120" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E120" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F120" s="12"/>
+      <c r="F120" s="12" t="s">
+        <v>277</v>
+      </c>
       <c r="G120" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H120" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I120" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J120" s="11"/>
       <c r="K120" s="18"/>
@@ -18431,46 +18426,42 @@
       <c r="Z120" s="20"/>
       <c r="AA120" s="20"/>
       <c r="AB120" s="20"/>
-      <c r="AC120" s="20">
-        <v>0.1</v>
-      </c>
+      <c r="AC120" s="20"/>
       <c r="AD120" s="20"/>
       <c r="AE120" s="20"/>
       <c r="AF120" s="20"/>
       <c r="AG120" s="20">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AH120" s="20"/>
       <c r="AI120" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="AJ120" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:36">
       <c r="A121" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>128</v>
+        <v>244</v>
+      </c>
+      <c r="B121" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="D121" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E121" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F121" s="11" t="s">
-        <v>260</v>
-      </c>
+      <c r="F121" s="12"/>
       <c r="G121" s="11" t="s">
         <v>234</v>
       </c>
@@ -18479,7 +18470,7 @@
       </c>
       <c r="I121" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>1.5999999999999996</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="J121" s="11">
         <v>0.5</v>
@@ -18496,41 +18487,41 @@
       <c r="T121" s="18"/>
       <c r="U121" s="18"/>
       <c r="V121" s="19"/>
-      <c r="W121" s="20"/>
+      <c r="W121" s="20">
+        <v>0.01</v>
+      </c>
       <c r="X121" s="20">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="Y121" s="20">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="Z121" s="20">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="AA121" s="20">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="AB121" s="20">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="AC121" s="20">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="AD121" s="20">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="AE121" s="20">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="AF121" s="20">
-        <v>0.04</v>
-      </c>
-      <c r="AG121" s="20">
-        <v>0.04</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="AG121" s="20"/>
       <c r="AH121" s="20"/>
       <c r="AI121" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.39999999999999997</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="AJ121" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
@@ -18539,17 +18530,17 @@
     </row>
     <row r="122" spans="1:36">
       <c r="A122" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>162</v>
+        <v>244</v>
+      </c>
+      <c r="B122" s="28" t="s">
+        <v>245</v>
       </c>
       <c r="C122" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D122" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E122" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -18564,11 +18555,9 @@
       </c>
       <c r="I122" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>20</v>
-      </c>
-      <c r="J122" s="11">
-        <v>25</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J122" s="11"/>
       <c r="K122" s="18"/>
       <c r="L122" s="18"/>
       <c r="M122" s="18"/>
@@ -18587,55 +18576,59 @@
       <c r="Z122" s="20"/>
       <c r="AA122" s="20"/>
       <c r="AB122" s="20"/>
-      <c r="AC122" s="20"/>
+      <c r="AC122" s="20">
+        <v>0.1</v>
+      </c>
       <c r="AD122" s="20"/>
       <c r="AE122" s="20"/>
       <c r="AF122" s="20"/>
-      <c r="AG122" s="20"/>
-      <c r="AH122" s="20">
-        <v>0.5</v>
-      </c>
+      <c r="AG122" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AH122" s="20"/>
       <c r="AI122" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AJ122" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:36">
       <c r="A123" s="3" t="s">
-        <v>197</v>
+        <v>119</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>5</v>
+        <v>120</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="D123" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E123" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F123" s="12" t="s">
-        <v>261</v>
+      <c r="F123" s="11" t="s">
+        <v>260</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H123" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I123" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
-      </c>
-      <c r="J123" s="11"/>
+        <v>1.5999999999999996</v>
+      </c>
+      <c r="J123" s="11">
+        <v>0.5</v>
+      </c>
       <c r="K123" s="18"/>
       <c r="L123" s="18"/>
       <c r="M123" s="18"/>
@@ -18649,60 +18642,78 @@
       <c r="U123" s="18"/>
       <c r="V123" s="19"/>
       <c r="W123" s="20"/>
-      <c r="X123" s="20"/>
-      <c r="Y123" s="20"/>
+      <c r="X123" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="Y123" s="20">
+        <v>0.04</v>
+      </c>
       <c r="Z123" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="AA123" s="20"/>
-      <c r="AB123" s="20"/>
-      <c r="AC123" s="20"/>
-      <c r="AD123" s="20"/>
-      <c r="AE123" s="20"/>
-      <c r="AF123" s="20"/>
+        <v>0.04</v>
+      </c>
+      <c r="AA123" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="AB123" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="AC123" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="AD123" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="AE123" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="AF123" s="20">
+        <v>0.04</v>
+      </c>
       <c r="AG123" s="20">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="AH123" s="20"/>
       <c r="AI123" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="AJ123" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:36">
       <c r="A124" s="3" t="s">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C124" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C124" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D124" s="48">
+      <c r="D124" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>50</v>
-      </c>
-      <c r="E124" s="48">
+        <v>100</v>
+      </c>
+      <c r="E124" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F124" s="51" t="s">
-        <v>280</v>
-      </c>
+      <c r="F124" s="12"/>
       <c r="G124" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="H124" s="47"/>
-      <c r="I124" s="49">
+      <c r="H124" s="11">
+        <v>4</v>
+      </c>
+      <c r="I124" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
-      </c>
-      <c r="J124" s="47"/>
+        <v>20</v>
+      </c>
+      <c r="J124" s="11">
+        <v>25</v>
+      </c>
       <c r="K124" s="18"/>
       <c r="L124" s="18"/>
       <c r="M124" s="18"/>
@@ -18722,41 +18733,43 @@
       <c r="AA124" s="20"/>
       <c r="AB124" s="20"/>
       <c r="AC124" s="20"/>
-      <c r="AD124" s="20">
-        <v>0.2</v>
-      </c>
+      <c r="AD124" s="20"/>
       <c r="AE124" s="20"/>
       <c r="AF124" s="20"/>
       <c r="AG124" s="20"/>
-      <c r="AH124" s="20"/>
-      <c r="AI124" s="50">
+      <c r="AH124" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="AI124" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
-      </c>
-      <c r="AJ124" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="AJ124" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:36">
       <c r="A125" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C125" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D125" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E125" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F125" s="12"/>
+      <c r="F125" s="12" t="s">
+        <v>261</v>
+      </c>
       <c r="G125" s="11" t="s">
         <v>234</v>
       </c>
@@ -18765,7 +18778,7 @@
       </c>
       <c r="I125" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>13.333333333333332</v>
+        <v>4</v>
       </c>
       <c r="J125" s="11"/>
       <c r="K125" s="18"/>
@@ -18784,221 +18797,168 @@
       <c r="X125" s="20"/>
       <c r="Y125" s="20"/>
       <c r="Z125" s="20">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AA125" s="20"/>
       <c r="AB125" s="20"/>
       <c r="AC125" s="20"/>
-      <c r="AD125" s="20">
-        <v>0.4</v>
-      </c>
+      <c r="AD125" s="20"/>
       <c r="AE125" s="20"/>
       <c r="AF125" s="20"/>
       <c r="AG125" s="20">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AH125" s="20"/>
       <c r="AI125" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AJ125" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:36">
       <c r="A126" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B126" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>127</v>
+        <v>197</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D126" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E126" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>60</v>
-      </c>
-      <c r="F126" s="11" t="s">
-        <v>236</v>
+        <v>10</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>279</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="H126" s="11">
         <v>1</v>
       </c>
       <c r="I126" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>9.9999999999999964</v>
-      </c>
-      <c r="J126" s="11">
-        <v>20</v>
-      </c>
-      <c r="K126" s="18">
-        <f>1/24</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="L126" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M126" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="N126" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="O126" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="P126" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="Q126" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="R126" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="S126" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="T126" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="U126" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="V126" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="W126" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="X126" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="Y126" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="Z126" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AA126" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AB126" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AC126" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J126" s="11"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="18"/>
+      <c r="M126" s="18"/>
+      <c r="N126" s="19"/>
+      <c r="O126" s="18"/>
+      <c r="P126" s="18"/>
+      <c r="Q126" s="18"/>
+      <c r="R126" s="19"/>
+      <c r="S126" s="18"/>
+      <c r="T126" s="18"/>
+      <c r="U126" s="18"/>
+      <c r="V126" s="19"/>
+      <c r="W126" s="20"/>
+      <c r="X126" s="20"/>
+      <c r="Y126" s="20"/>
+      <c r="Z126" s="20"/>
+      <c r="AA126" s="20"/>
+      <c r="AB126" s="20"/>
+      <c r="AC126" s="20"/>
       <c r="AD126" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AE126" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AF126" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AG126" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AH126" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="AE126" s="20"/>
+      <c r="AF126" s="20"/>
+      <c r="AG126" s="20"/>
+      <c r="AH126" s="20"/>
       <c r="AI126" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.99999999999999956</v>
+        <v>0.2</v>
       </c>
       <c r="AJ126" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>480</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:36">
-      <c r="A127" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>125</v>
+      <c r="A127" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D127" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E127" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>60</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>270</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F127" s="12"/>
       <c r="G127" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H127" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I127" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>30</v>
-      </c>
-      <c r="J127" s="11">
-        <v>0.1</v>
-      </c>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="J127" s="11"/>
       <c r="K127" s="18"/>
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
-      <c r="N127" s="18"/>
+      <c r="N127" s="19"/>
       <c r="O127" s="18"/>
       <c r="P127" s="18"/>
       <c r="Q127" s="18"/>
-      <c r="R127" s="18"/>
+      <c r="R127" s="19"/>
       <c r="S127" s="18"/>
       <c r="T127" s="18"/>
-      <c r="U127" s="18">
-        <v>0.125</v>
-      </c>
-      <c r="V127" s="18"/>
+      <c r="U127" s="18"/>
+      <c r="V127" s="19"/>
       <c r="W127" s="20"/>
       <c r="X127" s="20"/>
       <c r="Y127" s="20"/>
-      <c r="Z127" s="20"/>
+      <c r="Z127" s="20">
+        <v>0.2</v>
+      </c>
       <c r="AA127" s="20"/>
       <c r="AB127" s="20"/>
       <c r="AC127" s="20"/>
-      <c r="AD127" s="20"/>
+      <c r="AD127" s="20">
+        <v>0.4</v>
+      </c>
       <c r="AE127" s="20"/>
       <c r="AF127" s="20"/>
-      <c r="AG127" s="20"/>
-      <c r="AH127" s="20">
-        <v>0.125</v>
-      </c>
+      <c r="AG127" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="AH127" s="20"/>
       <c r="AI127" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AJ127" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>0.2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:36">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="28" t="s">
         <v>23</v>
       </c>
       <c r="C128" s="11" t="s">
@@ -19013,54 +18973,101 @@
         <v>60</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="H128" s="11">
         <v>1</v>
       </c>
       <c r="I128" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>24</v>
+        <v>9.9999999999999964</v>
       </c>
       <c r="J128" s="11">
-        <v>1</v>
-      </c>
-      <c r="K128" s="18"/>
-      <c r="L128" s="18"/>
-      <c r="M128" s="18"/>
-      <c r="N128" s="19"/>
-      <c r="O128" s="18"/>
-      <c r="P128" s="18"/>
-      <c r="Q128" s="18"/>
-      <c r="R128" s="19"/>
-      <c r="S128" s="18"/>
-      <c r="T128" s="18"/>
-      <c r="U128" s="18"/>
-      <c r="V128" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="K128" s="18">
+        <f>1/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="L128" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M128" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N128" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="O128" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="P128" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="Q128" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="R128" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="S128" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="T128" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="U128" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="V128" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="W128" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="X128" s="20"/>
-      <c r="Y128" s="20"/>
-      <c r="Z128" s="20"/>
-      <c r="AA128" s="20"/>
-      <c r="AB128" s="20"/>
-      <c r="AC128" s="20"/>
-      <c r="AD128" s="20"/>
-      <c r="AE128" s="20"/>
-      <c r="AF128" s="20"/>
-      <c r="AG128" s="20"/>
-      <c r="AH128" s="20"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="X128" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="Y128" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="Z128" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AA128" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AB128" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AC128" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AD128" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AE128" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AF128" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AG128" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AH128" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="AI128" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
+        <v>0.99999999999999956</v>
       </c>
       <c r="AJ128" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>1</v>
+        <v>480</v>
       </c>
     </row>
     <row r="129" spans="1:36">
@@ -19070,45 +19077,47 @@
       <c r="B129" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C129" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D129" s="29">
+      <c r="C129" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D129" s="46">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>75</v>
       </c>
-      <c r="E129" s="29">
+      <c r="E129" s="46">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>60</v>
       </c>
-      <c r="F129" s="11" t="s">
-        <v>237</v>
+      <c r="F129" s="45" t="s">
+        <v>283</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="H129" s="11">
-        <v>11</v>
-      </c>
-      <c r="I129" s="11">
+        <v>225</v>
+      </c>
+      <c r="H129" s="45">
+        <v>1</v>
+      </c>
+      <c r="I129" s="47">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>48</v>
-      </c>
-      <c r="J129" s="11">
         <v>10</v>
+      </c>
+      <c r="J129" s="45">
+        <v>0.1</v>
       </c>
       <c r="K129" s="18"/>
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
       <c r="N129" s="19"/>
       <c r="O129" s="18"/>
-      <c r="P129" s="18"/>
+      <c r="P129" s="18">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="Q129" s="18"/>
       <c r="R129" s="19"/>
       <c r="S129" s="18"/>
       <c r="T129" s="18"/>
       <c r="U129" s="18">
-        <v>0.2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="V129" s="19"/>
       <c r="W129" s="20"/>
@@ -19116,44 +19125,44 @@
       <c r="Y129" s="20"/>
       <c r="Z129" s="20"/>
       <c r="AA129" s="20"/>
-      <c r="AB129" s="20"/>
+      <c r="AB129" s="20">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="AC129" s="20"/>
       <c r="AD129" s="20"/>
       <c r="AE129" s="20"/>
       <c r="AF129" s="20"/>
       <c r="AG129" s="20"/>
-      <c r="AH129" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="AI129" s="27">
+      <c r="AH129" s="20"/>
+      <c r="AI129" s="48">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.4</v>
-      </c>
-      <c r="AJ129" s="27">
+        <v>0.125</v>
+      </c>
+      <c r="AJ129" s="48">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>20</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="130" spans="1:36">
       <c r="A130" s="4" t="s">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D130" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E130" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>234</v>
@@ -19163,44 +19172,23 @@
       </c>
       <c r="I130" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>1.142857142857143</v>
+        <v>60</v>
       </c>
       <c r="J130" s="11">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="K130" s="18"/>
-      <c r="L130" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="M130" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="N130" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
+      <c r="L130" s="18"/>
+      <c r="M130" s="18"/>
+      <c r="N130" s="18"/>
       <c r="O130" s="18"/>
-      <c r="P130" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="Q130" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="R130" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="S130" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
+      <c r="P130" s="18"/>
+      <c r="Q130" s="18"/>
+      <c r="R130" s="18"/>
+      <c r="S130" s="18"/>
       <c r="T130" s="18"/>
       <c r="U130" s="18"/>
-      <c r="V130" s="19"/>
+      <c r="V130" s="18"/>
       <c r="W130" s="20"/>
       <c r="X130" s="20"/>
       <c r="Y130" s="20"/>
@@ -19212,54 +19200,56 @@
       <c r="AE130" s="20"/>
       <c r="AF130" s="20"/>
       <c r="AG130" s="20"/>
-      <c r="AH130" s="20"/>
+      <c r="AH130" s="20">
+        <v>0.25</v>
+      </c>
       <c r="AI130" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.20000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="AJ130" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="131" spans="1:36">
       <c r="A131" s="4" t="s">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="D131" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E131" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>271</v>
+        <v>215</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H131" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
-      </c>
-      <c r="J131" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="J131" s="11">
+        <v>1</v>
+      </c>
       <c r="K131" s="18"/>
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
-      <c r="N131" s="19">
-        <v>0.2</v>
-      </c>
+      <c r="N131" s="19"/>
       <c r="O131" s="18"/>
       <c r="P131" s="18"/>
       <c r="Q131" s="18"/>
@@ -19268,7 +19258,9 @@
       <c r="T131" s="18"/>
       <c r="U131" s="18"/>
       <c r="V131" s="19"/>
-      <c r="W131" s="20"/>
+      <c r="W131" s="20">
+        <v>0.1</v>
+      </c>
       <c r="X131" s="20"/>
       <c r="Y131" s="20"/>
       <c r="Z131" s="20"/>
@@ -19282,45 +19274,47 @@
       <c r="AH131" s="20"/>
       <c r="AI131" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AJ131" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:36">
       <c r="A132" s="4" t="s">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D132" s="29">
+        <v>23</v>
+      </c>
+      <c r="C132" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D132" s="46">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
-      </c>
-      <c r="E132" s="29">
+        <v>75</v>
+      </c>
+      <c r="E132" s="46">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>60</v>
+      </c>
+      <c r="F132" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="H132" s="45">
+        <v>11</v>
+      </c>
+      <c r="I132" s="47">
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>48</v>
+      </c>
+      <c r="J132" s="45">
         <v>10</v>
       </c>
-      <c r="F132" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="G132" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="H132" s="11">
-        <v>4</v>
-      </c>
-      <c r="I132" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
-      </c>
-      <c r="J132" s="11"/>
       <c r="K132" s="18"/>
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
@@ -19328,12 +19322,12 @@
       <c r="O132" s="18"/>
       <c r="P132" s="18"/>
       <c r="Q132" s="18"/>
-      <c r="R132" s="19">
-        <v>0.2</v>
-      </c>
+      <c r="R132" s="19"/>
       <c r="S132" s="18"/>
       <c r="T132" s="18"/>
-      <c r="U132" s="18"/>
+      <c r="U132" s="18">
+        <v>0.2</v>
+      </c>
       <c r="V132" s="19"/>
       <c r="W132" s="20"/>
       <c r="X132" s="20"/>
@@ -19347,47 +19341,49 @@
       <c r="AF132" s="20"/>
       <c r="AG132" s="20"/>
       <c r="AH132" s="20"/>
-      <c r="AI132" s="27">
+      <c r="AI132" s="48">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>0.2</v>
       </c>
-      <c r="AJ132" s="27">
+      <c r="AJ132" s="48">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:36">
       <c r="A133" s="4" t="s">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="D133" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E133" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H133" s="11">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I133" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>16</v>
-      </c>
-      <c r="J133" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="J133" s="11">
+        <v>10</v>
+      </c>
       <c r="K133" s="18"/>
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
@@ -19398,9 +19394,7 @@
       <c r="R133" s="19"/>
       <c r="S133" s="18"/>
       <c r="T133" s="18"/>
-      <c r="U133" s="18">
-        <v>0.4</v>
-      </c>
+      <c r="U133" s="18"/>
       <c r="V133" s="19"/>
       <c r="W133" s="20"/>
       <c r="X133" s="20"/>
@@ -19413,25 +19407,27 @@
       <c r="AE133" s="20"/>
       <c r="AF133" s="20"/>
       <c r="AG133" s="20"/>
-      <c r="AH133" s="20"/>
+      <c r="AH133" s="20">
+        <v>0.4</v>
+      </c>
       <c r="AI133" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>0.4</v>
       </c>
       <c r="AJ133" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:36">
       <c r="A134" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="D134" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -19442,34 +19438,53 @@
         <v>10</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H134" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I134" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>20</v>
-      </c>
-      <c r="J134" s="11"/>
+        <v>1.142857142857143</v>
+      </c>
+      <c r="J134" s="11">
+        <v>0.5</v>
+      </c>
       <c r="K134" s="18"/>
-      <c r="L134" s="18"/>
-      <c r="M134" s="18"/>
-      <c r="N134" s="19"/>
+      <c r="L134" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="M134" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="N134" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
       <c r="O134" s="18"/>
       <c r="P134" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="Q134" s="18"/>
-      <c r="R134" s="19"/>
-      <c r="S134" s="18"/>
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="Q134" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="R134" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="S134" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
       <c r="T134" s="18"/>
-      <c r="U134" s="18">
-        <v>0.5</v>
-      </c>
+      <c r="U134" s="18"/>
       <c r="V134" s="19"/>
       <c r="W134" s="20"/>
       <c r="X134" s="20"/>
@@ -19485,19 +19500,19 @@
       <c r="AH134" s="20"/>
       <c r="AI134" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>1</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="AJ134" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>40</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="135" spans="1:36">
       <c r="A135" s="4" t="s">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="C135" s="11" t="s">
         <v>5</v>
@@ -19508,9 +19523,11 @@
       </c>
       <c r="E135" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
-      </c>
-      <c r="F135" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>270</v>
+      </c>
       <c r="G135" s="11" t="s">
         <v>234</v>
       </c>
@@ -19524,10 +19541,10 @@
       <c r="J135" s="11"/>
       <c r="K135" s="18"/>
       <c r="L135" s="18"/>
-      <c r="M135" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="N135" s="19"/>
+      <c r="M135" s="18"/>
+      <c r="N135" s="19">
+        <v>0.2</v>
+      </c>
       <c r="O135" s="18"/>
       <c r="P135" s="18"/>
       <c r="Q135" s="18"/>
@@ -19550,7 +19567,7 @@
       <c r="AH135" s="20"/>
       <c r="AI135" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AJ135" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
@@ -19559,10 +19576,10 @@
     </row>
     <row r="136" spans="1:36">
       <c r="A136" s="4" t="s">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="C136" s="11" t="s">
         <v>5</v>
@@ -19573,9 +19590,11 @@
       </c>
       <c r="E136" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
-      </c>
-      <c r="F136" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>271</v>
+      </c>
       <c r="G136" s="11" t="s">
         <v>234</v>
       </c>
@@ -19584,19 +19603,19 @@
       </c>
       <c r="I136" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J136" s="11"/>
       <c r="K136" s="18"/>
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
       <c r="N136" s="19"/>
-      <c r="O136" s="18">
-        <v>0.3</v>
-      </c>
+      <c r="O136" s="18"/>
       <c r="P136" s="18"/>
       <c r="Q136" s="18"/>
-      <c r="R136" s="19"/>
+      <c r="R136" s="19">
+        <v>0.2</v>
+      </c>
       <c r="S136" s="18"/>
       <c r="T136" s="18"/>
       <c r="U136" s="18"/>
@@ -19615,19 +19634,19 @@
       <c r="AH136" s="20"/>
       <c r="AI136" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AJ136" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:36">
       <c r="A137" s="4" t="s">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="C137" s="11" t="s">
         <v>5</v>
@@ -19638,9 +19657,11 @@
       </c>
       <c r="E137" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
-      </c>
-      <c r="F137" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="G137" s="11" t="s">
         <v>234</v>
       </c>
@@ -19649,7 +19670,7 @@
       </c>
       <c r="I137" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J137" s="11"/>
       <c r="K137" s="18"/>
@@ -19657,14 +19678,14 @@
       <c r="M137" s="18"/>
       <c r="N137" s="19"/>
       <c r="O137" s="18"/>
-      <c r="P137" s="18">
-        <v>0.1</v>
-      </c>
+      <c r="P137" s="18"/>
       <c r="Q137" s="18"/>
       <c r="R137" s="19"/>
       <c r="S137" s="18"/>
       <c r="T137" s="18"/>
-      <c r="U137" s="18"/>
+      <c r="U137" s="18">
+        <v>0.4</v>
+      </c>
       <c r="V137" s="19"/>
       <c r="W137" s="20"/>
       <c r="X137" s="20"/>
@@ -19680,22 +19701,22 @@
       <c r="AH137" s="20"/>
       <c r="AI137" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="AJ137" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:36">
       <c r="A138" s="4" t="s">
-        <v>184</v>
+        <v>251</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>187</v>
+        <v>252</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="D138" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -19703,18 +19724,20 @@
       </c>
       <c r="E138" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
-      </c>
-      <c r="F138" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>208</v>
+      </c>
       <c r="G138" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H138" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I138" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J138" s="11"/>
       <c r="K138" s="18"/>
@@ -19722,13 +19745,15 @@
       <c r="M138" s="18"/>
       <c r="N138" s="19"/>
       <c r="O138" s="18"/>
-      <c r="P138" s="18"/>
+      <c r="P138" s="18">
+        <v>0.5</v>
+      </c>
       <c r="Q138" s="18"/>
       <c r="R138" s="19"/>
       <c r="S138" s="18"/>
       <c r="T138" s="18"/>
       <c r="U138" s="18">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="V138" s="19"/>
       <c r="W138" s="20"/>
@@ -19745,11 +19770,11 @@
       <c r="AH138" s="20"/>
       <c r="AI138" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AJ138" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139" spans="1:36">
@@ -19760,7 +19785,7 @@
         <v>187</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="D139" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -19775,16 +19800,18 @@
         <v>234</v>
       </c>
       <c r="H139" s="11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I139" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J139" s="11"/>
       <c r="K139" s="18"/>
       <c r="L139" s="18"/>
-      <c r="M139" s="18"/>
+      <c r="M139" s="18">
+        <v>0.1</v>
+      </c>
       <c r="N139" s="19"/>
       <c r="O139" s="18"/>
       <c r="P139" s="18"/>
@@ -19792,9 +19819,7 @@
       <c r="R139" s="19"/>
       <c r="S139" s="18"/>
       <c r="T139" s="18"/>
-      <c r="U139" s="18">
-        <v>0.2</v>
-      </c>
+      <c r="U139" s="18"/>
       <c r="V139" s="19"/>
       <c r="W139" s="20"/>
       <c r="X139" s="20"/>
@@ -19810,19 +19835,19 @@
       <c r="AH139" s="20"/>
       <c r="AI139" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AJ139" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:36">
       <c r="A140" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C140" s="11" t="s">
         <v>5</v>
@@ -19840,18 +19865,20 @@
         <v>234</v>
       </c>
       <c r="H140" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I140" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J140" s="11"/>
       <c r="K140" s="18"/>
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
       <c r="N140" s="19"/>
-      <c r="O140" s="18"/>
+      <c r="O140" s="18">
+        <v>0.3</v>
+      </c>
       <c r="P140" s="18"/>
       <c r="Q140" s="18"/>
       <c r="R140" s="19"/>
@@ -19861,9 +19888,7 @@
       <c r="V140" s="19"/>
       <c r="W140" s="20"/>
       <c r="X140" s="20"/>
-      <c r="Y140" s="20">
-        <v>0.1</v>
-      </c>
+      <c r="Y140" s="20"/>
       <c r="Z140" s="20"/>
       <c r="AA140" s="20"/>
       <c r="AB140" s="20"/>
@@ -19875,22 +19900,22 @@
       <c r="AH140" s="20"/>
       <c r="AI140" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AJ140" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:36">
       <c r="A141" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="D141" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -19905,11 +19930,11 @@
         <v>234</v>
       </c>
       <c r="H141" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I141" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J141" s="11"/>
       <c r="K141" s="18"/>
@@ -19917,7 +19942,9 @@
       <c r="M141" s="18"/>
       <c r="N141" s="19"/>
       <c r="O141" s="18"/>
-      <c r="P141" s="18"/>
+      <c r="P141" s="18">
+        <v>0.1</v>
+      </c>
       <c r="Q141" s="18"/>
       <c r="R141" s="19"/>
       <c r="S141" s="18"/>
@@ -19930,9 +19957,7 @@
       <c r="Z141" s="20"/>
       <c r="AA141" s="20"/>
       <c r="AB141" s="20"/>
-      <c r="AC141" s="20">
-        <v>0.3</v>
-      </c>
+      <c r="AC141" s="20"/>
       <c r="AD141" s="20"/>
       <c r="AE141" s="20"/>
       <c r="AF141" s="20"/>
@@ -19940,22 +19965,22 @@
       <c r="AH141" s="20"/>
       <c r="AI141" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AJ141" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:36">
       <c r="A142" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D142" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -19970,11 +19995,11 @@
         <v>234</v>
       </c>
       <c r="H142" s="11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I142" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J142" s="11"/>
       <c r="K142" s="18"/>
@@ -19987,7 +20012,9 @@
       <c r="R142" s="19"/>
       <c r="S142" s="18"/>
       <c r="T142" s="18"/>
-      <c r="U142" s="18"/>
+      <c r="U142" s="18">
+        <v>0.3</v>
+      </c>
       <c r="V142" s="19"/>
       <c r="W142" s="20"/>
       <c r="X142" s="20"/>
@@ -19999,28 +20026,26 @@
       <c r="AD142" s="20"/>
       <c r="AE142" s="20"/>
       <c r="AF142" s="20"/>
-      <c r="AG142" s="20">
-        <v>0.2</v>
-      </c>
+      <c r="AG142" s="20"/>
       <c r="AH142" s="20"/>
       <c r="AI142" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AJ142" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:36">
       <c r="A143" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D143" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -20039,7 +20064,7 @@
       </c>
       <c r="I143" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J143" s="11"/>
       <c r="K143" s="18"/>
@@ -20052,7 +20077,9 @@
       <c r="R143" s="19"/>
       <c r="S143" s="18"/>
       <c r="T143" s="18"/>
-      <c r="U143" s="18"/>
+      <c r="U143" s="18">
+        <v>0.2</v>
+      </c>
       <c r="V143" s="19"/>
       <c r="W143" s="20"/>
       <c r="X143" s="20"/>
@@ -20065,14 +20092,272 @@
       <c r="AE143" s="20"/>
       <c r="AF143" s="20"/>
       <c r="AG143" s="20"/>
-      <c r="AH143" s="20">
-        <v>0.4</v>
-      </c>
+      <c r="AH143" s="20"/>
       <c r="AI143" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+        <v>0.2</v>
+      </c>
+      <c r="AJ143" s="27">
+        <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:36">
+      <c r="A144" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="29">
+        <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>100</v>
+      </c>
+      <c r="E144" s="29">
+        <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>20</v>
+      </c>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H144" s="11">
+        <v>3</v>
+      </c>
+      <c r="I144" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>8</v>
+      </c>
+      <c r="J144" s="11"/>
+      <c r="K144" s="18"/>
+      <c r="L144" s="18"/>
+      <c r="M144" s="18"/>
+      <c r="N144" s="19"/>
+      <c r="O144" s="18"/>
+      <c r="P144" s="18"/>
+      <c r="Q144" s="18"/>
+      <c r="R144" s="19"/>
+      <c r="S144" s="18"/>
+      <c r="T144" s="18"/>
+      <c r="U144" s="18"/>
+      <c r="V144" s="19"/>
+      <c r="W144" s="20"/>
+      <c r="X144" s="20"/>
+      <c r="Y144" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="Z144" s="20"/>
+      <c r="AA144" s="20"/>
+      <c r="AB144" s="20"/>
+      <c r="AC144" s="20"/>
+      <c r="AD144" s="20"/>
+      <c r="AE144" s="20"/>
+      <c r="AF144" s="20"/>
+      <c r="AG144" s="20"/>
+      <c r="AH144" s="20"/>
+      <c r="AI144" s="27">
+        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="AJ144" s="27">
+        <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:36">
+      <c r="A145" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D145" s="29">
+        <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>100</v>
+      </c>
+      <c r="E145" s="29">
+        <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>20</v>
+      </c>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H145" s="11">
+        <v>7</v>
+      </c>
+      <c r="I145" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>24</v>
+      </c>
+      <c r="J145" s="11"/>
+      <c r="K145" s="18"/>
+      <c r="L145" s="18"/>
+      <c r="M145" s="18"/>
+      <c r="N145" s="19"/>
+      <c r="O145" s="18"/>
+      <c r="P145" s="18"/>
+      <c r="Q145" s="18"/>
+      <c r="R145" s="19"/>
+      <c r="S145" s="18"/>
+      <c r="T145" s="18"/>
+      <c r="U145" s="18"/>
+      <c r="V145" s="19"/>
+      <c r="W145" s="20"/>
+      <c r="X145" s="20"/>
+      <c r="Y145" s="20"/>
+      <c r="Z145" s="20"/>
+      <c r="AA145" s="20"/>
+      <c r="AB145" s="20"/>
+      <c r="AC145" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="AD145" s="20"/>
+      <c r="AE145" s="20"/>
+      <c r="AF145" s="20"/>
+      <c r="AG145" s="20"/>
+      <c r="AH145" s="20"/>
+      <c r="AI145" s="27">
+        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+        <v>0.3</v>
+      </c>
+      <c r="AJ145" s="27">
+        <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:36">
+      <c r="A146" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D146" s="29">
+        <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>100</v>
+      </c>
+      <c r="E146" s="29">
+        <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>20</v>
+      </c>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H146" s="11">
+        <v>11</v>
+      </c>
+      <c r="I146" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>16</v>
+      </c>
+      <c r="J146" s="11"/>
+      <c r="K146" s="18"/>
+      <c r="L146" s="18"/>
+      <c r="M146" s="18"/>
+      <c r="N146" s="19"/>
+      <c r="O146" s="18"/>
+      <c r="P146" s="18"/>
+      <c r="Q146" s="18"/>
+      <c r="R146" s="19"/>
+      <c r="S146" s="18"/>
+      <c r="T146" s="18"/>
+      <c r="U146" s="18"/>
+      <c r="V146" s="19"/>
+      <c r="W146" s="20"/>
+      <c r="X146" s="20"/>
+      <c r="Y146" s="20"/>
+      <c r="Z146" s="20"/>
+      <c r="AA146" s="20"/>
+      <c r="AB146" s="20"/>
+      <c r="AC146" s="20"/>
+      <c r="AD146" s="20"/>
+      <c r="AE146" s="20"/>
+      <c r="AF146" s="20"/>
+      <c r="AG146" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="AH146" s="20"/>
+      <c r="AI146" s="27">
+        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+        <v>0.2</v>
+      </c>
+      <c r="AJ146" s="27">
+        <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:36">
+      <c r="A147" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D147" s="29">
+        <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>100</v>
+      </c>
+      <c r="E147" s="29">
+        <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>20</v>
+      </c>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H147" s="11">
+        <v>6</v>
+      </c>
+      <c r="I147" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>32</v>
+      </c>
+      <c r="J147" s="11"/>
+      <c r="K147" s="18"/>
+      <c r="L147" s="18"/>
+      <c r="M147" s="18"/>
+      <c r="N147" s="19"/>
+      <c r="O147" s="18"/>
+      <c r="P147" s="18"/>
+      <c r="Q147" s="18"/>
+      <c r="R147" s="19"/>
+      <c r="S147" s="18"/>
+      <c r="T147" s="18"/>
+      <c r="U147" s="18"/>
+      <c r="V147" s="19"/>
+      <c r="W147" s="20"/>
+      <c r="X147" s="20"/>
+      <c r="Y147" s="20"/>
+      <c r="Z147" s="20"/>
+      <c r="AA147" s="20"/>
+      <c r="AB147" s="20"/>
+      <c r="AC147" s="20"/>
+      <c r="AD147" s="20"/>
+      <c r="AE147" s="20"/>
+      <c r="AF147" s="20"/>
+      <c r="AG147" s="20"/>
+      <c r="AH147" s="20">
         <v>0.4</v>
       </c>
-      <c r="AJ143" s="27">
+      <c r="AI147" s="27">
+        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+        <v>0.4</v>
+      </c>
+      <c r="AJ147" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>32</v>
       </c>
@@ -20098,16 +20383,16 @@
       <selection pane="bottomRight" activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" style="10" customWidth="1"/>
-    <col min="7" max="15" width="16.265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="17.265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="30" width="8.73046875" style="16"/>
+    <col min="6" max="6" width="10.7265625" style="10" customWidth="1"/>
+    <col min="7" max="15" width="16.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="17.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="30" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -26254,17 +26539,17 @@
   <dimension ref="A1:R128"/>
   <sheetViews>
     <sheetView topLeftCell="B57" workbookViewId="0">
-      <selection activeCell="P88" sqref="P88"/>
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.86328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -28502,7 +28787,7 @@
         <v>66</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>137</v>
@@ -30907,11 +31192,11 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
@@ -31999,7 +32284,7 @@
       </c>
       <c r="C48">
         <f>SUMIF(Table1[Module Code],Sheet2!A48,Table1[Total Hours])</f>
-        <v>275.2</v>
+        <v>275.39999999999998</v>
       </c>
       <c r="D48">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A48,Table14[Module Code],0))</f>
@@ -32007,11 +32292,11 @@
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>289.2</v>
+        <v>289.39999999999998</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>9.6399999999999988</v>
+        <v>9.6466666666666665</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -32455,7 +32740,7 @@
       </c>
       <c r="C67">
         <f>SUMIF(Table1[Module Code],Sheet2!A67,Table1[Total Hours])</f>
-        <v>501.2</v>
+        <v>501.40000000000003</v>
       </c>
       <c r="D67">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A67,Table14[Module Code],0))</f>
@@ -32463,11 +32748,11 @@
       </c>
       <c r="E67">
         <f t="shared" si="0"/>
-        <v>530.70000000000005</v>
+        <v>530.90000000000009</v>
       </c>
       <c r="F67">
         <f t="shared" si="1"/>
-        <v>8.8450000000000006</v>
+        <v>8.8483333333333345</v>
       </c>
     </row>
     <row r="68" spans="1:6">
